--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23595" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="25740" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Instruct" sheetId="4" r:id="rId3"/>
     <sheet name="ASTType" sheetId="5" r:id="rId4"/>
     <sheet name="PSTType" sheetId="6" r:id="rId5"/>
+    <sheet name="TokenType" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="281">
   <si>
     <t>[ ]</t>
   </si>
@@ -839,14 +840,178 @@
   </si>
   <si>
     <t>没有值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semicolon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftBrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightBrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleSlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElseIf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +1070,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -934,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,7 +1425,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -1261,7 +1438,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1284,7 +1461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1304,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1324,7 +1501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1344,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1364,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1384,7 +1561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1404,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1424,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1444,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1467,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1487,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1507,7 +1684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -1530,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -1550,7 +1727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -1570,7 +1747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -1593,7 +1770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1613,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -1639,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -1662,7 +1839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -1685,7 +1862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -1708,7 +1885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -1728,7 +1905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -1751,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -1777,7 +1954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -1800,7 +1977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -1823,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -1843,7 +2020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -1863,7 +2040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -1889,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -1912,7 +2089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -1932,7 +2109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -1955,7 +2132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -1975,7 +2152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -1995,7 +2172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2015,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2035,7 +2212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2055,7 +2232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2075,7 +2252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2095,7 +2272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2115,7 +2292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2135,7 +2312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -2155,7 +2332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -2186,18 +2363,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>191</v>
       </c>
@@ -2208,7 +2385,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -2219,7 +2396,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>192</v>
       </c>
@@ -2230,7 +2407,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>193</v>
       </c>
@@ -2241,7 +2418,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>194</v>
       </c>
@@ -2252,7 +2429,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>195</v>
       </c>
@@ -2263,7 +2440,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2274,7 +2451,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>197</v>
       </c>
@@ -2285,7 +2462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>198</v>
       </c>
@@ -2296,7 +2473,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>199</v>
       </c>
@@ -2307,7 +2484,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>200</v>
       </c>
@@ -2332,7 +2509,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="16.625" style="3" customWidth="1"/>
@@ -2342,7 +2519,7 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>206</v>
       </c>
@@ -2371,7 +2548,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>207</v>
       </c>
@@ -2385,7 +2562,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -2399,7 +2576,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>207</v>
       </c>
@@ -2413,7 +2590,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>207</v>
       </c>
@@ -2427,7 +2604,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>207</v>
       </c>
@@ -2441,7 +2618,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>207</v>
       </c>
@@ -2455,7 +2632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>207</v>
       </c>
@@ -2469,11 +2646,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
@@ -2481,7 +2658,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>207</v>
       </c>
@@ -2492,7 +2669,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>207</v>
       </c>
@@ -2503,7 +2680,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>203</v>
       </c>
@@ -2511,7 +2688,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>207</v>
       </c>
@@ -2522,7 +2699,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>207</v>
       </c>
@@ -2533,7 +2710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>207</v>
       </c>
@@ -2544,7 +2721,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>207</v>
       </c>
@@ -2555,7 +2732,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>207</v>
       </c>
@@ -2566,7 +2743,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
@@ -2577,7 +2754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>207</v>
       </c>
@@ -2588,7 +2765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>207</v>
       </c>
@@ -2599,7 +2776,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>207</v>
       </c>
@@ -2610,7 +2787,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>207</v>
       </c>
@@ -2621,7 +2798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>207</v>
       </c>
@@ -2632,7 +2809,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>207</v>
       </c>
@@ -2643,10 +2820,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>207</v>
       </c>
@@ -2657,7 +2834,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>207</v>
       </c>
@@ -2668,7 +2845,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
@@ -2679,7 +2856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>207</v>
       </c>
@@ -2690,7 +2867,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>207</v>
       </c>
@@ -2701,7 +2878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>207</v>
       </c>
@@ -2712,7 +2889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>207</v>
       </c>
@@ -2738,14 +2915,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>171</v>
       </c>
@@ -2753,7 +2930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -2761,7 +2938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>156</v>
       </c>
@@ -2769,7 +2946,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>220</v>
       </c>
@@ -2777,7 +2954,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>157</v>
       </c>
@@ -2785,7 +2962,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>158</v>
       </c>
@@ -2793,7 +2970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>159</v>
       </c>
@@ -2801,7 +2978,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>160</v>
       </c>
@@ -2809,7 +2986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>161</v>
       </c>
@@ -2817,7 +2994,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>162</v>
       </c>
@@ -2825,7 +3002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>163</v>
       </c>
@@ -2833,7 +3010,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>164</v>
       </c>
@@ -2841,7 +3018,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>165</v>
       </c>
@@ -2849,7 +3026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>166</v>
       </c>
@@ -2857,7 +3034,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>167</v>
       </c>
@@ -2865,7 +3042,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>168</v>
       </c>
@@ -2873,7 +3050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>169</v>
       </c>
@@ -2881,7 +3058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>170</v>
       </c>
@@ -2904,14 +3081,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
     <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>228</v>
       </c>
@@ -2919,52 +3096,52 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>236</v>
       </c>
@@ -2972,9 +3149,220 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -935,10 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1004,14 +1000,18 @@
   </si>
   <si>
     <t>Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,7 +1425,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -1438,7 +1438,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="18" customHeight="1">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -2367,14 +2367,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="16.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>191</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>192</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>193</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>194</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>195</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>197</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>198</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>199</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>200</v>
       </c>
@@ -2509,7 +2509,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="16.625" style="3" customWidth="1"/>
@@ -2519,7 +2519,7 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>206</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
         <v>207</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
         <v>207</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
         <v>207</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
         <v>207</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>207</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>207</v>
       </c>
@@ -2646,11 +2646,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
         <v>207</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
         <v>207</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="B14" s="3" t="s">
         <v>203</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
         <v>207</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
         <v>207</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>207</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>207</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>207</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>207</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
         <v>207</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
         <v>207</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
         <v>207</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
         <v>207</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="8" t="s">
         <v>207</v>
       </c>
@@ -2820,10 +2820,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
         <v>207</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
         <v>207</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
         <v>207</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
         <v>207</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
         <v>207</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
         <v>207</v>
       </c>
@@ -2915,14 +2915,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>171</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>156</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>220</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>157</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>158</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>159</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>160</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>161</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>162</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>163</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>164</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>165</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>166</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>167</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>168</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>169</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>170</v>
       </c>
@@ -3081,14 +3081,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
     <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>228</v>
       </c>
@@ -3096,52 +3096,52 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>236</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>235</v>
       </c>
@@ -3166,16 +3166,16 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>240</v>
       </c>
@@ -3183,12 +3183,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>247</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -3260,109 +3260,109 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="5"/>
+    <workbookView xWindow="27885" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
-    <sheet name="Type" sheetId="3" r:id="rId2"/>
-    <sheet name="Instruct" sheetId="4" r:id="rId3"/>
-    <sheet name="ASTType" sheetId="5" r:id="rId4"/>
-    <sheet name="PSTType" sheetId="6" r:id="rId5"/>
-    <sheet name="TokenType" sheetId="7" r:id="rId6"/>
+    <sheet name="Instruct" sheetId="4" r:id="rId2"/>
+    <sheet name="ASTType" sheetId="5" r:id="rId3"/>
+    <sheet name="PSTType" sheetId="6" r:id="rId4"/>
+    <sheet name="TokenType" sheetId="7" r:id="rId5"/>
+    <sheet name="ValueType" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1010,8 +1010,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,7 +1425,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -1438,7 +1438,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -2361,155 +2361,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="2" width="16.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="7">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="16.625" style="3" customWidth="1"/>
@@ -2519,7 +2377,7 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>206</v>
       </c>
@@ -2548,7 +2406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>207</v>
       </c>
@@ -2562,7 +2420,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -2576,7 +2434,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>207</v>
       </c>
@@ -2590,7 +2448,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>207</v>
       </c>
@@ -2604,7 +2462,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>207</v>
       </c>
@@ -2618,7 +2476,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>207</v>
       </c>
@@ -2632,7 +2490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>207</v>
       </c>
@@ -2646,11 +2504,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
@@ -2658,7 +2516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>207</v>
       </c>
@@ -2669,7 +2527,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>207</v>
       </c>
@@ -2680,7 +2538,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>203</v>
       </c>
@@ -2688,7 +2546,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>207</v>
       </c>
@@ -2699,7 +2557,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>207</v>
       </c>
@@ -2710,7 +2568,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>207</v>
       </c>
@@ -2721,7 +2579,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>207</v>
       </c>
@@ -2732,7 +2590,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>207</v>
       </c>
@@ -2743,7 +2601,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
@@ -2754,7 +2612,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>207</v>
       </c>
@@ -2765,7 +2623,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>207</v>
       </c>
@@ -2776,7 +2634,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>207</v>
       </c>
@@ -2787,7 +2645,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>207</v>
       </c>
@@ -2798,7 +2656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>207</v>
       </c>
@@ -2809,7 +2667,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>207</v>
       </c>
@@ -2820,10 +2678,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>207</v>
       </c>
@@ -2834,7 +2692,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>207</v>
       </c>
@@ -2845,7 +2703,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
@@ -2856,7 +2714,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>207</v>
       </c>
@@ -2867,7 +2725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>207</v>
       </c>
@@ -2878,7 +2736,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>207</v>
       </c>
@@ -2889,7 +2747,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>207</v>
       </c>
@@ -2898,6 +2756,172 @@
       </c>
       <c r="C35" s="7" t="s">
         <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2909,161 +2933,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3075,83 +3021,206 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>235</v>
+    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3163,211 +3232,142 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="16.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>279</v>
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27885" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="30030" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
-    <sheet name="Instruct" sheetId="4" r:id="rId2"/>
+    <sheet name="Inst" sheetId="4" r:id="rId2"/>
     <sheet name="ASTType" sheetId="5" r:id="rId3"/>
     <sheet name="PSTType" sheetId="6" r:id="rId4"/>
     <sheet name="TokenType" sheetId="7" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="309">
   <si>
     <t>[ ]</t>
   </si>
@@ -511,14 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -707,58 +699,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字节值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长整型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双精度浮点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PopTo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,15 +719,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semicolon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftBrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightBrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleSlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElseIf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有值类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整形</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长整型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浮点数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双精度浮点数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布尔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,147 +1133,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FixedValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Semicolon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftBrace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightBrace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleSlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Using</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
+    <t>std::string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用静态方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用普通方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用虚方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,67 +1161,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DescSymbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SystemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Else</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElseIf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foreach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>While</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fun</t>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用接口的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCount:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outsideFunIndex:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,14 +1251,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1079,8 +1273,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans YuanTi Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="DejaVu Sans YuanTi Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,17 +1316,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1108,7 +1380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,23 +1393,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,43 +1867,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2361,401 +2687,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="3" width="16.625" style="3" customWidth="1"/>
-    <col min="4" max="8" width="11.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.25" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="16" customWidth="1"/>
+    <col min="9" max="11" width="16.75" style="18" customWidth="1"/>
+    <col min="12" max="12" width="57.875" style="17" customWidth="1"/>
+    <col min="13" max="14" width="11.25" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F10" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E12" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E14" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E15" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E16" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E17" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="E18" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="11">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="E29" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="E30" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="E31" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>198</v>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="11">
+        <v>7</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="13">
+        <v>3</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="13">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +3162,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2780,148 +3172,148 @@
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>172</v>
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2946,70 +3338,70 @@
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>229</v>
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3033,194 +3425,194 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>244</v>
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3232,138 +3624,204 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="4" width="16.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B5" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="E8" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B11" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="7">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>218</v>
+      <c r="E11" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -15,9 +15,8 @@
     <sheet name="Math" sheetId="1" r:id="rId1"/>
     <sheet name="Inst" sheetId="4" r:id="rId2"/>
     <sheet name="ASTType" sheetId="5" r:id="rId3"/>
-    <sheet name="PSTType" sheetId="6" r:id="rId4"/>
-    <sheet name="TokenType" sheetId="7" r:id="rId5"/>
-    <sheet name="ValueType" sheetId="3" r:id="rId6"/>
+    <sheet name="TokenType" sheetId="7" r:id="rId4"/>
+    <sheet name="ValueType" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="299">
   <si>
     <t>[ ]</t>
   </si>
@@ -719,70 +718,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FixedValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,19 +786,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DoubleSlash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1206,6 +1157,32 @@
   </si>
   <si>
     <t>outsideFunIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注释</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1265,15 +1242,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="DejaVu Sans Mono"/>
@@ -1304,6 +1272,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1380,7 +1355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,70 +1374,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,464 +2662,464 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="10.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="16" customWidth="1"/>
-    <col min="9" max="11" width="16.75" style="18" customWidth="1"/>
-    <col min="12" max="12" width="57.875" style="17" customWidth="1"/>
-    <col min="13" max="14" width="11.25" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="15" customWidth="1"/>
+    <col min="9" max="11" width="16.75" style="17" customWidth="1"/>
+    <col min="12" max="12" width="57.875" style="16" customWidth="1"/>
+    <col min="13" max="14" width="11.25" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:12" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="I1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>299</v>
+      <c r="F2" s="14" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>300</v>
+      <c r="F3" s="14" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>301</v>
+      <c r="F4" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>302</v>
+      <c r="F5" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>5</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>303</v>
+      <c r="F6" s="14" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>6</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>304</v>
+      <c r="F7" s="14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>305</v>
+      <c r="F8" s="14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>306</v>
+      <c r="F10" s="15" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>6</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="C26" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>7</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="12">
         <v>1</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>293</v>
+      <c r="E32" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="12">
         <v>2</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>294</v>
+      <c r="E33" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C34" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="12">
         <v>3</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="L34" s="27" t="s">
+      <c r="E34" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>295</v>
       </c>
+      <c r="I34" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="12">
         <v>4</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>298</v>
+      <c r="G35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3325,83 +3297,207 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>216</v>
+      <c r="B11" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3413,415 +3509,204 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="4" width="16.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="E8" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="8">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>273</v>
+      <c r="E11" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="2145" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TokenType" sheetId="7" r:id="rId4"/>
     <sheet name="ValueType" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="304">
   <si>
     <t>[ ]</t>
   </si>
@@ -1183,6 +1183,27 @@
       </rPr>
       <t>注释</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.push(new FayValue(#p1));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2);
+this-&gt;run(fun);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete stack.pop();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,7 +1303,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,13 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,13 +1330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,16 +1351,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,7 +1370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,62 +1395,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2659,466 +2665,638 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="11" customWidth="1"/>
-    <col min="4" max="5" width="10.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="15" customWidth="1"/>
-    <col min="9" max="11" width="16.75" style="17" customWidth="1"/>
-    <col min="12" max="12" width="57.875" style="16" customWidth="1"/>
-    <col min="13" max="14" width="11.25" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="16" customWidth="1"/>
+    <col min="3" max="6" width="10.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="13" customWidth="1"/>
+    <col min="10" max="12" width="16.75" style="14" customWidth="1"/>
+    <col min="13" max="13" width="59" style="19" customWidth="1"/>
+    <col min="14" max="14" width="57.875" style="20" customWidth="1"/>
+    <col min="15" max="16" width="11.25" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="10">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="str">
+        <f>D2&amp;F2</f>
+        <v>PushByte</v>
+      </c>
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="11" t="s">
+      <c r="M2" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="str">
+        <f t="shared" ref="A3:A35" si="0">D3&amp;F3</f>
+        <v>PushInt</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="11" t="s">
+      <c r="M3" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushLong</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="11" t="s">
+      <c r="M4" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushFloat</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="11" t="s">
+      <c r="M5" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushDouble</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="16">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="11" t="s">
+      <c r="M6" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushBool</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="11" t="s">
+      <c r="M7" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushString</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="16">
         <v>7</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="M8" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Pop</v>
+      </c>
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="16" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
+      <c r="M9" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PopTo</v>
+      </c>
+      <c r="C10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToByte</v>
+      </c>
+      <c r="C11" s="16">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToInt</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToLong</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToFloat</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToDouble</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToBool</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToString</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddByte</v>
+      </c>
+      <c r="C18" s="16">
         <v>5</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddInt</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddLong</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddFloat</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddDouble</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddBool</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>AddString</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubByte</v>
+      </c>
+      <c r="C25" s="16">
         <v>6</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="11" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubInt</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="11" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubLong</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="F27" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="11" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubFloat</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="11" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubDouble</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="11" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubBool</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="11" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SubString</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="F31" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
+    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CallStatic</v>
+      </c>
+      <c r="C32" s="16">
         <v>7</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="12">
+      <c r="E32" s="16">
         <v>1</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="G32" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="J32" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="K32" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="M32" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="11" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CallSpecial</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="12">
+      <c r="E33" s="16">
         <v>2</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="H33" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="J33" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="K33" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="N33" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="11" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CallVirtual</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="12">
+      <c r="E34" s="16">
         <v>3</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="J34" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="K34" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="N34" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="11" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CallInterface</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D35" s="12">
+      <c r="E35" s="16">
         <v>4</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="F35" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="G35" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="J35" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="K35" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="N35" s="21" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3310,11 +3488,11 @@
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="8" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3522,20 +3700,20 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="8" t="s">
         <v>204</v>
       </c>
     </row>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="310">
   <si>
     <t>[ ]</t>
   </si>
@@ -1092,6 +1092,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Virtual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1109,10 +1113,6 @@
   </si>
   <si>
     <t>Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1204,6 +1204,30 @@
   </si>
   <si>
     <t>delete stack.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2668,10 +2692,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2760,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
         <f>D2&amp;F2</f>
-        <v>PushByte</v>
+        <v>PushBool</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -2745,13 +2769,13 @@
         <v>199</v>
       </c>
       <c r="E2" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>301</v>
@@ -2760,19 +2784,19 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f t="shared" ref="A3:A35" si="0">D3&amp;F3</f>
-        <v>PushInt</v>
+        <v>PushByte</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E3" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>301</v>
@@ -2781,19 +2805,19 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushLong</v>
+        <v>PushInt</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>301</v>
@@ -2802,19 +2826,19 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushFloat</v>
+        <v>PushLong</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E5" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>301</v>
@@ -2823,19 +2847,19 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushDouble</v>
+        <v>PushFloat</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E6" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>301</v>
@@ -2844,19 +2868,19 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushBool</v>
+        <v>PushDouble</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E7" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>301</v>
@@ -2871,7 +2895,7 @@
         <v>199</v>
       </c>
       <c r="E8" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>196</v>
@@ -3207,13 +3231,13 @@
         <v>302</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>CallSpecial</v>
+        <v>CallFun</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>252</v>
@@ -3222,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>296</v>
@@ -3237,7 +3261,7 @@
         <v>258</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3252,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>296</v>
@@ -3267,7 +3291,7 @@
         <v>258</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3282,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>296</v>
@@ -3690,7 +3714,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3736,10 +3760,10 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -3748,92 +3772,92 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TokenType" sheetId="7" r:id="rId4"/>
     <sheet name="ValueType" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="306">
   <si>
     <t>[ ]</t>
   </si>
@@ -1092,10 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Virtual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1104,19 +1100,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用普通方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用虚方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用接口的方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1198,44 +1182,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2);
+    <t>delete stack.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2,true);
 this-&gt;run(fun);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete stack.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,7 +1737,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -1766,7 +1750,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1789,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1809,7 +1793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1829,7 +1813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1849,7 +1833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1869,7 +1853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1889,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -1909,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1929,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1949,7 +1933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1972,7 +1956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1992,7 +1976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -2012,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -2035,7 +2019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -2055,7 +2039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2075,7 +2059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -2098,7 +2082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -2118,7 +2102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -2144,7 +2128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -2167,7 +2151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -2190,7 +2174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -2213,7 +2197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -2233,7 +2217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -2256,7 +2240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -2282,7 +2266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="18" customHeight="1">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -2305,7 +2289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -2328,7 +2312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -2348,7 +2332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -2368,7 +2352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2394,7 +2378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -2417,7 +2401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -2437,7 +2421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -2460,7 +2444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -2480,7 +2464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -2500,7 +2484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2520,7 +2504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2540,7 +2524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2560,7 +2544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2580,7 +2564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2600,7 +2584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2620,7 +2604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2640,7 +2624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -2660,7 +2644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -2689,16 +2673,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="16" customWidth="1"/>
@@ -2713,9 +2697,9 @@
     <col min="17" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75">
       <c r="A1" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>256</v>
@@ -2751,13 +2735,13 @@
         <v>251</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="23" t="str">
         <f>D2&amp;F2</f>
         <v>PushBool</v>
@@ -2772,18 +2756,18 @@
         <v>2</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="23" t="str">
-        <f t="shared" ref="A3:A35" si="0">D3&amp;F3</f>
+        <f t="shared" ref="A3:A33" si="0">D3&amp;F3</f>
         <v>PushByte</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -2793,16 +2777,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushInt</v>
@@ -2814,16 +2798,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushLong</v>
@@ -2835,16 +2819,16 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushFloat</v>
@@ -2856,16 +2840,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushDouble</v>
@@ -2877,16 +2861,16 @@
         <v>7</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushString</v>
@@ -2901,13 +2885,13 @@
         <v>196</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pop</v>
@@ -2919,10 +2903,10 @@
         <v>200</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PopTo</v>
@@ -2934,10 +2918,10 @@
         <v>206</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToByte</v>
@@ -2952,7 +2936,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToInt</v>
@@ -2964,7 +2948,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToLong</v>
@@ -2976,7 +2960,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToFloat</v>
@@ -2988,7 +2972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToDouble</v>
@@ -3000,7 +2984,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToBool</v>
@@ -3012,7 +2996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToString</v>
@@ -3024,7 +3008,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddByte</v>
@@ -3039,7 +3023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddInt</v>
@@ -3051,7 +3035,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddLong</v>
@@ -3063,7 +3047,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddFloat</v>
@@ -3075,7 +3059,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddDouble</v>
@@ -3087,7 +3071,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddBool</v>
@@ -3099,7 +3083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddString</v>
@@ -3111,7 +3095,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubByte</v>
@@ -3126,7 +3110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubInt</v>
@@ -3138,7 +3122,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubLong</v>
@@ -3150,7 +3134,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubFloat</v>
@@ -3162,7 +3146,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubDouble</v>
@@ -3174,7 +3158,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubBool</v>
@@ -3186,7 +3170,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubString</v>
@@ -3198,9 +3182,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="25.5">
       <c r="A32" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>D32&amp;F32</f>
         <v>CallStatic</v>
       </c>
       <c r="C32" s="16">
@@ -3216,10 +3200,10 @@
         <v>253</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>257</v>
@@ -3228,31 +3212,31 @@
         <v>258</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>CallFun</v>
+        <v>CallVirtual</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>252</v>
       </c>
       <c r="E33" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>280</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>257</v>
@@ -3261,67 +3245,7 @@
         <v>258</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>CallVirtual</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="16">
-        <v>3</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="N34" s="21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>CallInterface</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" s="16">
-        <v>4</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3339,14 +3263,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
@@ -3354,7 +3278,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>153</v>
       </c>
@@ -3362,7 +3286,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -3370,7 +3294,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>207</v>
       </c>
@@ -3378,7 +3302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>155</v>
       </c>
@@ -3386,7 +3310,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>156</v>
       </c>
@@ -3394,7 +3318,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
@@ -3402,7 +3326,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -3410,7 +3334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>159</v>
       </c>
@@ -3418,7 +3342,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>160</v>
       </c>
@@ -3426,7 +3350,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
@@ -3434,7 +3358,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>162</v>
       </c>
@@ -3442,7 +3366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>163</v>
       </c>
@@ -3450,7 +3374,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>164</v>
       </c>
@@ -3458,7 +3382,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>165</v>
       </c>
@@ -3466,7 +3390,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>166</v>
       </c>
@@ -3474,7 +3398,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>167</v>
       </c>
@@ -3482,7 +3406,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>168</v>
       </c>
@@ -3505,14 +3429,14 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>210</v>
       </c>
@@ -3520,12 +3444,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>212</v>
       </c>
@@ -3533,7 +3457,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
@@ -3541,7 +3465,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
@@ -3549,7 +3473,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>219</v>
       </c>
@@ -3557,7 +3481,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>221</v>
       </c>
@@ -3565,7 +3489,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>223</v>
       </c>
@@ -3573,15 +3497,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>226</v>
       </c>
@@ -3589,115 +3513,115 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="15" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="15" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>247</v>
       </c>
@@ -3717,14 +3641,14 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="16.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>189</v>
       </c>
@@ -3741,7 +3665,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>209</v>
       </c>
@@ -3758,7 +3682,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="7" t="s">
         <v>195</v>
       </c>
@@ -3775,7 +3699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>190</v>
       </c>
@@ -3792,7 +3716,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>191</v>
       </c>
@@ -3809,7 +3733,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="7" t="s">
         <v>192</v>
       </c>
@@ -3826,7 +3750,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>193</v>
       </c>
@@ -3843,7 +3767,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>194</v>
       </c>
@@ -3860,7 +3784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -3877,7 +3801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="7" t="s">
         <v>197</v>
       </c>
@@ -3894,7 +3818,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="7" t="s">
         <v>198</v>
       </c>
@@ -3914,5 +3838,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="4290" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TokenType" sheetId="7" r:id="rId4"/>
     <sheet name="ValueType" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="318">
   <si>
     <t>[ ]</t>
   </si>
@@ -1214,12 +1214,60 @@
 this-&gt;run(fun);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么也不做，一般是优化后产生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localVars[#p1]=stack.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.push(localVars[#p1]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,7 +1785,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -1750,7 +1798,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1773,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1793,7 +1841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1813,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1833,7 +1881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1853,7 +1901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1873,7 +1921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -1893,7 +1941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1913,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1933,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -1956,7 +2004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1976,7 +2024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1996,7 +2044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -2019,7 +2067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -2039,7 +2087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2059,7 +2107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -2082,7 +2130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -2102,7 +2150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -2128,7 +2176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -2151,7 +2199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -2174,7 +2222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -2197,7 +2245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -2217,7 +2265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -2240,7 +2288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -2266,7 +2314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -2289,7 +2337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -2312,7 +2360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -2332,7 +2380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -2352,7 +2400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2378,7 +2426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -2401,7 +2449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -2421,7 +2469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -2444,7 +2492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -2464,7 +2512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -2484,7 +2532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2504,7 +2552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2524,7 +2572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2544,7 +2592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2564,7 +2612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2604,7 +2652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2624,7 +2672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -2644,7 +2692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -2673,16 +2721,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="16" customWidth="1"/>
@@ -2697,7 +2745,7 @@
     <col min="17" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>295</v>
       </c>
@@ -2741,511 +2789,646 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
         <f>D2&amp;F2</f>
+        <v>Nop</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="str">
+        <f>D3&amp;F3</f>
         <v>PushBool</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C3" s="16">
         <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="16">
-        <v>2</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="23" t="str">
-        <f t="shared" ref="A3:A33" si="0">D3&amp;F3</f>
-        <v>PushByte</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E3" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
+        <f t="shared" ref="A4:A40" si="0">D4&amp;F4</f>
+        <v>PushByte</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushInt</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="23" t="str">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushLong</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E6" s="16">
         <v>5</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="23" t="str">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushFloat</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="23" t="str">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushDouble</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>7</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="23" t="str">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushString</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="23" t="str">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pop</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="23" t="str">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PopTo</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C11" s="16">
         <v>3</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="23" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToByte</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="23" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToInt</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="23" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToLong</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="23" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToFloat</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="23" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToDouble</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="23" t="str">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToBool</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="23" t="str">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToString</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="23" t="str">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddByte</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C19" s="16">
         <v>5</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="23" t="str">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddInt</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="23" t="str">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddLong</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="23" t="str">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddFloat</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="23" t="str">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddDouble</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="23" t="str">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddBool</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="23" t="str">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddString</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="23" t="str">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubByte</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C26" s="16">
         <v>6</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="23" t="str">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubInt</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="23" t="str">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubLong</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F28" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="23" t="str">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubFloat</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="23" t="str">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubDouble</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="23" t="str">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubBool</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="23" t="str">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubString</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="25.5">
-      <c r="A32" s="23" t="str">
-        <f>D32&amp;F32</f>
+    <row r="33" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="str">
+        <f>D33&amp;F33</f>
         <v>CallStatic</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C33" s="16">
         <v>7</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>1</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F33" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J33" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K33" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M33" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N33" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="23" t="str">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CallVirtual</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="16">
         <v>3</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J34" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K34" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N34" s="21" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SetLocal</v>
+      </c>
+      <c r="C35" s="16">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SetField</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" s="16">
+        <v>2</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SetStatic</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="16">
+        <v>3</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>LoadLocal</v>
+      </c>
+      <c r="C38" s="16">
+        <v>9</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>LoadField</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>LoadStatic</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3263,14 +3446,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
@@ -3278,7 +3461,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>153</v>
       </c>
@@ -3286,7 +3469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -3294,7 +3477,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>207</v>
       </c>
@@ -3302,7 +3485,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>155</v>
       </c>
@@ -3310,7 +3493,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>156</v>
       </c>
@@ -3318,7 +3501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
@@ -3326,7 +3509,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -3334,7 +3517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>159</v>
       </c>
@@ -3342,7 +3525,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>160</v>
       </c>
@@ -3350,7 +3533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
@@ -3358,7 +3541,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>162</v>
       </c>
@@ -3366,7 +3549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>163</v>
       </c>
@@ -3374,7 +3557,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>164</v>
       </c>
@@ -3382,7 +3565,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>165</v>
       </c>
@@ -3390,7 +3573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>166</v>
       </c>
@@ -3398,7 +3581,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>167</v>
       </c>
@@ -3406,7 +3589,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>168</v>
       </c>
@@ -3429,14 +3612,14 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>210</v>
       </c>
@@ -3444,12 +3627,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>212</v>
       </c>
@@ -3457,7 +3640,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
@@ -3465,7 +3648,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
@@ -3473,7 +3656,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>219</v>
       </c>
@@ -3481,7 +3664,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>221</v>
       </c>
@@ -3489,7 +3672,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>223</v>
       </c>
@@ -3497,7 +3680,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>225</v>
       </c>
@@ -3505,7 +3688,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>226</v>
       </c>
@@ -3513,7 +3696,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
@@ -3521,107 +3704,107 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>247</v>
       </c>
@@ -3638,17 +3821,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="16.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>189</v>
       </c>
@@ -3665,7 +3848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>209</v>
       </c>
@@ -3682,7 +3865,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>195</v>
       </c>
@@ -3699,7 +3882,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>190</v>
       </c>
@@ -3716,7 +3899,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>191</v>
       </c>
@@ -3733,7 +3916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>192</v>
       </c>
@@ -3750,7 +3933,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>193</v>
       </c>
@@ -3767,7 +3950,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>194</v>
       </c>
@@ -3784,7 +3967,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -3801,7 +3984,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>197</v>
       </c>
@@ -3818,7 +4001,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>198</v>
       </c>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="6435" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -1178,14 +1178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stack.push(new FayValue(#p1));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete stack.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1255,11 +1247,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localVars[#p1]=stack.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stack.push(localVars[#p1]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.push(FayValue(#p1));</t>
+  </si>
+  <si>
+    <t>localVars[#p1]=stack.top();
+stack.pop();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2727,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2801,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2822,13 +2822,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>288</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2843,13 +2843,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>283</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2864,13 +2864,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2885,13 +2885,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>285</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2906,13 +2906,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>286</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2927,13 +2927,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>287</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
         <v>289</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2969,7 +2969,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>258</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N33" s="21" t="s">
         <v>281</v>
@@ -3314,7 +3314,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SetLocal</v>
@@ -3323,19 +3323,19 @@
         <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E35" s="16">
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3344,16 +3344,16 @@
         <v>SetField</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E36" s="16">
         <v>2</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3362,19 +3362,19 @@
         <v>SetStatic</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E37" s="16">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3386,16 +3386,16 @@
         <v>9</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3404,13 +3404,13 @@
         <v>LoadField</v>
       </c>
       <c r="D39" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3419,16 +3419,16 @@
         <v>LoadStatic</v>
       </c>
       <c r="D40" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="319">
   <si>
     <t>[ ]</t>
   </si>
@@ -1260,6 +1260,14 @@
   <si>
     <t>localVars[#p1]=stack.top();
 stack.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t v1=stack.top().intVal();
+stack.pop();
+int32_t v2=stack.top().intVal();
+stack.pop();
+stack.push(FayValue(v1+v2));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2735,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3050,7 +3058,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToBool</v>
@@ -3062,7 +3070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToString</v>
@@ -3074,7 +3082,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddByte</v>
@@ -3089,7 +3097,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddInt</v>
@@ -3100,8 +3108,11 @@
       <c r="F20" s="16" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M20" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddLong</v>
@@ -3113,7 +3124,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddFloat</v>
@@ -3125,7 +3136,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddDouble</v>
@@ -3137,7 +3148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddBool</v>
@@ -3149,7 +3160,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AddString</v>
@@ -3161,7 +3172,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubByte</v>
@@ -3176,7 +3187,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubInt</v>
@@ -3188,7 +3199,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubLong</v>
@@ -3200,7 +3211,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubFloat</v>
@@ -3212,7 +3223,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubDouble</v>
@@ -3224,7 +3235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubBool</v>
@@ -3236,7 +3247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SubString</v>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="8580" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="338">
   <si>
     <t>[ ]</t>
   </si>
@@ -683,10 +683,6 @@
   </si>
   <si>
     <t>Pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntTo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1268,6 +1264,76 @@
 int32_t v2=stack.top().intVal();
 stack.pop();
 stack.push(FayValue(v1+v2));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>VoidTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoolTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByteTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionTo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2729,20 +2795,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="16" customWidth="1"/>
-    <col min="3" max="6" width="10.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="16" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="16" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="13" customWidth="1"/>
@@ -2755,19 +2823,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>187</v>
@@ -2782,19 +2850,19 @@
         <v>152</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2809,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2830,18 +2898,18 @@
         <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f t="shared" ref="A4:A40" si="0">D4&amp;F4</f>
+        <f t="shared" ref="A4:A66" si="0">D4&amp;F4</f>
         <v>PushByte</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -2851,13 +2919,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2872,13 +2940,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2893,13 +2961,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2914,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2935,13 +3003,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2959,10 +3027,10 @@
         <v>196</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2977,7 +3045,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2989,19 +3057,19 @@
         <v>3</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToByte</v>
+        <v>AddByte</v>
       </c>
       <c r="C12" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>201</v>
@@ -3010,10 +3078,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToInt</v>
+        <v>AddInt</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>201</v>
@@ -3021,11 +3089,14 @@
       <c r="F13" s="16" t="s">
         <v>191</v>
       </c>
+      <c r="M13" s="19" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToLong</v>
+        <v>AddLong</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>201</v>
@@ -3037,7 +3108,7 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToFloat</v>
+        <v>AddFloat</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>201</v>
@@ -3049,7 +3120,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToDouble</v>
+        <v>AddDouble</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>201</v>
@@ -3058,10 +3129,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToBool</v>
+        <v>AddBool</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>201</v>
@@ -3070,10 +3141,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToString</v>
+        <v>AddString</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>201</v>
@@ -3082,64 +3153,61 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddByte</v>
+        <v>SubByte</v>
       </c>
       <c r="C19" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddInt</v>
+        <v>SubInt</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="M20" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddLong</v>
+        <v>SubLong</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddFloat</v>
+        <v>SubFloat</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddDouble</v>
+        <v>SubDouble</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>202</v>
@@ -3148,10 +3216,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddBool</v>
+        <v>SubBool</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>202</v>
@@ -3160,10 +3228,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddString</v>
+        <v>SubString</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>202</v>
@@ -3172,274 +3240,1453 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>SubByte</v>
+        <f>D26&amp;F26</f>
+        <v>CallStatic</v>
       </c>
       <c r="C26" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubInt</v>
+        <v>CallVirtual</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="E27" s="16">
+        <v>3</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubLong</v>
+        <v>SetLocal</v>
+      </c>
+      <c r="C28" s="16">
+        <v>8</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>259</v>
+        <v>305</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubFloat</v>
+        <v>SetField</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>259</v>
+        <v>305</v>
+      </c>
+      <c r="E29" s="16">
+        <v>2</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubDouble</v>
+        <v>SetStatic</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>203</v>
+        <v>305</v>
+      </c>
+      <c r="E30" s="16">
+        <v>3</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubBool</v>
+        <v>LoadLocal</v>
+      </c>
+      <c r="C31" s="16">
+        <v>9</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubString</v>
+        <v>LoadField</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
-        <f>D33&amp;F33</f>
-        <v>CallStatic</v>
-      </c>
-      <c r="C33" s="16">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>LoadStatic</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E33" s="16">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>CallVirtual</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="16">
-        <v>3</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="N34" s="21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetLocal</v>
+        <v>VoidToVoid</v>
       </c>
       <c r="C35" s="16">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E35" s="16">
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetField</v>
+        <v>VoidToBool</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E36" s="16">
         <v>2</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetStatic</v>
+        <v>VoidToByte</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E37" s="16">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadLocal</v>
-      </c>
-      <c r="C38" s="16">
+        <v>VoidToInt</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="16">
+        <v>4</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToLong</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="16">
+        <v>5</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToFloat</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="16">
+        <v>6</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToDouble</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" s="16">
+        <v>7</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToString</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E42" s="16">
+        <v>8</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToObject</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="16">
         <v>9</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>LoadField</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>LoadStatic</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>312</v>
+      <c r="F43" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToFunction</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E44" s="16">
+        <v>10</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToVoid</v>
+      </c>
+      <c r="C45" s="16">
+        <v>22</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToBool</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToByte</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToInt</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToLong</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToFloat</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToDouble</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToString</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToObject</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToFunction</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="C55" s="16">
+        <v>23</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToBool</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToByte</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToInt</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToLong</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToFloat</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToDouble</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToString</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToObject</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ByteToFunction</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToVoid</v>
+      </c>
+      <c r="C65" s="16">
+        <v>24</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntToBool</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="str">
+        <f t="shared" ref="A67:A130" si="1">D67&amp;F67</f>
+        <v>IntToByte</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToInt</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToLong</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToFloat</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToDouble</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToString</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToObject</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToFunction</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToVoid</v>
+      </c>
+      <c r="C75" s="16">
+        <v>25</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToBool</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToByte</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToInt</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToLong</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToFloat</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToDouble</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToString</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToObject</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LongToFunction</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToVoid</v>
+      </c>
+      <c r="C85" s="16">
+        <v>26</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToBool</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToByte</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToInt</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToLong</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToFloat</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToDouble</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToString</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToObject</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToFunction</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToVoid</v>
+      </c>
+      <c r="C95" s="16">
+        <v>27</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToBool</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToByte</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToInt</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToLong</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToFloat</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToDouble</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToString</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToObject</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToFunction</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToVoid</v>
+      </c>
+      <c r="C105" s="16">
+        <v>28</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToBool</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToByte</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToInt</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToLong</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToFloat</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToDouble</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToString</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToObject</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToFunction</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="C115" s="16">
+        <v>29</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToBool</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToByte</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToInt</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToLong</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToFloat</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToDouble</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToString</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToObject</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ObjectToFunction</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="C125" s="16">
+        <v>30</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToBool</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToByte</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToInt</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToLong</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToFloat</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="str">
+        <f t="shared" ref="A131:A134" si="2">D131&amp;F131</f>
+        <v>FunctionToDouble</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FunctionToString</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FunctionToObject</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FunctionToFunction</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3490,10 +4737,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3632,192 +4879,192 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +5079,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3847,24 +5094,24 @@
         <v>189</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -3873,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3881,7 +5128,7 @@
         <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -3890,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3898,7 +5145,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -3907,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3915,7 +5162,7 @@
         <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -3924,7 +5171,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3932,7 +5179,7 @@
         <v>192</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -3941,7 +5188,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3949,7 +5196,7 @@
         <v>193</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -3958,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3966,7 +5213,7 @@
         <v>194</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -3975,7 +5222,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3983,7 +5230,7 @@
         <v>196</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -3992,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4000,7 +5247,7 @@
         <v>197</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -4009,7 +5256,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4017,7 +5264,7 @@
         <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -4026,7 +5273,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="346">
   <si>
     <t>[ ]</t>
   </si>
@@ -1060,10 +1060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unsigned char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int64_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>什么也不做，一般是优化后产生的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1334,6 +1326,53 @@
   </si>
   <si>
     <t>FunctionTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue(false));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue((byte)0));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue((int32_t)0));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue((int64_t)0));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue((float)0));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue((double)0));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack.pop();
+stack.push(FayValue(""));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//Do Nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,7 +2840,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2823,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>255</v>
@@ -2859,7 +2898,7 @@
         <v>250</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>203</v>
@@ -2874,13 +2913,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>303</v>
+        <v>345</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2898,13 +2940,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2919,13 +2961,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2940,13 +2982,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2961,13 +3003,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2982,13 +3024,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3003,13 +3045,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3027,10 +3069,10 @@
         <v>196</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3045,7 +3087,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3060,7 +3102,7 @@
         <v>205</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3090,7 +3132,7 @@
         <v>191</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3258,10 +3300,10 @@
         <v>252</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>256</v>
@@ -3270,10 +3312,10 @@
         <v>257</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3288,13 +3330,13 @@
         <v>3</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>256</v>
@@ -3303,7 +3345,7 @@
         <v>257</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
@@ -3315,19 +3357,19 @@
         <v>8</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E28" s="16">
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -3336,16 +3378,16 @@
         <v>SetField</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E29" s="16">
         <v>2</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -3354,19 +3396,19 @@
         <v>SetStatic</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E30" s="16">
         <v>3</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -3378,16 +3420,16 @@
         <v>9</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3396,40 +3438,40 @@
         <v>LoadField</v>
       </c>
       <c r="D32" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F32" s="16" t="s">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>LoadStatic</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>LoadStatic</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="F33" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToVoid</v>
@@ -3438,151 +3480,175 @@
         <v>21</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E35" s="16">
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToBool</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E36" s="16">
         <v>2</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToByte</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E37" s="16">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToInt</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E38" s="16">
         <v>4</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToLong</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E39" s="16">
         <v>5</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToFloat</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E40" s="16">
         <v>6</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToDouble</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E41" s="16">
         <v>7</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToString</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E42" s="16">
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToObject</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E43" s="16">
         <v>9</v>
       </c>
       <c r="F43" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>VoidToFunction</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToFunction</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>328</v>
       </c>
       <c r="E44" s="16">
         <v>10</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
         <f t="shared" si="0"/>
         <v>BoolToVoid</v>
@@ -3591,46 +3657,46 @@
         <v>22</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F45" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToBool</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToByte</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToBool</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="F46" s="16" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolToInt</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToByte</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToInt</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3639,10 +3705,10 @@
         <v>BoolToLong</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3651,10 +3717,10 @@
         <v>BoolToFloat</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3663,10 +3729,10 @@
         <v>BoolToDouble</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3675,10 +3741,10 @@
         <v>BoolToString</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3687,10 +3753,10 @@
         <v>BoolToObject</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3699,10 +3765,10 @@
         <v>BoolToFunction</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3714,10 +3780,10 @@
         <v>23</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3726,10 +3792,10 @@
         <v>ByteToBool</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,10 +3804,10 @@
         <v>ByteToByte</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3750,10 +3816,10 @@
         <v>ByteToInt</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,10 +3828,10 @@
         <v>ByteToLong</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3774,10 +3840,10 @@
         <v>ByteToFloat</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3786,10 +3852,10 @@
         <v>ByteToDouble</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3798,10 +3864,10 @@
         <v>ByteToString</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,10 +3876,10 @@
         <v>ByteToObject</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3822,10 +3888,10 @@
         <v>ByteToFunction</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3837,10 +3903,10 @@
         <v>24</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3849,10 +3915,10 @@
         <v>IntToBool</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3861,10 +3927,10 @@
         <v>IntToByte</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3873,10 +3939,10 @@
         <v>IntToInt</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,10 +3951,10 @@
         <v>IntToLong</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3897,10 +3963,10 @@
         <v>IntToFloat</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,10 +3975,10 @@
         <v>IntToDouble</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,10 +3987,10 @@
         <v>IntToString</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3933,10 +3999,10 @@
         <v>IntToObject</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3945,10 +4011,10 @@
         <v>IntToFunction</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3960,10 +4026,10 @@
         <v>25</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3972,10 +4038,10 @@
         <v>LongToBool</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3984,10 +4050,10 @@
         <v>LongToByte</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3996,10 +4062,10 @@
         <v>LongToInt</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,10 +4074,10 @@
         <v>LongToLong</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,10 +4086,10 @@
         <v>LongToFloat</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4032,10 +4098,10 @@
         <v>LongToDouble</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4044,10 +4110,10 @@
         <v>LongToString</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4056,10 +4122,10 @@
         <v>LongToObject</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4068,10 +4134,10 @@
         <v>LongToFunction</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4083,10 +4149,10 @@
         <v>26</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4095,10 +4161,10 @@
         <v>FloatToBool</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4107,10 +4173,10 @@
         <v>FloatToByte</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4119,10 +4185,10 @@
         <v>FloatToInt</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4131,10 +4197,10 @@
         <v>FloatToLong</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4143,10 +4209,10 @@
         <v>FloatToFloat</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4155,10 +4221,10 @@
         <v>FloatToDouble</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4167,10 +4233,10 @@
         <v>FloatToString</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,10 +4245,10 @@
         <v>FloatToObject</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4191,10 +4257,10 @@
         <v>FloatToFunction</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4206,10 +4272,10 @@
         <v>27</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,10 +4284,10 @@
         <v>DoubleToBool</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4230,10 +4296,10 @@
         <v>DoubleToByte</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4242,10 +4308,10 @@
         <v>DoubleToInt</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4254,10 +4320,10 @@
         <v>DoubleToLong</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4266,10 +4332,10 @@
         <v>DoubleToFloat</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4278,10 +4344,10 @@
         <v>DoubleToDouble</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4290,10 +4356,10 @@
         <v>DoubleToString</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4302,10 +4368,10 @@
         <v>DoubleToObject</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4314,10 +4380,10 @@
         <v>DoubleToFunction</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,10 +4395,10 @@
         <v>28</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4341,10 +4407,10 @@
         <v>StringToBool</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4353,10 +4419,10 @@
         <v>StringToByte</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4365,10 +4431,10 @@
         <v>StringToInt</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4377,10 +4443,10 @@
         <v>StringToLong</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,10 +4455,10 @@
         <v>StringToFloat</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4401,10 +4467,10 @@
         <v>StringToDouble</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4413,10 +4479,10 @@
         <v>StringToString</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4425,10 +4491,10 @@
         <v>StringToObject</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4437,10 +4503,10 @@
         <v>StringToFunction</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4452,10 +4518,10 @@
         <v>29</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4464,10 +4530,10 @@
         <v>ObjectToBool</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4476,10 +4542,10 @@
         <v>ObjectToByte</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4488,10 +4554,10 @@
         <v>ObjectToInt</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4500,10 +4566,10 @@
         <v>ObjectToLong</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,10 +4578,10 @@
         <v>ObjectToFloat</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,10 +4590,10 @@
         <v>ObjectToDouble</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,10 +4602,10 @@
         <v>ObjectToString</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4548,10 +4614,10 @@
         <v>ObjectToObject</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4560,10 +4626,10 @@
         <v>ObjectToFunction</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4575,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4587,10 +4653,10 @@
         <v>FunctionToBool</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,10 +4665,10 @@
         <v>FunctionToByte</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4611,10 +4677,10 @@
         <v>FunctionToInt</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4623,10 +4689,10 @@
         <v>FunctionToLong</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4635,10 +4701,10 @@
         <v>FunctionToFloat</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4647,10 +4713,10 @@
         <v>FunctionToDouble</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,10 +4725,10 @@
         <v>FunctionToString</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4671,10 +4737,10 @@
         <v>FunctionToObject</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4683,10 +4749,10 @@
         <v>FunctionToFunction</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +5009,7 @@
         <v>224</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4959,7 +5025,7 @@
         <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5079,7 +5145,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5111,7 +5177,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5128,7 +5194,7 @@
         <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -5145,7 +5211,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -5179,7 +5245,7 @@
         <v>192</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -5196,7 +5262,7 @@
         <v>193</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -5213,7 +5279,7 @@
         <v>194</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5230,7 +5296,7 @@
         <v>196</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -5247,7 +5313,7 @@
         <v>197</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -5264,7 +5330,7 @@
         <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="365">
   <si>
     <t>[ ]</t>
   </si>
@@ -686,14 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,10 +903,6 @@
   </si>
   <si>
     <t>funIndex:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1251,14 +1239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32_t v1=stack.top().intVal();
-stack.pop();
-int32_t v2=stack.top().intVal();
-stack.pop();
-stack.push(FayValue(v1+v2));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Void</t>
   </si>
   <si>
@@ -1368,11 +1348,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//Do Nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>//DoNothing</t>
   </si>
   <si>
     <t>Nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((float)v.intVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t v=stack.top().intVal();
+stack.pop();
+v+=stack.top().intVal();
+stack.pop();
+stack.push(FayValue(v));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float v=stack.top().floatVal();
+stack.pop();
+v+=stack.top().floatVal();
+stack.pop();
+stack.push(FayValue(v));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64_t v=stack.top().longVal();
+stack.pop();
+v+=stack.top().longVal();
+stack.pop();
+stack.push(FayValue(v));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double v=stack.top().doubleVal();
+stack.pop();
+v+=stack.top().doubleVal();
+stack.pop();
+stack.push(FayValue(v));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((int32_t)v.floatVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((bool)v.intVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((byte)v.intVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((long)v.intVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((double)v.intVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((bool)v.floatVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((byte)v.floatVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((int64_t)v.floatVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((double)v.floatVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((bool)v.longVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((int32_t)v.longVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((byte)v.longVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((double)v.longVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FayValue v=stack.top();
+stack.pop();
+stack.push(FayValue((float)v.longVal()));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2834,13 +2951,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2855,26 +2972,26 @@
     <col min="9" max="9" width="14.375" style="13" customWidth="1"/>
     <col min="10" max="12" width="16.75" style="14" customWidth="1"/>
     <col min="13" max="13" width="59" style="19" customWidth="1"/>
-    <col min="14" max="14" width="57.875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="71" style="20" customWidth="1"/>
     <col min="15" max="16" width="11.25" style="12" customWidth="1"/>
     <col min="17" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>187</v>
@@ -2889,19 +3006,19 @@
         <v>152</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2916,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2940,18 +3057,18 @@
         <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f t="shared" ref="A4:A66" si="0">D4&amp;F4</f>
+        <f t="shared" ref="A4:A52" si="0">D4&amp;F4</f>
         <v>PushByte</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -2961,13 +3078,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2982,13 +3099,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3003,13 +3120,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3024,13 +3141,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3045,13 +3162,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3069,10 +3186,10 @@
         <v>196</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3087,7 +3204,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3099,994 +3216,1042 @@
         <v>3</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>AddByte</v>
+        <f>D12&amp;F12</f>
+        <v>CallStatic</v>
       </c>
       <c r="C12" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>201</v>
+        <v>249</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddInt</v>
+        <v>CallVirtual</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>201</v>
+        <v>249</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddLong</v>
+        <v>SetLocal</v>
+      </c>
+      <c r="C14" s="16">
+        <v>8</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>201</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>192</v>
+        <v>301</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddFloat</v>
+        <v>SetField</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>201</v>
+        <v>300</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>193</v>
+        <v>302</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddDouble</v>
+        <v>SetStatic</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>201</v>
+        <v>300</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddBool</v>
+        <v>LoadLocal</v>
+      </c>
+      <c r="C17" s="16">
+        <v>9</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>AddString</v>
+        <v>LoadField</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubByte</v>
-      </c>
-      <c r="C19" s="16">
-        <v>6</v>
+        <v>LoadStatic</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubInt</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubLong</v>
+        <v>VoidToVoid</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>258</v>
+        <v>322</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubFloat</v>
+        <v>VoidToBool</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>258</v>
+        <v>322</v>
+      </c>
+      <c r="E22" s="16">
+        <v>2</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubDouble</v>
+        <v>VoidToByte</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>202</v>
+        <v>322</v>
+      </c>
+      <c r="E23" s="16">
+        <v>3</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubBool</v>
+        <v>VoidToInt</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>202</v>
+        <v>322</v>
+      </c>
+      <c r="E24" s="16">
+        <v>4</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SubString</v>
+        <v>VoidToLong</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>202</v>
+        <v>322</v>
+      </c>
+      <c r="E25" s="16">
+        <v>5</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
-        <f>D26&amp;F26</f>
-        <v>CallStatic</v>
-      </c>
-      <c r="C26" s="16">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>VoidToFloat</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="E26" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>CallVirtual</v>
+        <v>VoidToDouble</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="E27" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetLocal</v>
-      </c>
-      <c r="C28" s="16">
+        <v>VoidToString</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="16">
         <v>8</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1</v>
-      </c>
       <c r="F28" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetField</v>
+        <v>VoidToObject</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E29" s="16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetStatic</v>
+        <v>VoidToFunction</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E30" s="16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadLocal</v>
+        <v>BoolToVoid</v>
       </c>
       <c r="C31" s="16">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadField</v>
+        <v>BoolToBool</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadStatic</v>
+        <v>BoolToByte</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>BoolToInt</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToVoid</v>
-      </c>
-      <c r="C35" s="16">
-        <v>21</v>
+        <v>BoolToLong</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E35" s="16">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="M35" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToBool</v>
+        <v>BoolToFloat</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E36" s="16">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="M36" s="19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToByte</v>
+        <v>BoolToDouble</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="16">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="M37" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToInt</v>
+        <v>BoolToString</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="16">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="M38" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToLong</v>
+        <v>BoolToObject</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E39" s="16">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="M39" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToFloat</v>
+        <v>BoolToFunction</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E40" s="16">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="M40" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToDouble</v>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="C41" s="16">
+        <v>23</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" s="16">
-        <v>7</v>
+        <v>324</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToString</v>
+        <v>ByteToBool</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E42" s="16">
-        <v>8</v>
+        <v>324</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToObject</v>
+        <v>ByteToByte</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" s="16">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToFunction</v>
+        <v>ByteToInt</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E44" s="16">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToVoid</v>
-      </c>
-      <c r="C45" s="16">
-        <v>22</v>
+        <v>ByteToLong</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToBool</v>
+        <v>ByteToFloat</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToByte</v>
+        <v>ByteToDouble</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToInt</v>
+        <v>ByteToString</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToLong</v>
+        <v>ByteToObject</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToFloat</v>
+        <v>ByteToFunction</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToDouble</v>
+        <v>IntToVoid</v>
+      </c>
+      <c r="C51" s="16">
+        <v>24</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToString</v>
+        <v>IntToBool</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToObject</v>
+        <f t="shared" ref="A53:A116" si="1">D53&amp;F53</f>
+        <v>IntToByte</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToFunction</v>
+        <f t="shared" si="1"/>
+        <v>IntToInt</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F54" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToLong</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToVoid</v>
-      </c>
-      <c r="C55" s="16">
-        <v>23</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>328</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M55" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToBool</v>
+        <f t="shared" si="1"/>
+        <v>IntToFloat</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M56" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToByte</v>
+        <f t="shared" si="1"/>
+        <v>IntToDouble</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M57" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToInt</v>
+        <f t="shared" si="1"/>
+        <v>IntToString</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToLong</v>
+        <f t="shared" si="1"/>
+        <v>IntToObject</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToFloat</v>
+        <f t="shared" si="1"/>
+        <v>IntToFunction</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F60" s="16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToDouble</v>
+        <f t="shared" si="1"/>
+        <v>LongToVoid</v>
+      </c>
+      <c r="C61" s="16">
+        <v>25</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToString</v>
+        <f t="shared" si="1"/>
+        <v>LongToBool</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToObject</v>
+        <f t="shared" si="1"/>
+        <v>LongToByte</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="M63" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToFunction</v>
+        <f t="shared" si="1"/>
+        <v>LongToInt</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>IntToVoid</v>
-      </c>
-      <c r="C65" s="16">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>LongToLong</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M65" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>IntToBool</v>
+        <f t="shared" si="1"/>
+        <v>LongToFloat</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M66" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
-        <f t="shared" ref="A67:A130" si="1">D67&amp;F67</f>
-        <v>IntToByte</v>
+        <f t="shared" si="1"/>
+        <v>LongToDouble</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M67" s="19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToInt</v>
+        <v>LongToString</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToLong</v>
+        <v>LongToObject</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToFloat</v>
+        <v>LongToFunction</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToDouble</v>
+        <v>FloatToVoid</v>
+      </c>
+      <c r="C71" s="16">
+        <v>26</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToString</v>
+        <v>FloatToBool</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToObject</v>
+        <v>FloatToByte</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToFunction</v>
+        <v>FloatToInt</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToVoid</v>
-      </c>
-      <c r="C75" s="16">
-        <v>25</v>
+        <v>FloatToLong</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M75" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToBool</v>
+        <v>FloatToFloat</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M76" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToByte</v>
+        <v>FloatToDouble</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F77" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M77" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToInt</v>
+        <v>FloatToString</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToLong</v>
+        <v>FloatToObject</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToFloat</v>
+        <v>FloatToFunction</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>321</v>
@@ -4095,61 +4260,61 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToDouble</v>
+        <v>DoubleToVoid</v>
+      </c>
+      <c r="C81" s="16">
+        <v>27</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToString</v>
+        <v>DoubleToBool</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToObject</v>
+        <v>DoubleToByte</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToFunction</v>
+        <v>DoubleToInt</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToVoid</v>
-      </c>
-      <c r="C85" s="16">
-        <v>26</v>
+        <v>DoubleToLong</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>316</v>
@@ -4158,10 +4323,10 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToBool</v>
+        <v>DoubleToFloat</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F86" s="16" t="s">
         <v>317</v>
@@ -4170,10 +4335,10 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToByte</v>
+        <v>DoubleToDouble</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F87" s="16" t="s">
         <v>318</v>
@@ -4182,10 +4347,10 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToInt</v>
+        <v>DoubleToString</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>319</v>
@@ -4194,10 +4359,10 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToLong</v>
+        <v>DoubleToObject</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>320</v>
@@ -4206,10 +4371,10 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToFloat</v>
+        <v>DoubleToFunction</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>321</v>
@@ -4218,61 +4383,61 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToDouble</v>
+        <v>StringToVoid</v>
+      </c>
+      <c r="C91" s="16">
+        <v>28</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToString</v>
+        <v>StringToBool</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToObject</v>
+        <v>StringToByte</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToFunction</v>
+        <v>StringToInt</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToVoid</v>
-      </c>
-      <c r="C95" s="16">
-        <v>27</v>
+        <v>StringToLong</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>316</v>
@@ -4281,10 +4446,10 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToBool</v>
+        <v>StringToFloat</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F96" s="16" t="s">
         <v>317</v>
@@ -4293,10 +4458,10 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToByte</v>
+        <v>StringToDouble</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>318</v>
@@ -4305,10 +4470,10 @@
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToInt</v>
+        <v>StringToString</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>319</v>
@@ -4317,10 +4482,10 @@
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToLong</v>
+        <v>StringToObject</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F99" s="16" t="s">
         <v>320</v>
@@ -4329,10 +4494,10 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToFloat</v>
+        <v>StringToFunction</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F100" s="16" t="s">
         <v>321</v>
@@ -4341,61 +4506,61 @@
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToDouble</v>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="C101" s="16">
+        <v>29</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToString</v>
+        <v>ObjectToBool</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToObject</v>
+        <v>ObjectToByte</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToFunction</v>
+        <v>ObjectToInt</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToVoid</v>
-      </c>
-      <c r="C105" s="16">
-        <v>28</v>
+        <v>ObjectToLong</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>316</v>
@@ -4404,10 +4569,10 @@
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToBool</v>
+        <v>ObjectToFloat</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>317</v>
@@ -4416,10 +4581,10 @@
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToByte</v>
+        <v>ObjectToDouble</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>318</v>
@@ -4428,10 +4593,10 @@
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToInt</v>
+        <v>ObjectToString</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>319</v>
@@ -4440,10 +4605,10 @@
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToLong</v>
+        <v>ObjectToObject</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>320</v>
@@ -4452,10 +4617,10 @@
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToFloat</v>
+        <v>ObjectToFunction</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>321</v>
@@ -4464,220 +4629,232 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToDouble</v>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="C111" s="16">
+        <v>30</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToString</v>
+        <v>FunctionToBool</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToObject</v>
+        <v>FunctionToByte</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToFunction</v>
+        <v>FunctionToInt</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToVoid</v>
-      </c>
-      <c r="C115" s="16">
-        <v>29</v>
+        <v>FunctionToLong</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToBool</v>
+        <v>FunctionToFloat</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToByte</v>
+        <f t="shared" ref="A117:A171" si="2">D117&amp;F117</f>
+        <v>FunctionToDouble</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToInt</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToString</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F118" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToLong</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToObject</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToFloat</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToFunction</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToDouble</v>
+        <f t="shared" si="2"/>
+        <v>AddVoid</v>
+      </c>
+      <c r="C121" s="16">
+        <v>41</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToString</v>
+        <f t="shared" si="2"/>
+        <v>AddBool</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToObject</v>
+        <f t="shared" si="2"/>
+        <v>AddByte</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToFunction</v>
+        <f t="shared" si="2"/>
+        <v>AddInt</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="M124" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToVoid</v>
-      </c>
-      <c r="C125" s="16">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>AddLong</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M125" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToBool</v>
+        <f t="shared" si="2"/>
+        <v>AddFloat</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M126" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToByte</v>
+        <f t="shared" si="2"/>
+        <v>AddDouble</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M127" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToInt</v>
+        <f t="shared" si="2"/>
+        <v>AddString</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>319</v>
@@ -4685,11 +4862,11 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToLong</v>
+        <f t="shared" si="2"/>
+        <v>AddObject</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>320</v>
@@ -4697,11 +4874,11 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToFloat</v>
+        <f t="shared" si="2"/>
+        <v>AddFunction</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>321</v>
@@ -4709,50 +4886,437 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="str">
-        <f t="shared" ref="A131:A134" si="2">D131&amp;F131</f>
-        <v>FunctionToDouble</v>
+        <f t="shared" si="2"/>
+        <v>SubVoid</v>
+      </c>
+      <c r="C131" s="16">
+        <v>42</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToString</v>
+        <v>SubBool</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToObject</v>
+        <v>SubByte</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToFunction</v>
+        <v>SubInt</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>325</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>SubLong</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>SubFloat</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>SubDouble</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>SubString</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>SubObject</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>SubFunction</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulVoid</v>
+      </c>
+      <c r="C141" s="16">
+        <v>43</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulBool</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulByte</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulInt</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulLong</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulFloat</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulDouble</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulString</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulObject</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>MulFunction</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivVoid</v>
+      </c>
+      <c r="C151" s="16">
+        <v>44</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivBool</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivByte</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivInt</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivLong</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivFloat</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivDouble</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivString</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivObject</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DivFunction</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4803,10 +5367,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4945,192 +5509,192 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5160,24 +5724,24 @@
         <v>189</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5186,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5194,7 +5758,7 @@
         <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -5203,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5211,7 +5775,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -5220,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5228,7 +5792,7 @@
         <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -5237,7 +5801,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5245,7 +5809,7 @@
         <v>192</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -5254,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5262,7 +5826,7 @@
         <v>193</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -5271,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5279,7 +5843,7 @@
         <v>194</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5288,7 +5852,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5296,7 +5860,7 @@
         <v>196</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -5305,7 +5869,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5313,7 +5877,7 @@
         <v>197</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -5322,7 +5886,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5330,7 +5894,7 @@
         <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -5339,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="10725" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="358">
   <si>
     <t>[ ]</t>
   </si>
@@ -498,18 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -866,18 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Call</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,14 +871,6 @@
   </si>
   <si>
     <t>Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeIndex:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>funIndex:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1116,14 +1084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>paramCount:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outsideFunIndex:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1219,26 +1179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>typeIndex:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.push(localVars[#p1]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.push(FayValue(#p1));</t>
-  </si>
-  <si>
-    <t>localVars[#p1]=stack.top();
-stack.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Void</t>
   </si>
   <si>
@@ -1313,41 +1253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stack.pop();
-stack.push(FayValue(false));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();
-stack.push(FayValue((byte)0));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();
-stack.push(FayValue((int32_t)0));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();
-stack.push(FayValue((int64_t)0));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();
-stack.push(FayValue((float)0));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();
-stack.push(FayValue((double)0));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack.pop();
-stack.push(FayValue(""));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//DoNothing</t>
   </si>
   <si>
@@ -1355,102 +1260,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((float)v.intVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32_t v=stack.top().intVal();
-stack.pop();
-v+=stack.top().intVal();
-stack.pop();
-stack.push(FayValue(v));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float v=stack.top().floatVal();
-stack.pop();
-v+=stack.top().floatVal();
-stack.pop();
-stack.push(FayValue(v));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64_t v=stack.top().longVal();
-stack.pop();
-v+=stack.top().longVal();
-stack.pop();
-stack.push(FayValue(v));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double v=stack.top().doubleVal();
-stack.pop();
-v+=stack.top().doubleVal();
-stack.pop();
-stack.push(FayValue(v));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((int32_t)v.floatVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((bool)v.intVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((byte)v.intVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((long)v.intVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((double)v.intVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((bool)v.floatVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((byte)v.floatVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((int64_t)v.floatVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((double)v.floatVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1463,33 +1276,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((bool)v.longVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((int32_t)v.longVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((byte)v.longVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((double)v.longVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FayValue v=stack.top();
-stack.pop();
-stack.push(FayValue((float)v.longVal()));</t>
+    <t>outsideFunIndex:int
+paramCount:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeIndex:int
+fieldIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeIndex:int
+funIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(byte)0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int32_t)0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int64_t)0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(float)0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(double)0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#s.push(MKPTR(FayValue)(#p1));</t>
+  </si>
+  <si>
+    <t>#s.pop();</t>
+  </si>
+  <si>
+    <t>localVars[#p1]=#s.top();
+#s.pop();</t>
+  </si>
+  <si>
+    <t>#s.push(localVars[#p1]);</t>
+  </si>
+  <si>
+    <t>#s.pop();
+#s.push(MKPTR(FayValue)(#a1));</t>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionVars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+#s.push(#new((#a1)v-&gt;intVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+#s.push(#new((#a1)v-&gt;longVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+#s.push(#new(std::to_string(v-&gt;intVal())));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+#s.push(#new((#a1)v-&gt;floatVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+#s.push(#new((#a1)v-&gt;doubleVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//DoNothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t
+intVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a1 v=#s.top()-&gt;#a2();
+#s.pop();
+v+=#s.top()-&gt;#a2();
+#s.pop();
+#s.push(#new(v));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64_t
+longVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float
+floatVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double
+doubleVal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1656,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1728,6 +1665,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2951,13 +2894,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H167" sqref="H167"/>
+      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2968,60 +2911,49 @@
     <col min="4" max="4" width="11.75" style="16" customWidth="1"/>
     <col min="5" max="6" width="10.125" style="16" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="13" customWidth="1"/>
-    <col min="10" max="12" width="16.75" style="14" customWidth="1"/>
-    <col min="13" max="13" width="59" style="19" customWidth="1"/>
-    <col min="14" max="14" width="71" style="20" customWidth="1"/>
-    <col min="15" max="16" width="11.25" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="12"/>
+    <col min="8" max="9" width="16.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="59" style="19" customWidth="1"/>
+    <col min="11" max="11" width="71" style="20" customWidth="1"/>
+    <col min="12" max="13" width="11.25" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
         <f>D2&amp;F2</f>
         <v>Nop</v>
@@ -3033,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f>D3&amp;F3</f>
         <v>PushBool</v>
@@ -3051,148 +2983,148 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="16">
         <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f t="shared" ref="A4:A52" si="0">D4&amp;F4</f>
         <v>PushByte</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushInt</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushLong</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E6" s="16">
         <v>5</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushFloat</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushDouble</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8" s="16">
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PushString</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="16">
         <v>8</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Pop</v>
@@ -3201,13 +3133,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>PopTo</v>
@@ -3216,13 +3148,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
         <f>D12&amp;F12</f>
         <v>CallStatic</v>
@@ -3231,64 +3163,54 @@
         <v>7</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CallVirtual</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E13" s="16">
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="K13" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SetLocal</v>
@@ -3297,61 +3219,58 @@
         <v>8</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SetField</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SetStatic</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>LoadLocal</v>
@@ -3360,58 +3279,55 @@
         <v>9</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>LoadField</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>LoadStatic</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToVoid</v>
@@ -3420,175 +3336,197 @@
         <v>21</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToBool</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E22" s="16">
         <v>2</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="I22" s="14" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToByte</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E23" s="16">
         <v>3</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToInt</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToLong</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E25" s="16">
         <v>5</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToFloat</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E26" s="16">
         <v>6</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToDouble</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E27" s="16">
         <v>7</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToString</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E28" s="16">
         <v>8</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToObject</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E29" s="16">
         <v>9</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>VoidToFunction</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E30" s="16">
         <v>10</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>BoolToVoid</v>
@@ -3597,22 +3535,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>BoolToBool</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,10 +3559,10 @@
         <v>BoolToByte</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3633,10 +3571,10 @@
         <v>BoolToInt</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3645,10 +3583,10 @@
         <v>BoolToLong</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3657,10 +3595,10 @@
         <v>BoolToFloat</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3669,10 +3607,10 @@
         <v>BoolToDouble</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,10 +3619,10 @@
         <v>BoolToString</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3693,10 +3631,10 @@
         <v>BoolToObject</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3705,10 +3643,10 @@
         <v>BoolToFunction</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3720,10 +3658,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3732,10 +3670,10 @@
         <v>ByteToBool</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3744,10 +3682,10 @@
         <v>ByteToByte</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,10 +3694,10 @@
         <v>ByteToInt</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3768,10 +3706,10 @@
         <v>ByteToLong</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3780,10 +3718,10 @@
         <v>ByteToFloat</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3792,10 +3730,10 @@
         <v>ByteToDouble</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,37 +3742,37 @@
         <v>ByteToString</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
         <f t="shared" si="0"/>
         <v>ByteToObject</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
         <f t="shared" si="0"/>
         <v>ByteToFunction</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToVoid</v>
@@ -3843,139 +3781,160 @@
         <v>24</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
         <f t="shared" si="0"/>
         <v>IntToBool</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="str">
         <f t="shared" ref="A53:A116" si="1">D53&amp;F53</f>
         <v>IntToByte</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToInt</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToLong</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToFloat</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToDouble</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToString</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToObject</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToFunction</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToVoid</v>
@@ -3984,139 +3943,157 @@
         <v>25</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToBool</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="M62" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToByte</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToInt</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="M64" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToLong</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="M65" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToFloat</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToDouble</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToString</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToObject</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LongToFunction</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToVoid</v>
@@ -4125,139 +4102,157 @@
         <v>26</v>
       </c>
       <c r="D71" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToBool</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="J72" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FloatToByte</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToBool</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="M72" s="19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToByte</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>327</v>
-      </c>
       <c r="F73" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToInt</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="M74" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToLong</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="M75" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToFloat</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M76" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToDouble</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="M77" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToString</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToObject</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FloatToFunction</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToVoid</v>
@@ -4266,121 +4261,157 @@
         <v>27</v>
       </c>
       <c r="D81" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToBool</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToByte</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToBool</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F82" s="16" t="s">
+      <c r="J83" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>DoubleToInt</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToByte</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToInt</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>328</v>
-      </c>
       <c r="F84" s="16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToLong</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToFloat</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToDouble</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J87" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToString</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToObject</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="str">
         <f t="shared" si="1"/>
         <v>DoubleToFunction</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="str">
         <f t="shared" si="1"/>
         <v>StringToVoid</v>
@@ -4389,70 +4420,70 @@
         <v>28</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="str">
         <f t="shared" si="1"/>
         <v>StringToBool</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="str">
         <f t="shared" si="1"/>
         <v>StringToByte</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F93" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>StringToInt</v>
+      </c>
+      <c r="D94" s="16" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToInt</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>329</v>
-      </c>
       <c r="F94" s="16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="str">
         <f t="shared" si="1"/>
         <v>StringToLong</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="str">
         <f t="shared" si="1"/>
         <v>StringToFloat</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4461,10 +4492,10 @@
         <v>StringToDouble</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4473,10 +4504,10 @@
         <v>StringToString</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4485,10 +4516,10 @@
         <v>StringToObject</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4497,10 +4528,10 @@
         <v>StringToFunction</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,10 +4543,10 @@
         <v>29</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,10 +4555,10 @@
         <v>ObjectToBool</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,10 +4567,10 @@
         <v>ObjectToByte</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4548,10 +4579,10 @@
         <v>ObjectToInt</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4560,10 +4591,10 @@
         <v>ObjectToLong</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4572,10 +4603,10 @@
         <v>ObjectToFloat</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4584,10 +4615,10 @@
         <v>ObjectToDouble</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4596,10 +4627,10 @@
         <v>ObjectToString</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4608,10 +4639,10 @@
         <v>ObjectToObject</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4620,10 +4651,10 @@
         <v>ObjectToFunction</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4635,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4647,109 +4678,109 @@
         <v>FunctionToBool</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FunctionToByte</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FunctionToInt</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="str">
         <f t="shared" si="1"/>
         <v>FunctionToLong</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F115" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FunctionToFloat</v>
+      </c>
+      <c r="D116" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToFloat</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>331</v>
-      </c>
       <c r="F116" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="str">
         <f t="shared" ref="A117:A171" si="2">D117&amp;F117</f>
         <v>FunctionToDouble</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToString</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToObject</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToFunction</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddVoid</v>
@@ -4758,106 +4789,118 @@
         <v>41</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddBool</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddByte</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddInt</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="M124" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I124" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="J124" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddLong</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="M125" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I125" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J125" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddFloat</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M126" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I126" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J126" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddDouble</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="M127" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I127" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J127" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddString</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4866,10 +4909,10 @@
         <v>AddObject</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4878,10 +4921,10 @@
         <v>AddFunction</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,10 +4936,10 @@
         <v>42</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4905,10 +4948,10 @@
         <v>SubBool</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4917,10 +4960,10 @@
         <v>SubByte</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4929,10 +4972,10 @@
         <v>SubInt</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4941,10 +4984,10 @@
         <v>SubLong</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,10 +4996,10 @@
         <v>SubFloat</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4965,10 +5008,10 @@
         <v>SubDouble</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,10 +5020,10 @@
         <v>SubString</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4989,10 +5032,10 @@
         <v>SubObject</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5001,10 +5044,10 @@
         <v>SubFunction</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -5016,10 +5059,10 @@
         <v>43</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,10 +5071,10 @@
         <v>MulBool</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,10 +5083,10 @@
         <v>MulByte</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -5052,10 +5095,10 @@
         <v>MulInt</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5064,10 +5107,10 @@
         <v>MulLong</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5076,10 +5119,10 @@
         <v>MulFloat</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5088,10 +5131,10 @@
         <v>MulDouble</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5100,10 +5143,10 @@
         <v>MulString</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5112,10 +5155,10 @@
         <v>MulObject</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5124,10 +5167,10 @@
         <v>MulFunction</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5139,10 +5182,10 @@
         <v>44</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5151,10 +5194,10 @@
         <v>DivBool</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5163,10 +5206,10 @@
         <v>DivByte</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5175,10 +5218,10 @@
         <v>DivInt</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,10 +5230,10 @@
         <v>DivLong</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5199,10 +5242,10 @@
         <v>DivFloat</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5211,10 +5254,10 @@
         <v>DivDouble</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5223,10 +5266,10 @@
         <v>DivString</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5235,10 +5278,10 @@
         <v>DivObject</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5247,10 +5290,10 @@
         <v>DivFunction</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
@@ -5343,146 +5386,146 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5509,192 +5552,192 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5721,27 +5764,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5750,15 +5793,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -5767,15 +5810,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -5784,15 +5827,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -5801,15 +5844,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -5818,15 +5861,15 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -5835,15 +5878,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5852,15 +5895,15 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -5869,15 +5912,15 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -5886,15 +5929,15 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -5903,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="360">
   <si>
     <t>[ ]</t>
   </si>
@@ -1345,13 +1345,6 @@
     <t>#s.pop();</t>
   </si>
   <si>
-    <t>localVars[#p1]=#s.top();
-#s.pop();</t>
-  </si>
-  <si>
-    <t>#s.push(localVars[#p1]);</t>
-  </si>
-  <si>
     <t>#s.pop();
 #s.push(MKPTR(FayValue)(#a1));</t>
   </si>
@@ -1407,26 +1400,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int64_t
+longVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float
+floatVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double
+doubleVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#s.push(localVars[#p1]-&gt;clone());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localVars[#p1]=#s.top()-&gt;clone();
+#s.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::string
+strVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+(*#s.top()-&gt;#a2())+=*v-&gt;#a2();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#a1 v=#s.top()-&gt;#a2();
 #s.pop();
-v+=#s.top()-&gt;#a2();
-#s.pop();
-#s.push(#new(v));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64_t
-longVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float
-floatVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double
-doubleVal</t>
+#s.top()-&gt;val()-&gt;#a2+=v;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1954,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2897,10 +2908,10 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
+      <selection pane="bottomRight" activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2938,13 +2949,13 @@
         <v>184</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>281</v>
@@ -3231,7 +3242,7 @@
         <v>295</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3288,7 +3299,7 @@
         <v>295</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -3367,7 +3378,7 @@
         <v>false</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3388,7 +3399,7 @@
         <v>333</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3409,7 +3420,7 @@
         <v>334</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3430,7 +3441,7 @@
         <v>335</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3451,7 +3462,7 @@
         <v>336</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3472,7 +3483,7 @@
         <v>337</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3493,7 +3504,7 @@
         <v>338</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3802,7 +3813,7 @@
         <v>327</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -3820,7 +3831,7 @@
         <v>328</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3856,7 +3867,7 @@
         <v>330</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -3874,7 +3885,7 @@
         <v>331</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -3892,7 +3903,7 @@
         <v>332</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -3907,7 +3918,7 @@
         <v>304</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3964,7 +3975,7 @@
         <v>327</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -3982,7 +3993,7 @@
         <v>328</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4000,7 +4011,7 @@
         <v>329</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4036,7 +4047,7 @@
         <v>331</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4054,7 +4065,7 @@
         <v>332</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -4123,7 +4134,7 @@
         <v>327</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4141,7 +4152,7 @@
         <v>328</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4159,7 +4170,7 @@
         <v>329</v>
       </c>
       <c r="J74" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4177,7 +4188,7 @@
         <v>330</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -4213,7 +4224,7 @@
         <v>332</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4282,7 +4293,7 @@
         <v>327</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4300,7 +4311,7 @@
         <v>328</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4318,7 +4329,7 @@
         <v>329</v>
       </c>
       <c r="J84" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4336,7 +4347,7 @@
         <v>330</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4354,7 +4365,7 @@
         <v>331</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -4372,7 +4383,7 @@
         <v>332</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -4819,7 +4830,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddInt</v>
@@ -4831,13 +4842,13 @@
         <v>300</v>
       </c>
       <c r="I124" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J124" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddLong</v>
@@ -4849,13 +4860,13 @@
         <v>301</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J125" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddFloat</v>
@@ -4867,13 +4878,13 @@
         <v>302</v>
       </c>
       <c r="I126" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddDouble</v>
@@ -4885,13 +4896,13 @@
         <v>303</v>
       </c>
       <c r="I127" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J127" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
         <f t="shared" si="2"/>
         <v>AddString</v>
@@ -4901,6 +4912,12 @@
       </c>
       <c r="F128" s="16" t="s">
         <v>304</v>
+      </c>
+      <c r="I128" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J128" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="10725" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="361">
   <si>
     <t>[ ]</t>
   </si>
@@ -1438,6 +1438,10 @@
     <t>#a1 v=#s.top()-&gt;#a2();
 #s.pop();
 #s.top()-&gt;val()-&gt;#a2+=v;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2907,11 +2911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J133" sqref="J133"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5554,10 +5558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5755,6 +5759,11 @@
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="3"/>
+    <workbookView xWindow="12870" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="365">
   <si>
     <t>[ ]</t>
   </si>
@@ -1442,6 +1442,22 @@
   </si>
   <si>
     <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=#p1-1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2909,13 +2925,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2990,45 +3006,39 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="str">
-        <f>D3&amp;F3</f>
-        <v>PushBool</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>339</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f t="shared" ref="A4:A52" si="0">D4&amp;F4</f>
-        <v>PushByte</v>
+        <f>D4&amp;F4</f>
+        <v>PushBool</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>339</v>
@@ -3036,20 +3046,20 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>PushInt</v>
+        <f t="shared" ref="A5:A53" si="0">D5&amp;F5</f>
+        <v>PushByte</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>339</v>
@@ -3058,19 +3068,19 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushLong</v>
+        <v>PushInt</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>339</v>
@@ -3079,19 +3089,19 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushFloat</v>
+        <v>PushLong</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E7" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>339</v>
@@ -3100,19 +3110,19 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushDouble</v>
+        <v>PushFloat</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E8" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>339</v>
@@ -3121,19 +3131,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PushString</v>
+        <v>PushDouble</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E9" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>339</v>
@@ -3142,77 +3152,70 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Pop</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2</v>
+        <v>PushString</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="E10" s="16">
+        <v>8</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
+        <v>Pop</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>PopTo</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="str">
-        <f>D12&amp;F12</f>
-        <v>CallStatic</v>
-      </c>
-      <c r="C12" s="16">
-        <v>7</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>CallVirtual</v>
+        <f>D13&amp;F13</f>
+        <v>CallStatic</v>
+      </c>
+      <c r="C13" s="16">
+        <v>7</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>243</v>
       </c>
       <c r="E13" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>324</v>
@@ -3221,186 +3224,193 @@
         <v>326</v>
       </c>
       <c r="I13" s="25"/>
+      <c r="J13" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="K13" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetLocal</v>
-      </c>
-      <c r="C14" s="16">
-        <v>8</v>
+        <v>CallVirtual</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="E14" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="K14" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetField</v>
+        <v>SetLocal</v>
+      </c>
+      <c r="C15" s="16">
+        <v>8</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E15" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>SetStatic</v>
+        <v>SetField</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E16" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadLocal</v>
-      </c>
-      <c r="C17" s="16">
-        <v>9</v>
+        <v>SetStatic</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>355</v>
+        <v>293</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadField</v>
+        <v>LoadLocal</v>
+      </c>
+      <c r="C18" s="16">
+        <v>9</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>LoadStatic</v>
+        <v>LoadField</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>LoadStatic</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToVoid</v>
-      </c>
-      <c r="C21" s="16">
-        <v>21</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToBool</v>
+        <v>VoidToVoid</v>
+      </c>
+      <c r="C22" s="16">
+        <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E22" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I22" s="14" t="str">
-        <f>"false"</f>
-        <v>false</v>
+        <v>297</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToByte</v>
+        <v>VoidToBool</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E23" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>333</v>
+        <v>298</v>
+      </c>
+      <c r="I23" s="14" t="str">
+        <f>"false"</f>
+        <v>false</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>341</v>
@@ -3409,19 +3419,19 @@
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToInt</v>
+        <v>VoidToByte</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E24" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>341</v>
@@ -3430,19 +3440,19 @@
     <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToLong</v>
+        <v>VoidToInt</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E25" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>341</v>
@@ -3451,19 +3461,19 @@
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToFloat</v>
+        <v>VoidToLong</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E26" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>341</v>
@@ -3472,19 +3482,19 @@
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToDouble</v>
+        <v>VoidToFloat</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E27" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>341</v>
@@ -3493,400 +3503,403 @@
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToString</v>
+        <v>VoidToDouble</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E28" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToObject</v>
+        <v>VoidToString</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E29" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>VoidToFunction</v>
+        <v>VoidToObject</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E30" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToVoid</v>
-      </c>
-      <c r="C31" s="16">
-        <v>22</v>
+        <v>VoidToFunction</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="E31" s="16">
+        <v>10</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToBool</v>
+        <v>BoolToVoid</v>
+      </c>
+      <c r="C32" s="16">
+        <v>22</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToByte</v>
+        <v>BoolToBool</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToInt</v>
+        <v>BoolToByte</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToLong</v>
+        <v>BoolToInt</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToFloat</v>
+        <v>BoolToLong</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToDouble</v>
+        <v>BoolToFloat</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToString</v>
+        <v>BoolToDouble</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToObject</v>
+        <v>BoolToString</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>BoolToFunction</v>
+        <v>BoolToObject</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToVoid</v>
-      </c>
-      <c r="C41" s="16">
-        <v>23</v>
+        <v>BoolToFunction</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToBool</v>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="C42" s="16">
+        <v>23</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToByte</v>
+        <v>ByteToBool</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToInt</v>
+        <v>ByteToByte</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToLong</v>
+        <v>ByteToInt</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToFloat</v>
+        <v>ByteToLong</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToDouble</v>
+        <v>ByteToFloat</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToString</v>
+        <v>ByteToDouble</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToObject</v>
+        <v>ByteToString</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>ByteToFunction</v>
+        <v>ByteToObject</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToVoid</v>
-      </c>
-      <c r="C51" s="16">
-        <v>24</v>
+        <v>ByteToFunction</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>IntToBool</v>
+        <v>IntToVoid</v>
+      </c>
+      <c r="C52" s="16">
+        <v>24</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="str">
-        <f t="shared" ref="A53:A116" si="1">D53&amp;F53</f>
-        <v>IntToByte</v>
+        <f t="shared" si="0"/>
+        <v>IntToBool</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J53" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToInt</v>
+        <f t="shared" ref="A54:A117" si="1">D54&amp;F54</f>
+        <v>IntToByte</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToLong</v>
+        <v>IntToInt</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToFloat</v>
+        <v>IntToLong</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>345</v>
@@ -3895,16 +3908,16 @@
     <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToDouble</v>
+        <v>IntToFloat</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>345</v>
@@ -3913,88 +3926,88 @@
     <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToString</v>
+        <v>IntToDouble</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToObject</v>
+        <v>IntToString</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToFunction</v>
+        <v>IntToObject</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
         <f t="shared" si="1"/>
+        <v>IntToFunction</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>LongToVoid</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C62" s="16">
         <v>25</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToBool</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToByte</v>
+        <v>LongToBool</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J63" s="19" t="s">
         <v>346</v>
@@ -4003,157 +4016,157 @@
     <row r="64" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToInt</v>
+        <v>LongToByte</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J64" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToLong</v>
+        <v>LongToInt</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToFloat</v>
+        <v>LongToLong</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToDouble</v>
+        <v>LongToFloat</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J67" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToString</v>
+        <v>LongToDouble</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToObject</v>
+        <v>LongToString</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>LongToFunction</v>
+        <v>LongToObject</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="str">
         <f t="shared" si="1"/>
+        <v>LongToFunction</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>FloatToVoid</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C72" s="16">
         <v>26</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToBool</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToByte</v>
+        <v>FloatToBool</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J73" s="19" t="s">
         <v>348</v>
@@ -4162,16 +4175,16 @@
     <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToInt</v>
+        <v>FloatToByte</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>348</v>
@@ -4180,139 +4193,139 @@
     <row r="75" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToLong</v>
+        <v>FloatToInt</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J75" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToFloat</v>
+        <v>FloatToLong</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToDouble</v>
+        <v>FloatToFloat</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToString</v>
+        <v>FloatToDouble</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToObject</v>
+        <v>FloatToString</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FloatToFunction</v>
+        <v>FloatToObject</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="str">
         <f t="shared" si="1"/>
+        <v>FloatToFunction</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>DoubleToVoid</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C82" s="16">
         <v>27</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToBool</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToByte</v>
+        <v>DoubleToBool</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J83" s="19" t="s">
         <v>349</v>
@@ -4321,16 +4334,16 @@
     <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToInt</v>
+        <v>DoubleToByte</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J84" s="19" t="s">
         <v>349</v>
@@ -4339,16 +4352,16 @@
     <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToLong</v>
+        <v>DoubleToInt</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J85" s="19" t="s">
         <v>349</v>
@@ -4357,514 +4370,514 @@
     <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToFloat</v>
+        <v>DoubleToLong</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J86" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToDouble</v>
+        <v>DoubleToFloat</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToString</v>
+        <v>DoubleToDouble</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J88" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToObject</v>
+        <v>DoubleToString</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>DoubleToFunction</v>
+        <v>DoubleToObject</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToVoid</v>
-      </c>
-      <c r="C91" s="16">
-        <v>28</v>
+        <v>DoubleToFunction</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToBool</v>
+        <v>StringToVoid</v>
+      </c>
+      <c r="C92" s="16">
+        <v>28</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToByte</v>
+        <v>StringToBool</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToInt</v>
+        <v>StringToByte</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToLong</v>
+        <v>StringToInt</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToFloat</v>
+        <v>StringToLong</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToDouble</v>
+        <v>StringToFloat</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToString</v>
+        <v>StringToDouble</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToObject</v>
+        <v>StringToString</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>StringToFunction</v>
+        <v>StringToObject</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToVoid</v>
-      </c>
-      <c r="C101" s="16">
-        <v>29</v>
+        <v>StringToFunction</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToBool</v>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="C102" s="16">
+        <v>29</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToByte</v>
+        <v>ObjectToBool</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToInt</v>
+        <v>ObjectToByte</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToLong</v>
+        <v>ObjectToInt</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToFloat</v>
+        <v>ObjectToLong</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToDouble</v>
+        <v>ObjectToFloat</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToString</v>
+        <v>ObjectToDouble</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToObject</v>
+        <v>ObjectToString</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ObjectToFunction</v>
+        <v>ObjectToObject</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FunctionToVoid</v>
-      </c>
-      <c r="C111" s="16">
-        <v>30</v>
+        <v>ObjectToFunction</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FunctionToBool</v>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="C112" s="16">
+        <v>30</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FunctionToByte</v>
+        <v>FunctionToBool</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FunctionToInt</v>
+        <v>FunctionToByte</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FunctionToLong</v>
+        <v>FunctionToInt</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>FunctionToFloat</v>
+        <v>FunctionToLong</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="str">
-        <f t="shared" ref="A117:A171" si="2">D117&amp;F117</f>
-        <v>FunctionToDouble</v>
+        <f t="shared" si="1"/>
+        <v>FunctionToFloat</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToString</v>
+        <f t="shared" ref="A118:A172" si="2">D118&amp;F118</f>
+        <v>FunctionToDouble</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToObject</v>
+        <v>FunctionToString</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToFunction</v>
+        <v>FunctionToObject</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddVoid</v>
-      </c>
-      <c r="C121" s="16">
-        <v>41</v>
+        <v>FunctionToFunction</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddBool</v>
+        <v>AddVoid</v>
+      </c>
+      <c r="C122" s="16">
+        <v>41</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddByte</v>
+        <v>AddBool</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddInt</v>
+        <v>AddByte</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I124" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="J124" s="19" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddLong</v>
+        <v>AddInt</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J125" s="19" t="s">
         <v>359</v>
@@ -4873,16 +4886,16 @@
     <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddFloat</v>
+        <v>AddLong</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I126" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J126" s="19" t="s">
         <v>359</v>
@@ -4891,16 +4904,16 @@
     <row r="127" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddDouble</v>
+        <v>AddFloat</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I127" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J127" s="19" t="s">
         <v>359</v>
@@ -4909,476 +4922,494 @@
     <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddString</v>
+        <v>AddDouble</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddObject</v>
+        <v>AddString</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="I129" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J129" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>AddFunction</v>
+        <v>AddObject</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubVoid</v>
-      </c>
-      <c r="C131" s="16">
-        <v>42</v>
+        <v>AddFunction</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubBool</v>
+        <v>SubVoid</v>
+      </c>
+      <c r="C132" s="16">
+        <v>42</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubByte</v>
+        <v>SubBool</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubInt</v>
+        <v>SubByte</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubLong</v>
+        <v>SubInt</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubFloat</v>
+        <v>SubLong</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubDouble</v>
+        <v>SubFloat</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubString</v>
+        <v>SubDouble</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubObject</v>
+        <v>SubString</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>SubFunction</v>
+        <v>SubObject</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulVoid</v>
-      </c>
-      <c r="C141" s="16">
-        <v>43</v>
+        <v>SubFunction</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulBool</v>
+        <v>MulVoid</v>
+      </c>
+      <c r="C142" s="16">
+        <v>43</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulByte</v>
+        <v>MulBool</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulInt</v>
+        <v>MulByte</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulLong</v>
+        <v>MulInt</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulFloat</v>
+        <v>MulLong</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulDouble</v>
+        <v>MulFloat</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulString</v>
+        <v>MulDouble</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulObject</v>
+        <v>MulString</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>MulFunction</v>
+        <v>MulObject</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivVoid</v>
-      </c>
-      <c r="C151" s="16">
-        <v>44</v>
+        <v>MulFunction</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivBool</v>
+        <v>DivVoid</v>
+      </c>
+      <c r="C152" s="16">
+        <v>44</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivByte</v>
+        <v>DivBool</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivInt</v>
+        <v>DivByte</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivLong</v>
+        <v>DivInt</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivFloat</v>
+        <v>DivLong</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivDouble</v>
+        <v>DivFloat</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivString</v>
+        <v>DivDouble</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivObject</v>
+        <v>DivString</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DivFunction</v>
+        <v>DivObject</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+        <v>DivFunction</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5558,10 +5589,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5698,71 +5729,81 @@
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>230</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>360</v>
       </c>
     </row>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="369">
   <si>
     <t>[ ]</t>
   </si>
@@ -1458,6 +1458,26 @@
   </si>
   <si>
     <t>i=#p1-1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前值为False的时候再进行跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+#s.push(#new((#a1)v-&gt;longVal()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v=#s.top();
+#s.pop();
+if(!v-&gt;boolVal()) i=#p1-1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2925,13 +2945,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2986,7 +3006,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
-        <f>D2&amp;F2</f>
+        <f t="shared" ref="A2:A4" si="0">D2&amp;F2</f>
         <v>Nop</v>
       </c>
       <c r="C2" s="16">
@@ -3006,12 +3026,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Jump</v>
+      </c>
+      <c r="C3" s="16">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>365</v>
+      </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>361</v>
-      </c>
       <c r="G3" s="13" t="s">
         <v>363</v>
       </c>
@@ -3020,46 +3047,50 @@
       </c>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f>D4&amp;F4</f>
-        <v>PushBool</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>JumpFalse</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>282</v>
+      <c r="F4" s="16" t="str">
+        <f>"False"</f>
+        <v>False</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
-        <f t="shared" ref="A5:A53" si="0">D5&amp;F5</f>
-        <v>PushByte</v>
+        <f>D5&amp;F5</f>
+        <v>PushBool</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E5" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>339</v>
@@ -3067,20 +3098,20 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>PushInt</v>
+        <f t="shared" ref="A6:A54" si="1">D6&amp;F6</f>
+        <v>PushByte</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>339</v>
@@ -3088,20 +3119,20 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>PushLong</v>
+        <f t="shared" si="1"/>
+        <v>PushInt</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E7" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>339</v>
@@ -3109,20 +3140,20 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>PushFloat</v>
+        <f t="shared" si="1"/>
+        <v>PushLong</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E8" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>339</v>
@@ -3130,20 +3161,20 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>PushDouble</v>
+        <f t="shared" si="1"/>
+        <v>PushFloat</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E9" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>339</v>
@@ -3151,20 +3182,20 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>PushString</v>
+        <f t="shared" si="1"/>
+        <v>PushDouble</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E10" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>339</v>
@@ -3172,78 +3203,71 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Pop</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>PushString</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="E11" s="16">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>Pop</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>PopTo</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C13" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="str">
-        <f>D13&amp;F13</f>
-        <v>CallStatic</v>
-      </c>
-      <c r="C13" s="16">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>CallVirtual</v>
+        <f>D14&amp;F14</f>
+        <v>CallStatic</v>
+      </c>
+      <c r="C14" s="16">
+        <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>243</v>
       </c>
       <c r="E14" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>324</v>
@@ -3252,207 +3276,214 @@
         <v>326</v>
       </c>
       <c r="I14" s="25"/>
+      <c r="J14" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="K14" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>CallVirtual</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="K15" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>SetLocal</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C16" s="16">
         <v>8</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>SetField</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E16" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>SetStatic</v>
+        <f t="shared" si="1"/>
+        <v>SetField</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E17" s="16">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>SetStatic</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="16">
         <v>3</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>LoadLocal</v>
-      </c>
-      <c r="C18" s="16">
-        <v>9</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>LoadField</v>
+        <f t="shared" si="1"/>
+        <v>LoadLocal</v>
+      </c>
+      <c r="C19" s="16">
+        <v>9</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>LoadStatic</v>
+        <f t="shared" si="1"/>
+        <v>LoadField</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>LoadStatic</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G21" s="24" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>VoidToVoid</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C23" s="16">
         <v>21</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToBool</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToBool</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="I23" s="14" t="str">
+      <c r="I24" s="14" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToByte</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" s="16">
-        <v>3</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>333</v>
-      </c>
       <c r="J24" s="19" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToInt</v>
+        <f t="shared" si="1"/>
+        <v>VoidToByte</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E25" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>341</v>
@@ -3460,20 +3491,20 @@
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToLong</v>
+        <f t="shared" si="1"/>
+        <v>VoidToInt</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E26" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>341</v>
@@ -3481,20 +3512,20 @@
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToFloat</v>
+        <f t="shared" si="1"/>
+        <v>VoidToLong</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E27" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>341</v>
@@ -3502,20 +3533,20 @@
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToDouble</v>
+        <f t="shared" si="1"/>
+        <v>VoidToFloat</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E28" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>341</v>
@@ -3523,401 +3554,404 @@
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToString</v>
+        <f t="shared" si="1"/>
+        <v>VoidToDouble</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E29" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToObject</v>
+        <f t="shared" si="1"/>
+        <v>VoidToString</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E30" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>VoidToFunction</v>
+        <f t="shared" si="1"/>
+        <v>VoidToObject</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E31" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToVoid</v>
-      </c>
-      <c r="C32" s="16">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>VoidToFunction</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="E32" s="16">
+        <v>10</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToBool</v>
+        <f t="shared" si="1"/>
+        <v>BoolToVoid</v>
+      </c>
+      <c r="C33" s="16">
+        <v>22</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToByte</v>
+        <f t="shared" si="1"/>
+        <v>BoolToBool</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToInt</v>
+        <f t="shared" si="1"/>
+        <v>BoolToByte</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToLong</v>
+        <f t="shared" si="1"/>
+        <v>BoolToInt</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToFloat</v>
+        <f t="shared" si="1"/>
+        <v>BoolToLong</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToDouble</v>
+        <f t="shared" si="1"/>
+        <v>BoolToFloat</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToString</v>
+        <f t="shared" si="1"/>
+        <v>BoolToDouble</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToObject</v>
+        <f t="shared" si="1"/>
+        <v>BoolToString</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>BoolToFunction</v>
+        <f t="shared" si="1"/>
+        <v>BoolToObject</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToVoid</v>
-      </c>
-      <c r="C42" s="16">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>BoolToFunction</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToBool</v>
+        <f t="shared" si="1"/>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="C43" s="16">
+        <v>23</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToByte</v>
+        <f t="shared" si="1"/>
+        <v>ByteToBool</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToInt</v>
+        <f t="shared" si="1"/>
+        <v>ByteToByte</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToLong</v>
+        <f t="shared" si="1"/>
+        <v>ByteToInt</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToFloat</v>
+        <f t="shared" si="1"/>
+        <v>ByteToLong</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToDouble</v>
+        <f t="shared" si="1"/>
+        <v>ByteToFloat</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToString</v>
+        <f t="shared" si="1"/>
+        <v>ByteToDouble</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToObject</v>
+        <f t="shared" si="1"/>
+        <v>ByteToString</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>ByteToFunction</v>
+        <f t="shared" si="1"/>
+        <v>ByteToObject</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>ByteToFunction</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>IntToVoid</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C53" s="16">
         <v>24</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>IntToBool</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
-        <f t="shared" ref="A54:A117" si="1">D54&amp;F54</f>
-        <v>IntToByte</v>
+        <f t="shared" si="1"/>
+        <v>IntToBool</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J54" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToInt</v>
+        <f t="shared" ref="A55:A118" si="2">D55&amp;F55</f>
+        <v>IntToByte</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToLong</v>
+        <f t="shared" si="2"/>
+        <v>IntToInt</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToFloat</v>
+        <f t="shared" si="2"/>
+        <v>IntToLong</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>345</v>
@@ -3925,17 +3959,17 @@
     </row>
     <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToDouble</v>
+        <f t="shared" si="2"/>
+        <v>IntToFloat</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>345</v>
@@ -3943,248 +3977,248 @@
     </row>
     <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToString</v>
+        <f t="shared" si="2"/>
+        <v>IntToDouble</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToObject</v>
+        <f t="shared" si="2"/>
+        <v>IntToString</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToFunction</v>
+        <f t="shared" si="2"/>
+        <v>IntToObject</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>IntToFunction</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="str">
+        <f t="shared" si="2"/>
         <v>LongToVoid</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C63" s="16">
         <v>25</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToBool</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToByte</v>
+        <f t="shared" si="2"/>
+        <v>LongToBool</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToInt</v>
+        <f t="shared" si="2"/>
+        <v>LongToByte</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J65" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToLong</v>
+        <f t="shared" si="2"/>
+        <v>LongToInt</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToFloat</v>
+        <f t="shared" si="2"/>
+        <v>LongToLong</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToDouble</v>
+        <f t="shared" si="2"/>
+        <v>LongToFloat</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J68" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToString</v>
+        <f t="shared" si="2"/>
+        <v>LongToDouble</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToObject</v>
+        <f t="shared" si="2"/>
+        <v>LongToString</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LongToFunction</v>
+        <f t="shared" si="2"/>
+        <v>LongToObject</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>LongToFunction</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="str">
+        <f t="shared" si="2"/>
         <v>FloatToVoid</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C73" s="16">
         <v>26</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToBool</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToByte</v>
+        <f t="shared" si="2"/>
+        <v>FloatToBool</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>348</v>
@@ -4192,17 +4226,17 @@
     </row>
     <row r="75" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToInt</v>
+        <f t="shared" si="2"/>
+        <v>FloatToByte</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J75" s="19" t="s">
         <v>348</v>
@@ -4210,140 +4244,140 @@
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToLong</v>
+        <f t="shared" si="2"/>
+        <v>FloatToInt</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J76" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToFloat</v>
+        <f t="shared" si="2"/>
+        <v>FloatToLong</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToDouble</v>
+        <f t="shared" si="2"/>
+        <v>FloatToFloat</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToString</v>
+        <f t="shared" si="2"/>
+        <v>FloatToDouble</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToObject</v>
+        <f t="shared" si="2"/>
+        <v>FloatToString</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FloatToFunction</v>
+        <f t="shared" si="2"/>
+        <v>FloatToObject</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>FloatToFunction</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="str">
+        <f t="shared" si="2"/>
         <v>DoubleToVoid</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C83" s="16">
         <v>27</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToBool</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToByte</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToBool</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J84" s="19" t="s">
         <v>349</v>
@@ -4351,17 +4385,17 @@
     </row>
     <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToInt</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToByte</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J85" s="19" t="s">
         <v>349</v>
@@ -4369,17 +4403,17 @@
     </row>
     <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToLong</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToInt</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J86" s="19" t="s">
         <v>349</v>
@@ -4387,515 +4421,515 @@
     </row>
     <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToFloat</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToLong</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J87" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToDouble</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToFloat</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToString</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToDouble</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToObject</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToString</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>DoubleToFunction</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToObject</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToVoid</v>
-      </c>
-      <c r="C92" s="16">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>DoubleToFunction</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToBool</v>
+        <f t="shared" si="2"/>
+        <v>StringToVoid</v>
+      </c>
+      <c r="C93" s="16">
+        <v>28</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToByte</v>
+        <f t="shared" si="2"/>
+        <v>StringToBool</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToInt</v>
+        <f t="shared" si="2"/>
+        <v>StringToByte</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToLong</v>
+        <f t="shared" si="2"/>
+        <v>StringToInt</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToFloat</v>
+        <f t="shared" si="2"/>
+        <v>StringToLong</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToDouble</v>
+        <f t="shared" si="2"/>
+        <v>StringToFloat</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToString</v>
+        <f t="shared" si="2"/>
+        <v>StringToDouble</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToObject</v>
+        <f t="shared" si="2"/>
+        <v>StringToString</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>StringToFunction</v>
+        <f t="shared" si="2"/>
+        <v>StringToObject</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToVoid</v>
-      </c>
-      <c r="C102" s="16">
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>StringToFunction</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToBool</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="C103" s="16">
+        <v>29</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToByte</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToBool</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToInt</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToByte</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToLong</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToInt</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToFloat</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToLong</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToDouble</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToFloat</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToString</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToDouble</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToObject</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToString</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ObjectToFunction</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToObject</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToVoid</v>
-      </c>
-      <c r="C112" s="16">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>ObjectToFunction</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToBool</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="C113" s="16">
+        <v>30</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToByte</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToBool</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToInt</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToByte</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToLong</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToInt</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>FunctionToFloat</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToLong</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="str">
-        <f t="shared" ref="A118:A172" si="2">D118&amp;F118</f>
-        <v>FunctionToDouble</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToFloat</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToString</v>
+        <f t="shared" ref="A119:A173" si="3">D119&amp;F119</f>
+        <v>FunctionToDouble</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToObject</v>
+        <f t="shared" si="3"/>
+        <v>FunctionToString</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToFunction</v>
+        <f t="shared" si="3"/>
+        <v>FunctionToObject</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddVoid</v>
-      </c>
-      <c r="C122" s="16">
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>FunctionToFunction</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddBool</v>
+        <f t="shared" si="3"/>
+        <v>AddVoid</v>
+      </c>
+      <c r="C123" s="16">
+        <v>41</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddByte</v>
+        <f t="shared" si="3"/>
+        <v>AddBool</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddInt</v>
+        <f t="shared" si="3"/>
+        <v>AddByte</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I125" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="J125" s="19" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddLong</v>
+        <f t="shared" si="3"/>
+        <v>AddInt</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I126" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J126" s="19" t="s">
         <v>359</v>
@@ -4903,17 +4937,17 @@
     </row>
     <row r="127" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddFloat</v>
+        <f t="shared" si="3"/>
+        <v>AddLong</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I127" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J127" s="19" t="s">
         <v>359</v>
@@ -4921,17 +4955,17 @@
     </row>
     <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddDouble</v>
+        <f t="shared" si="3"/>
+        <v>AddFloat</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J128" s="19" t="s">
         <v>359</v>
@@ -4939,478 +4973,496 @@
     </row>
     <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddString</v>
+        <f t="shared" si="3"/>
+        <v>AddDouble</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddObject</v>
+        <f t="shared" si="3"/>
+        <v>AddString</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="I130" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J130" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>AddFunction</v>
+        <f t="shared" si="3"/>
+        <v>AddObject</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubVoid</v>
-      </c>
-      <c r="C132" s="16">
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>AddFunction</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubBool</v>
+        <f t="shared" si="3"/>
+        <v>SubVoid</v>
+      </c>
+      <c r="C133" s="16">
+        <v>42</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubByte</v>
+        <f t="shared" si="3"/>
+        <v>SubBool</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubInt</v>
+        <f t="shared" si="3"/>
+        <v>SubByte</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubLong</v>
+        <f t="shared" si="3"/>
+        <v>SubInt</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubFloat</v>
+        <f t="shared" si="3"/>
+        <v>SubLong</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubDouble</v>
+        <f t="shared" si="3"/>
+        <v>SubFloat</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubString</v>
+        <f t="shared" si="3"/>
+        <v>SubDouble</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubObject</v>
+        <f t="shared" si="3"/>
+        <v>SubString</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>SubFunction</v>
+        <f t="shared" si="3"/>
+        <v>SubObject</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulVoid</v>
-      </c>
-      <c r="C142" s="16">
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>SubFunction</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulBool</v>
+        <f t="shared" si="3"/>
+        <v>MulVoid</v>
+      </c>
+      <c r="C143" s="16">
+        <v>43</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulByte</v>
+        <f t="shared" si="3"/>
+        <v>MulBool</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulInt</v>
+        <f t="shared" si="3"/>
+        <v>MulByte</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulLong</v>
+        <f t="shared" si="3"/>
+        <v>MulInt</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulFloat</v>
+        <f t="shared" si="3"/>
+        <v>MulLong</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulDouble</v>
+        <f t="shared" si="3"/>
+        <v>MulFloat</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulString</v>
+        <f t="shared" si="3"/>
+        <v>MulDouble</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulObject</v>
+        <f t="shared" si="3"/>
+        <v>MulString</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>MulFunction</v>
+        <f t="shared" si="3"/>
+        <v>MulObject</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivVoid</v>
-      </c>
-      <c r="C152" s="16">
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>MulFunction</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivBool</v>
+        <f t="shared" si="3"/>
+        <v>DivVoid</v>
+      </c>
+      <c r="C153" s="16">
+        <v>44</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivByte</v>
+        <f t="shared" si="3"/>
+        <v>DivBool</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivInt</v>
+        <f t="shared" si="3"/>
+        <v>DivByte</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivLong</v>
+        <f t="shared" si="3"/>
+        <v>DivInt</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivFloat</v>
+        <f t="shared" si="3"/>
+        <v>DivLong</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivDouble</v>
+        <f t="shared" si="3"/>
+        <v>DivFloat</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivString</v>
+        <f t="shared" si="3"/>
+        <v>DivDouble</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivObject</v>
+        <f t="shared" si="3"/>
+        <v>DivString</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DivFunction</v>
+        <f t="shared" si="3"/>
+        <v>DivObject</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>DivFunction</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="23" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5426,7 +5478,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -5592,7 +5644,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="15015" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="382">
   <si>
     <t>[ ]</t>
   </si>
@@ -1478,6 +1478,62 @@
     <t>#val v=#s.top();
 #s.pop();
 if(!v-&gt;boolVal()) i=#p1-1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v2=#s.top();
+#s.pop();
+#val v1=#s.top();
+#s.pop();
+#s.push(#new(v1-&gt;#a1()&gt;v2-&gt;#a1()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreaterEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LessEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byteVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolVal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2945,13 +3001,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2959,7 +3015,7 @@
     <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="16" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="16" customWidth="1"/>
     <col min="5" max="6" width="10.125" style="16" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.75" style="14" customWidth="1"/>
@@ -4832,7 +4888,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
-        <f t="shared" ref="A119:A173" si="3">D119&amp;F119</f>
+        <f t="shared" ref="A119:A192" si="3">D119&amp;F119</f>
         <v>FunctionToDouble</v>
       </c>
       <c r="D119" s="16" t="s">
@@ -5403,67 +5459,775 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualVoid</v>
+      </c>
+      <c r="C163" s="16">
+        <v>51</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualBool</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualByte</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualInt</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualLong</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualFloat</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualDouble</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualString</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualObject</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>EqualFunction</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="str">
+        <f>D173&amp;F173</f>
+        <v>NotEqualVoid</v>
+      </c>
+      <c r="C173" s="16">
+        <v>52</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="23" t="str">
+        <f>D174&amp;F174</f>
+        <v>NotEqualBool</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="23" t="str">
+        <f>D175&amp;F175</f>
+        <v>NotEqualByte</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="23" t="str">
+        <f>D176&amp;F176</f>
+        <v>NotEqualInt</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="23" t="str">
+        <f>D177&amp;F177</f>
+        <v>NotEqualLong</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="23" t="str">
+        <f>D178&amp;F178</f>
+        <v>NotEqualFloat</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="23" t="str">
+        <f>D179&amp;F179</f>
+        <v>NotEqualDouble</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="23" t="str">
+        <f>D180&amp;F180</f>
+        <v>NotEqualString</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="23" t="str">
+        <f>D181&amp;F181</f>
+        <v>NotEqualObject</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="23" t="str">
+        <f>D182&amp;F182</f>
+        <v>NotEqualFunction</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>GreaterVoid</v>
+      </c>
+      <c r="C183" s="16">
+        <v>53</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterBool</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I184" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J184" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterByte</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I185" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J185" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterInt</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I186" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="J186" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterLong</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J187" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterFloat</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I188" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J188" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterDouble</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I189" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J189" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterString</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterObject</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterFunction</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="23" t="str">
+        <f t="shared" ref="A193:A222" si="4">D193&amp;F193</f>
+        <v>GreaterEqualVoid</v>
+      </c>
+      <c r="C193" s="16">
+        <v>54</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualBool</v>
+      </c>
+      <c r="D194" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualByte</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualInt</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualLong</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualFloat</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualDouble</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F199" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualString</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualObject</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F201" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>GreaterEqualFunction</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F202" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessVoid</v>
+      </c>
+      <c r="C203" s="16">
+        <v>55</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessBool</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F204" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessByte</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F205" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessInt</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F206" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessLong</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F207" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessFloat</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F208" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessDouble</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F209" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessString</v>
+      </c>
+      <c r="D210" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F210" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessObject</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F211" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessFunction</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualVoid</v>
+      </c>
+      <c r="C213" s="16">
+        <v>56</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualBool</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F214" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualByte</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F215" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualInt</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F216" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualLong</v>
+      </c>
+      <c r="D217" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F217" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualFloat</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F218" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualDouble</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualString</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F220" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualObject</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F221" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>LessEqualFunction</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F222" s="16" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TokenType" sheetId="7" r:id="rId4"/>
     <sheet name="ValueType" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="386">
   <si>
     <t>[ ]</t>
   </si>
@@ -1536,12 +1536,44 @@
     <t>boolVal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>#val v2=#s.top();
+#s.pop();
+#val v1=#s.top();
+#s.pop();
+#s.push(#new(v1-&gt;#a1()==v2-&gt;#a1()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v2=#s.top();
+#s.pop();
+#val v1=#s.top();
+#s.pop();
+#s.push(#new(v1-&gt;#a1()!=v2-&gt;#a1()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v2=#s.top();
+#s.pop();
+#val v1=#s.top();
+#s.pop();
+#s.push(#new(v1-&gt;#a1()&gt;=v2-&gt;#a1()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#val v2=#s.top();
+#s.pop();
+#val v1=#s.top();
+#s.pop();
+#s.push(#new(v1-&gt;#a1()&lt;v2-&gt;#a1()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2062,10 +2094,10 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -2078,7 +2110,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2101,7 +2133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -2121,7 +2153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2141,7 +2173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2161,7 +2193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2181,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2201,7 +2233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2221,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2241,7 +2273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2261,7 +2293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -2284,7 +2316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -2304,7 +2336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -2324,7 +2356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -2347,7 +2379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -2367,7 +2399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2387,7 +2419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -2410,7 +2442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -2430,7 +2462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -2456,7 +2488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -2479,7 +2511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -2502,7 +2534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -2525,7 +2557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -2545,7 +2577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -2568,7 +2600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -2594,7 +2626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="18" customHeight="1">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -2617,7 +2649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -2640,7 +2672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -2660,7 +2692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -2680,7 +2712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2706,7 +2738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -2729,7 +2761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -2749,7 +2781,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -2772,7 +2804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -2792,7 +2824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -2812,7 +2844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2832,7 +2864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2852,7 +2884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2872,7 +2904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2892,7 +2924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2912,7 +2944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2932,7 +2964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2952,7 +2984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -2972,7 +3004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -3004,13 +3036,13 @@
   <dimension ref="A1:K222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C224" sqref="C224"/>
+      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="16" customWidth="1"/>
@@ -3025,7 +3057,7 @@
     <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75">
       <c r="A1" s="22" t="s">
         <v>280</v>
       </c>
@@ -3060,7 +3092,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="23" t="str">
         <f t="shared" ref="A2:A4" si="0">D2&amp;F2</f>
         <v>Nop</v>
@@ -3081,7 +3113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Jump</v>
@@ -3103,7 +3135,7 @@
       </c>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="38.25">
       <c r="A4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>JumpFalse</v>
@@ -3128,7 +3160,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="23" t="str">
         <f>D5&amp;F5</f>
         <v>PushBool</v>
@@ -3152,7 +3184,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="23" t="str">
         <f t="shared" ref="A6:A54" si="1">D6&amp;F6</f>
         <v>PushByte</v>
@@ -3173,7 +3205,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushInt</v>
@@ -3194,7 +3226,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushLong</v>
@@ -3215,7 +3247,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushFloat</v>
@@ -3236,7 +3268,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushDouble</v>
@@ -3257,7 +3289,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushString</v>
@@ -3278,7 +3310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Pop</v>
@@ -3293,7 +3325,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PopTo</v>
@@ -3308,7 +3340,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="25.5">
       <c r="A14" s="23" t="str">
         <f>D14&amp;F14</f>
         <v>CallStatic</v>
@@ -3339,7 +3371,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="25.5">
       <c r="A15" s="23" t="str">
         <f t="shared" si="1"/>
         <v>CallVirtual</v>
@@ -3364,7 +3396,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="25.5">
       <c r="A16" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetLocal</v>
@@ -3388,7 +3420,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetField</v>
@@ -3406,7 +3438,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetStatic</v>
@@ -3424,7 +3456,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadLocal</v>
@@ -3445,7 +3477,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadField</v>
@@ -3460,7 +3492,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5">
       <c r="A21" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadStatic</v>
@@ -3475,13 +3507,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToVoid</v>
@@ -3502,7 +3534,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToBool</v>
@@ -3524,7 +3556,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToByte</v>
@@ -3545,7 +3577,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToInt</v>
@@ -3566,7 +3598,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToLong</v>
@@ -3587,7 +3619,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFloat</v>
@@ -3608,7 +3640,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25.5">
       <c r="A29" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToDouble</v>
@@ -3629,7 +3661,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25.5">
       <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToString</v>
@@ -3650,7 +3682,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToObject</v>
@@ -3665,7 +3697,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFunction</v>
@@ -3680,7 +3712,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToVoid</v>
@@ -3695,7 +3727,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToBool</v>
@@ -3707,7 +3739,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToByte</v>
@@ -3719,7 +3751,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToInt</v>
@@ -3731,7 +3763,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToLong</v>
@@ -3743,7 +3775,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToFloat</v>
@@ -3755,7 +3787,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToDouble</v>
@@ -3767,7 +3799,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToString</v>
@@ -3779,7 +3811,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToObject</v>
@@ -3791,7 +3823,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToFunction</v>
@@ -3803,7 +3835,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToVoid</v>
@@ -3818,7 +3850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToBool</v>
@@ -3830,7 +3862,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToByte</v>
@@ -3842,7 +3874,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToInt</v>
@@ -3854,7 +3886,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToLong</v>
@@ -3866,7 +3898,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToFloat</v>
@@ -3878,7 +3910,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToDouble</v>
@@ -3890,7 +3922,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToString</v>
@@ -3902,7 +3934,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToObject</v>
@@ -3914,7 +3946,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToFunction</v>
@@ -3926,7 +3958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToVoid</v>
@@ -3941,7 +3973,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="38.25">
       <c r="A54" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToBool</v>
@@ -3959,7 +3991,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="38.25">
       <c r="A55" s="23" t="str">
         <f t="shared" ref="A55:A118" si="2">D55&amp;F55</f>
         <v>IntToByte</v>
@@ -3977,7 +4009,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToInt</v>
@@ -3995,7 +4027,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="38.25">
       <c r="A57" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToLong</v>
@@ -4013,7 +4045,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="38.25">
       <c r="A58" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToFloat</v>
@@ -4031,7 +4063,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="38.25">
       <c r="A59" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToDouble</v>
@@ -4049,7 +4081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="38.25">
       <c r="A60" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToString</v>
@@ -4064,7 +4096,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToObject</v>
@@ -4076,7 +4108,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToFunction</v>
@@ -4088,7 +4120,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToVoid</v>
@@ -4103,7 +4135,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="38.25">
       <c r="A64" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToBool</v>
@@ -4121,7 +4153,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="38.25">
       <c r="A65" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToByte</v>
@@ -4139,7 +4171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="38.25">
       <c r="A66" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToInt</v>
@@ -4157,7 +4189,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToLong</v>
@@ -4175,7 +4207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="38.25">
       <c r="A68" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToFloat</v>
@@ -4193,7 +4225,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="38.25">
       <c r="A69" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToDouble</v>
@@ -4211,7 +4243,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToString</v>
@@ -4223,7 +4255,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToObject</v>
@@ -4235,7 +4267,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToFunction</v>
@@ -4247,7 +4279,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToVoid</v>
@@ -4262,7 +4294,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="38.25">
       <c r="A74" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToBool</v>
@@ -4280,7 +4312,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="38.25">
       <c r="A75" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToByte</v>
@@ -4298,7 +4330,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="38.25">
       <c r="A76" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToInt</v>
@@ -4316,7 +4348,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="38.25">
       <c r="A77" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToLong</v>
@@ -4334,7 +4366,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToFloat</v>
@@ -4352,7 +4384,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="38.25">
       <c r="A79" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToDouble</v>
@@ -4370,7 +4402,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToString</v>
@@ -4382,7 +4414,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToObject</v>
@@ -4394,7 +4426,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToFunction</v>
@@ -4406,7 +4438,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToVoid</v>
@@ -4421,7 +4453,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="38.25">
       <c r="A84" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToBool</v>
@@ -4439,7 +4471,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="38.25">
       <c r="A85" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToByte</v>
@@ -4457,7 +4489,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="38.25">
       <c r="A86" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToInt</v>
@@ -4475,7 +4507,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="38.25">
       <c r="A87" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToLong</v>
@@ -4493,7 +4525,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="38.25">
       <c r="A88" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToFloat</v>
@@ -4511,7 +4543,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToDouble</v>
@@ -4529,7 +4561,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToString</v>
@@ -4541,7 +4573,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToObject</v>
@@ -4553,7 +4585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToFunction</v>
@@ -4565,7 +4597,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToVoid</v>
@@ -4580,7 +4612,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToBool</v>
@@ -4592,7 +4624,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToByte</v>
@@ -4604,7 +4636,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToInt</v>
@@ -4616,7 +4648,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToLong</v>
@@ -4628,7 +4660,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToFloat</v>
@@ -4640,7 +4672,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToDouble</v>
@@ -4652,7 +4684,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToString</v>
@@ -4664,7 +4696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToObject</v>
@@ -4676,7 +4708,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToFunction</v>
@@ -4688,7 +4720,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToVoid</v>
@@ -4703,7 +4735,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToBool</v>
@@ -4715,7 +4747,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToByte</v>
@@ -4727,7 +4759,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToInt</v>
@@ -4739,7 +4771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToLong</v>
@@ -4751,7 +4783,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToFloat</v>
@@ -4763,7 +4795,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToDouble</v>
@@ -4775,7 +4807,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToString</v>
@@ -4787,7 +4819,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToObject</v>
@@ -4799,7 +4831,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToFunction</v>
@@ -4811,7 +4843,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToVoid</v>
@@ -4826,7 +4858,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToBool</v>
@@ -4838,7 +4870,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToByte</v>
@@ -4850,7 +4882,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToInt</v>
@@ -4862,7 +4894,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToLong</v>
@@ -4874,7 +4906,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToFloat</v>
@@ -4886,7 +4918,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="23" t="str">
         <f t="shared" ref="A119:A192" si="3">D119&amp;F119</f>
         <v>FunctionToDouble</v>
@@ -4898,7 +4930,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToString</v>
@@ -4910,7 +4942,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToObject</v>
@@ -4922,7 +4954,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToFunction</v>
@@ -4934,7 +4966,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddVoid</v>
@@ -4949,7 +4981,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddBool</v>
@@ -4961,7 +4993,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddByte</v>
@@ -4973,7 +5005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="38.25">
       <c r="A126" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddInt</v>
@@ -4991,7 +5023,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="38.25">
       <c r="A127" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddLong</v>
@@ -5009,7 +5041,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="38.25">
       <c r="A128" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddFloat</v>
@@ -5027,7 +5059,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="38.25">
       <c r="A129" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddDouble</v>
@@ -5045,7 +5077,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="38.25">
       <c r="A130" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddString</v>
@@ -5063,7 +5095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddObject</v>
@@ -5075,7 +5107,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddFunction</v>
@@ -5087,7 +5119,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubVoid</v>
@@ -5102,7 +5134,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubBool</v>
@@ -5114,7 +5146,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubByte</v>
@@ -5126,7 +5158,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubInt</v>
@@ -5138,7 +5170,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubLong</v>
@@ -5150,7 +5182,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFloat</v>
@@ -5162,7 +5194,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubDouble</v>
@@ -5174,7 +5206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubString</v>
@@ -5186,7 +5218,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubObject</v>
@@ -5198,7 +5230,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFunction</v>
@@ -5210,7 +5242,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulVoid</v>
@@ -5225,7 +5257,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulBool</v>
@@ -5237,7 +5269,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulByte</v>
@@ -5249,7 +5281,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulInt</v>
@@ -5261,7 +5293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulLong</v>
@@ -5273,7 +5305,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFloat</v>
@@ -5285,7 +5317,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulDouble</v>
@@ -5297,7 +5329,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulString</v>
@@ -5309,7 +5341,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulObject</v>
@@ -5321,7 +5353,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFunction</v>
@@ -5333,7 +5365,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivVoid</v>
@@ -5348,7 +5380,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivBool</v>
@@ -5360,7 +5392,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivByte</v>
@@ -5372,7 +5404,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivInt</v>
@@ -5384,7 +5416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivLong</v>
@@ -5396,7 +5428,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivFloat</v>
@@ -5408,7 +5440,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivDouble</v>
@@ -5420,7 +5452,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivString</v>
@@ -5432,7 +5464,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivObject</v>
@@ -5444,7 +5476,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivFunction</v>
@@ -5456,7 +5488,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualVoid</v>
@@ -5471,7 +5503,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="63.75">
       <c r="A164" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualBool</v>
@@ -5482,8 +5514,14 @@
       <c r="F164" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I164" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J164" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="63.75">
       <c r="A165" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualByte</v>
@@ -5494,8 +5532,14 @@
       <c r="F165" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I165" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J165" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="63.75">
       <c r="A166" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualInt</v>
@@ -5506,8 +5550,14 @@
       <c r="F166" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I166" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="J166" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="63.75">
       <c r="A167" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualLong</v>
@@ -5518,8 +5568,14 @@
       <c r="F167" s="16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I167" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J167" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="63.75">
       <c r="A168" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualFloat</v>
@@ -5530,8 +5586,14 @@
       <c r="F168" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I168" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J168" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="63.75">
       <c r="A169" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualDouble</v>
@@ -5542,8 +5604,14 @@
       <c r="F169" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I169" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J169" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualString</v>
@@ -5555,7 +5623,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualObject</v>
@@ -5567,7 +5635,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualFunction</v>
@@ -5579,9 +5647,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" s="23" t="str">
-        <f>D173&amp;F173</f>
+        <f t="shared" ref="A173:A182" si="4">D173&amp;F173</f>
         <v>NotEqualVoid</v>
       </c>
       <c r="C173" s="16">
@@ -5594,9 +5662,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="63.75">
       <c r="A174" s="23" t="str">
-        <f>D174&amp;F174</f>
+        <f t="shared" si="4"/>
         <v>NotEqualBool</v>
       </c>
       <c r="D174" s="16" t="s">
@@ -5605,10 +5673,16 @@
       <c r="F174" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I174" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J174" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="63.75">
       <c r="A175" s="23" t="str">
-        <f>D175&amp;F175</f>
+        <f t="shared" si="4"/>
         <v>NotEqualByte</v>
       </c>
       <c r="D175" s="16" t="s">
@@ -5617,10 +5691,16 @@
       <c r="F175" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I175" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J175" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="63.75">
       <c r="A176" s="23" t="str">
-        <f>D176&amp;F176</f>
+        <f t="shared" si="4"/>
         <v>NotEqualInt</v>
       </c>
       <c r="D176" s="16" t="s">
@@ -5629,10 +5709,16 @@
       <c r="F176" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I176" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="J176" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="63.75">
       <c r="A177" s="23" t="str">
-        <f>D177&amp;F177</f>
+        <f t="shared" si="4"/>
         <v>NotEqualLong</v>
       </c>
       <c r="D177" s="16" t="s">
@@ -5641,10 +5727,16 @@
       <c r="F177" s="16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I177" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J177" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="63.75">
       <c r="A178" s="23" t="str">
-        <f>D178&amp;F178</f>
+        <f t="shared" si="4"/>
         <v>NotEqualFloat</v>
       </c>
       <c r="D178" s="16" t="s">
@@ -5653,10 +5745,16 @@
       <c r="F178" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I178" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J178" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="63.75">
       <c r="A179" s="23" t="str">
-        <f>D179&amp;F179</f>
+        <f t="shared" si="4"/>
         <v>NotEqualDouble</v>
       </c>
       <c r="D179" s="16" t="s">
@@ -5665,10 +5763,16 @@
       <c r="F179" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I179" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J179" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="23" t="str">
-        <f>D180&amp;F180</f>
+        <f t="shared" si="4"/>
         <v>NotEqualString</v>
       </c>
       <c r="D180" s="16" t="s">
@@ -5678,9 +5782,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181" s="23" t="str">
-        <f>D181&amp;F181</f>
+        <f t="shared" si="4"/>
         <v>NotEqualObject</v>
       </c>
       <c r="D181" s="16" t="s">
@@ -5690,9 +5794,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182" s="23" t="str">
-        <f>D182&amp;F182</f>
+        <f t="shared" si="4"/>
         <v>NotEqualFunction</v>
       </c>
       <c r="D182" s="16" t="s">
@@ -5702,7 +5806,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterVoid</v>
@@ -5717,7 +5821,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="63.75">
       <c r="A184" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterBool</v>
@@ -5735,7 +5839,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="63.75">
       <c r="A185" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterByte</v>
@@ -5753,7 +5857,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="63.75">
       <c r="A186" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterInt</v>
@@ -5771,7 +5875,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="63.75">
       <c r="A187" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterLong</v>
@@ -5789,7 +5893,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="63.75">
       <c r="A188" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterFloat</v>
@@ -5807,7 +5911,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="63.75">
       <c r="A189" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterDouble</v>
@@ -5825,7 +5929,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterString</v>
@@ -5837,7 +5941,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterObject</v>
@@ -5849,7 +5953,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterFunction</v>
@@ -5861,9 +5965,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" s="23" t="str">
-        <f t="shared" ref="A193:A222" si="4">D193&amp;F193</f>
+        <f t="shared" ref="A193:A222" si="5">D193&amp;F193</f>
         <v>GreaterEqualVoid</v>
       </c>
       <c r="C193" s="16">
@@ -5876,9 +5980,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="63.75">
       <c r="A194" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualBool</v>
       </c>
       <c r="D194" s="16" t="s">
@@ -5887,10 +5991,16 @@
       <c r="F194" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I194" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J194" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="63.75">
       <c r="A195" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualByte</v>
       </c>
       <c r="D195" s="16" t="s">
@@ -5899,10 +6009,16 @@
       <c r="F195" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I195" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J195" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="63.75">
       <c r="A196" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualInt</v>
       </c>
       <c r="D196" s="16" t="s">
@@ -5911,10 +6027,16 @@
       <c r="F196" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I196" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="J196" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="63.75">
       <c r="A197" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualLong</v>
       </c>
       <c r="D197" s="16" t="s">
@@ -5923,10 +6045,16 @@
       <c r="F197" s="16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I197" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J197" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="63.75">
       <c r="A198" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualFloat</v>
       </c>
       <c r="D198" s="16" t="s">
@@ -5935,10 +6063,16 @@
       <c r="F198" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I198" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J198" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="63.75">
       <c r="A199" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualDouble</v>
       </c>
       <c r="D199" s="16" t="s">
@@ -5947,10 +6081,16 @@
       <c r="F199" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I199" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J199" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualString</v>
       </c>
       <c r="D200" s="16" t="s">
@@ -5960,9 +6100,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualObject</v>
       </c>
       <c r="D201" s="16" t="s">
@@ -5972,9 +6112,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GreaterEqualFunction</v>
       </c>
       <c r="D202" s="16" t="s">
@@ -5984,9 +6124,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessVoid</v>
       </c>
       <c r="C203" s="16">
@@ -5999,9 +6139,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="63.75">
       <c r="A204" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessBool</v>
       </c>
       <c r="D204" s="16" t="s">
@@ -6010,10 +6150,16 @@
       <c r="F204" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I204" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J204" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="63.75">
       <c r="A205" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessByte</v>
       </c>
       <c r="D205" s="16" t="s">
@@ -6022,10 +6168,16 @@
       <c r="F205" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I205" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J205" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="63.75">
       <c r="A206" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessInt</v>
       </c>
       <c r="D206" s="16" t="s">
@@ -6034,10 +6186,16 @@
       <c r="F206" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I206" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="J206" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="63.75">
       <c r="A207" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessLong</v>
       </c>
       <c r="D207" s="16" t="s">
@@ -6046,10 +6204,16 @@
       <c r="F207" s="16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I207" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J207" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="63.75">
       <c r="A208" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessFloat</v>
       </c>
       <c r="D208" s="16" t="s">
@@ -6058,10 +6222,16 @@
       <c r="F208" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I208" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J208" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="63.75">
       <c r="A209" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessDouble</v>
       </c>
       <c r="D209" s="16" t="s">
@@ -6070,10 +6240,16 @@
       <c r="F209" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I209" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J209" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessString</v>
       </c>
       <c r="D210" s="16" t="s">
@@ -6083,9 +6259,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10">
       <c r="A211" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessObject</v>
       </c>
       <c r="D211" s="16" t="s">
@@ -6095,9 +6271,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10">
       <c r="A212" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessFunction</v>
       </c>
       <c r="D212" s="16" t="s">
@@ -6107,9 +6283,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10">
       <c r="A213" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualVoid</v>
       </c>
       <c r="C213" s="16">
@@ -6122,9 +6298,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="63.75">
       <c r="A214" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualBool</v>
       </c>
       <c r="D214" s="16" t="s">
@@ -6133,10 +6309,16 @@
       <c r="F214" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I214" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J214" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="63.75">
       <c r="A215" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualByte</v>
       </c>
       <c r="D215" s="16" t="s">
@@ -6145,10 +6327,16 @@
       <c r="F215" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I215" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J215" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="63.75">
       <c r="A216" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualInt</v>
       </c>
       <c r="D216" s="16" t="s">
@@ -6157,10 +6345,16 @@
       <c r="F216" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I216" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="J216" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="63.75">
       <c r="A217" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualLong</v>
       </c>
       <c r="D217" s="16" t="s">
@@ -6169,10 +6363,16 @@
       <c r="F217" s="16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I217" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J217" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="63.75">
       <c r="A218" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualFloat</v>
       </c>
       <c r="D218" s="16" t="s">
@@ -6181,10 +6381,16 @@
       <c r="F218" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I218" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J218" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="63.75">
       <c r="A219" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualDouble</v>
       </c>
       <c r="D219" s="16" t="s">
@@ -6193,10 +6399,16 @@
       <c r="F219" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I219" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J219" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualString</v>
       </c>
       <c r="D220" s="16" t="s">
@@ -6206,9 +6418,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10">
       <c r="A221" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualObject</v>
       </c>
       <c r="D221" s="16" t="s">
@@ -6218,9 +6430,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10">
       <c r="A222" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LessEqualFunction</v>
       </c>
       <c r="D222" s="16" t="s">
@@ -6245,14 +6457,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
@@ -6260,7 +6472,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -6268,7 +6480,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -6276,7 +6488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
@@ -6284,7 +6496,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
@@ -6292,7 +6504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>153</v>
       </c>
@@ -6300,7 +6512,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -6308,7 +6520,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>155</v>
       </c>
@@ -6316,7 +6528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>156</v>
       </c>
@@ -6324,7 +6536,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -6332,7 +6544,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
@@ -6340,7 +6552,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
@@ -6348,7 +6560,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -6356,7 +6568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>161</v>
       </c>
@@ -6364,7 +6576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>162</v>
       </c>
@@ -6372,7 +6584,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
@@ -6380,7 +6592,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -6388,7 +6600,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>165</v>
       </c>
@@ -6411,14 +6623,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -6426,12 +6638,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>206</v>
       </c>
@@ -6439,7 +6651,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>207</v>
       </c>
@@ -6447,7 +6659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>211</v>
       </c>
@@ -6455,7 +6667,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>213</v>
       </c>
@@ -6463,7 +6675,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>215</v>
       </c>
@@ -6471,7 +6683,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>217</v>
       </c>
@@ -6479,7 +6691,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>219</v>
       </c>
@@ -6487,7 +6699,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>220</v>
       </c>
@@ -6495,7 +6707,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>208</v>
       </c>
@@ -6503,122 +6715,122 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="15" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="15" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="15" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="15" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="15" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>360</v>
       </c>
@@ -6638,14 +6850,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="16.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>186</v>
       </c>
@@ -6662,7 +6874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>203</v>
       </c>
@@ -6679,7 +6891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="7" t="s">
         <v>192</v>
       </c>
@@ -6696,7 +6908,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>187</v>
       </c>
@@ -6713,7 +6925,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>188</v>
       </c>
@@ -6730,7 +6942,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="7" t="s">
         <v>189</v>
       </c>
@@ -6747,7 +6959,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>190</v>
       </c>
@@ -6764,7 +6976,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>191</v>
       </c>
@@ -6781,7 +6993,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>193</v>
       </c>
@@ -6798,7 +7010,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="7" t="s">
         <v>194</v>
       </c>
@@ -6815,7 +7027,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="7" t="s">
         <v>195</v>
       </c>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="389">
   <si>
     <t>[ ]</t>
   </si>
@@ -1415,10 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#s.push(localVars[#p1]-&gt;clone());</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>localVars[#p1]=#s.top()-&gt;clone();
 #s.pop();</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1566,6 +1562,23 @@
 #val v1=#s.top();
 #s.pop();
 #s.push(#new(v1-&gt;#a1()&lt;v2-&gt;#a1()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#s.push(localVars[#p1]-&gt;clone());
+#s.pop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#s.push(localVars[#p1]-&gt;clone());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3033,13 +3046,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K222"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3122,16 +3135,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="K3" s="21"/>
     </row>
@@ -3141,7 +3154,7 @@
         <v>JumpFalse</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -3151,13 +3164,13 @@
         <v>False</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3186,7 +3199,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="23" t="str">
-        <f t="shared" ref="A6:A54" si="1">D6&amp;F6</f>
+        <f t="shared" ref="A6:A56" si="1">D6&amp;F6</f>
         <v>PushByte</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3417,7 +3430,7 @@
         <v>295</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3456,7 +3469,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="25.5">
       <c r="A19" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadLocal</v>
@@ -3474,7 +3487,7 @@
         <v>295</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3510,89 +3523,78 @@
     <row r="22" spans="1:10">
       <c r="A22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CopyLocal</v>
+      </c>
+      <c r="C22" s="16">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23" t="str">
+      <c r="D23" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="D24" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToVoid</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C25" s="16">
         <v>21</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5">
-      <c r="A24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToBool</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" s="16">
-        <v>2</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I24" s="14" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="25.5">
-      <c r="A25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToByte</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E25" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5">
       <c r="A26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToInt</v>
+        <v>VoidToBool</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E26" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>334</v>
+        <v>298</v>
+      </c>
+      <c r="I26" s="14" t="str">
+        <f>"false"</f>
+        <v>false</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>341</v>
@@ -3601,19 +3603,19 @@
     <row r="27" spans="1:10" ht="25.5">
       <c r="A27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToLong</v>
+        <v>VoidToByte</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E27" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>341</v>
@@ -3622,19 +3624,19 @@
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToFloat</v>
+        <v>VoidToInt</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E28" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>341</v>
@@ -3643,19 +3645,19 @@
     <row r="29" spans="1:10" ht="25.5">
       <c r="A29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToDouble</v>
+        <v>VoidToLong</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E29" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>341</v>
@@ -3664,418 +3666,424 @@
     <row r="30" spans="1:10" ht="25.5">
       <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToString</v>
+        <v>VoidToFloat</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E30" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToObject</v>
+        <v>VoidToDouble</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E31" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>303</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>VoidToFunction</v>
+        <v>VoidToString</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>307</v>
       </c>
       <c r="E32" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToVoid</v>
-      </c>
-      <c r="C33" s="16">
-        <v>22</v>
+        <v>VoidToObject</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="E33" s="16">
+        <v>9</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToBool</v>
+        <v>VoidToFunction</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="E34" s="16">
+        <v>10</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToByte</v>
+        <v>BoolToVoid</v>
+      </c>
+      <c r="C35" s="16">
+        <v>22</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToInt</v>
+        <v>BoolToBool</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToLong</v>
+        <v>BoolToByte</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToFloat</v>
+        <v>BoolToInt</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToDouble</v>
+        <v>BoolToLong</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToString</v>
+        <v>BoolToFloat</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToObject</v>
+        <v>BoolToDouble</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>BoolToFunction</v>
+        <v>BoolToString</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToVoid</v>
-      </c>
-      <c r="C43" s="16">
-        <v>23</v>
+        <v>BoolToObject</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToBool</v>
+        <v>BoolToFunction</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToByte</v>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="C45" s="16">
+        <v>23</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToInt</v>
+        <v>ByteToBool</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToLong</v>
+        <v>ByteToByte</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToFloat</v>
+        <v>ByteToInt</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToDouble</v>
+        <v>ByteToLong</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToString</v>
+        <v>ByteToFloat</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToObject</v>
+        <v>ByteToDouble</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>ByteToFunction</v>
+        <v>ByteToString</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>309</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToVoid</v>
-      </c>
-      <c r="C53" s="16">
-        <v>24</v>
+        <v>ByteToObject</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="38.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>IntToBool</v>
+        <v>ByteToFunction</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="38.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="23" t="str">
-        <f t="shared" ref="A55:A118" si="2">D55&amp;F55</f>
-        <v>IntToByte</v>
+        <f t="shared" si="1"/>
+        <v>IntToVoid</v>
+      </c>
+      <c r="C55" s="16">
+        <v>24</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F55" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="38.25">
+      <c r="A56" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToBool</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="38.25">
+      <c r="A57" s="23" t="str">
+        <f t="shared" ref="A57:A120" si="2">D57&amp;F57</f>
+        <v>IntToByte</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I57" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J57" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="23" t="str">
+    <row r="58" spans="1:10">
+      <c r="A58" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToInt</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="38.25">
-      <c r="A57" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToLong</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="38.25">
-      <c r="A58" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToFloat</v>
-      </c>
       <c r="D58" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="38.25">
       <c r="A59" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>IntToDouble</v>
+        <v>IntToLong</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J59" s="19" t="s">
         <v>345</v>
@@ -4084,265 +4092,265 @@
     <row r="60" spans="1:10" ht="38.25">
       <c r="A60" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>IntToString</v>
+        <v>IntToFloat</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>331</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="38.25">
       <c r="A61" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>IntToObject</v>
+        <v>IntToDouble</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>303</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="38.25">
       <c r="A62" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>IntToFunction</v>
+        <v>IntToString</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>310</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToVoid</v>
-      </c>
-      <c r="C63" s="16">
-        <v>25</v>
+        <v>IntToObject</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="38.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToBool</v>
+        <v>IntToFunction</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J64" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="38.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToByte</v>
+        <v>LongToVoid</v>
+      </c>
+      <c r="C65" s="16">
+        <v>25</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="38.25">
       <c r="A66" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToInt</v>
+        <v>LongToBool</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="38.25">
       <c r="A67" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToLong</v>
+        <v>LongToByte</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="38.25">
       <c r="A68" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToFloat</v>
+        <v>LongToInt</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J68" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="38.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToDouble</v>
+        <v>LongToLong</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="38.25">
       <c r="A70" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToString</v>
+        <v>LongToFloat</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="38.25">
       <c r="A71" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToObject</v>
+        <v>LongToDouble</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>LongToFunction</v>
+        <v>LongToString</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>311</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToVoid</v>
-      </c>
-      <c r="C73" s="16">
-        <v>26</v>
+        <v>LongToObject</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="38.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToBool</v>
+        <v>LongToFunction</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J74" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="38.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToByte</v>
+        <v>FloatToVoid</v>
+      </c>
+      <c r="C75" s="16">
+        <v>26</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="38.25">
       <c r="A76" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToInt</v>
+        <v>FloatToBool</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J76" s="19" t="s">
         <v>348</v>
@@ -4351,52 +4359,52 @@
     <row r="77" spans="1:10" ht="38.25">
       <c r="A77" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToLong</v>
+        <v>FloatToByte</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="38.25">
       <c r="A78" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToFloat</v>
+        <v>FloatToInt</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="38.25">
       <c r="A79" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToDouble</v>
+        <v>FloatToLong</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J79" s="19" t="s">
         <v>348</v>
@@ -4405,103 +4413,103 @@
     <row r="80" spans="1:10">
       <c r="A80" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToString</v>
+        <v>FloatToFloat</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="38.25">
       <c r="A81" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToObject</v>
+        <v>FloatToDouble</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FloatToFunction</v>
+        <v>FloatToString</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>312</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToVoid</v>
-      </c>
-      <c r="C83" s="16">
-        <v>27</v>
+        <v>FloatToObject</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="38.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToBool</v>
+        <v>FloatToFunction</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="38.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToByte</v>
+        <v>DoubleToVoid</v>
+      </c>
+      <c r="C85" s="16">
+        <v>27</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="38.25">
       <c r="A86" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToInt</v>
+        <v>DoubleToBool</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J86" s="19" t="s">
         <v>349</v>
@@ -4510,16 +4518,16 @@
     <row r="87" spans="1:10" ht="38.25">
       <c r="A87" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToLong</v>
+        <v>DoubleToByte</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J87" s="19" t="s">
         <v>349</v>
@@ -4528,1917 +4536,1953 @@
     <row r="88" spans="1:10" ht="38.25">
       <c r="A88" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToFloat</v>
+        <v>DoubleToInt</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="38.25">
       <c r="A89" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToDouble</v>
+        <v>DoubleToLong</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="38.25">
       <c r="A90" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToString</v>
+        <v>DoubleToFloat</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToObject</v>
+        <v>DoubleToDouble</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>DoubleToFunction</v>
+        <v>DoubleToString</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToVoid</v>
-      </c>
-      <c r="C93" s="16">
-        <v>28</v>
+        <v>DoubleToObject</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToBool</v>
+        <v>DoubleToFunction</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToByte</v>
+        <v>StringToVoid</v>
+      </c>
+      <c r="C95" s="16">
+        <v>28</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToInt</v>
+        <v>StringToBool</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToLong</v>
+        <v>StringToByte</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToFloat</v>
+        <v>StringToInt</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToDouble</v>
+        <v>StringToLong</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToString</v>
+        <v>StringToFloat</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToObject</v>
+        <v>StringToDouble</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>StringToFunction</v>
+        <v>StringToString</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>314</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToVoid</v>
-      </c>
-      <c r="C103" s="16">
-        <v>29</v>
+        <v>StringToObject</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToBool</v>
+        <v>StringToFunction</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToByte</v>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="C105" s="16">
+        <v>29</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToInt</v>
+        <v>ObjectToBool</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToLong</v>
+        <v>ObjectToByte</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToFloat</v>
+        <v>ObjectToInt</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToDouble</v>
+        <v>ObjectToLong</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToString</v>
+        <v>ObjectToFloat</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToObject</v>
+        <v>ObjectToDouble</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>ObjectToFunction</v>
+        <v>ObjectToString</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>315</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToVoid</v>
-      </c>
-      <c r="C113" s="16">
-        <v>30</v>
+        <v>ObjectToObject</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToBool</v>
+        <v>ObjectToFunction</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToByte</v>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="C115" s="16">
+        <v>30</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToInt</v>
+        <v>FunctionToBool</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToLong</v>
+        <v>FunctionToByte</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>FunctionToFloat</v>
+        <v>FunctionToInt</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="23" t="str">
-        <f t="shared" ref="A119:A192" si="3">D119&amp;F119</f>
-        <v>FunctionToDouble</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToLong</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>FunctionToString</v>
+        <f t="shared" si="2"/>
+        <v>FunctionToFloat</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>FunctionToObject</v>
+        <f t="shared" ref="A121:A194" si="3">D121&amp;F121</f>
+        <v>FunctionToDouble</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>FunctionToFunction</v>
+        <v>FunctionToString</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>316</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddVoid</v>
-      </c>
-      <c r="C123" s="16">
-        <v>41</v>
+        <v>FunctionToObject</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddBool</v>
+        <v>FunctionToFunction</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddByte</v>
+        <v>AddVoid</v>
+      </c>
+      <c r="C125" s="16">
+        <v>41</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="38.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddInt</v>
+        <v>AddBool</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I126" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="J126" s="19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="38.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddLong</v>
+        <v>AddByte</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I127" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="J127" s="19" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="38.25">
       <c r="A128" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddFloat</v>
+        <v>AddInt</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="38.25">
       <c r="A129" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddDouble</v>
+        <v>AddLong</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="38.25">
       <c r="A130" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddString</v>
+        <v>AddFloat</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I130" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J130" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" ht="38.25">
       <c r="A131" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddObject</v>
+        <v>AddDouble</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>303</v>
+      </c>
+      <c r="I131" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J131" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="38.25">
       <c r="A132" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>AddFunction</v>
+        <v>AddString</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="I132" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J132" s="19" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubVoid</v>
-      </c>
-      <c r="C133" s="16">
-        <v>42</v>
+        <v>AddObject</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubBool</v>
+        <v>AddFunction</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubByte</v>
+        <v>SubVoid</v>
+      </c>
+      <c r="C135" s="16">
+        <v>42</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubInt</v>
+        <v>SubBool</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubLong</v>
+        <v>SubByte</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubFloat</v>
+        <v>SubInt</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubDouble</v>
+        <v>SubLong</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubString</v>
+        <v>SubFloat</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubObject</v>
+        <v>SubDouble</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>SubFunction</v>
+        <v>SubString</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulVoid</v>
-      </c>
-      <c r="C143" s="16">
-        <v>43</v>
+        <v>SubObject</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulBool</v>
+        <v>SubFunction</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulByte</v>
+        <v>MulVoid</v>
+      </c>
+      <c r="C145" s="16">
+        <v>43</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulInt</v>
+        <v>MulBool</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulLong</v>
+        <v>MulByte</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulFloat</v>
+        <v>MulInt</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulDouble</v>
+        <v>MulLong</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulString</v>
+        <v>MulFloat</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulObject</v>
+        <v>MulDouble</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>MulFunction</v>
+        <v>MulString</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>322</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivVoid</v>
-      </c>
-      <c r="C153" s="16">
-        <v>44</v>
+        <v>MulObject</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivBool</v>
+        <v>MulFunction</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivByte</v>
+        <v>DivVoid</v>
+      </c>
+      <c r="C155" s="16">
+        <v>44</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivInt</v>
+        <v>DivBool</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivLong</v>
+        <v>DivByte</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivFloat</v>
+        <v>DivInt</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivDouble</v>
+        <v>DivLong</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivString</v>
+        <v>DivFloat</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivObject</v>
+        <v>DivDouble</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>DivFunction</v>
+        <v>DivString</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>323</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualVoid</v>
-      </c>
-      <c r="C163" s="16">
-        <v>51</v>
+        <v>DivObject</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="63.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualBool</v>
+        <v>DivFunction</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J164" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="63.75">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualByte</v>
+        <v>EqualVoid</v>
+      </c>
+      <c r="C165" s="16">
+        <v>51</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I165" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J165" s="19" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="63.75">
       <c r="A166" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualInt</v>
+        <v>EqualBool</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J166" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="63.75">
       <c r="A167" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualLong</v>
+        <v>EqualByte</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J167" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="63.75">
       <c r="A168" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualFloat</v>
+        <v>EqualInt</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J168" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="63.75">
       <c r="A169" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualDouble</v>
+        <v>EqualLong</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J169" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="63.75">
       <c r="A170" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualString</v>
+        <v>EqualFloat</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I170" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J170" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="63.75">
       <c r="A171" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualObject</v>
+        <v>EqualDouble</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I171" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J171" s="19" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>EqualFunction</v>
+        <v>EqualString</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="23" t="str">
-        <f t="shared" ref="A173:A182" si="4">D173&amp;F173</f>
+        <f t="shared" si="3"/>
+        <v>EqualObject</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>EqualFunction</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="23" t="str">
+        <f t="shared" ref="A175:A184" si="4">D175&amp;F175</f>
         <v>NotEqualVoid</v>
       </c>
-      <c r="C173" s="16">
+      <c r="C175" s="16">
         <v>52</v>
       </c>
-      <c r="D173" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F173" s="16" t="s">
+      <c r="D175" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" s="16" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="63.75">
-      <c r="A174" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualBool</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F174" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I174" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J174" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="63.75">
-      <c r="A175" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualByte</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F175" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I175" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J175" s="19" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="63.75">
       <c r="A176" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualInt</v>
+        <v>NotEqualBool</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="63.75">
       <c r="A177" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualLong</v>
+        <v>NotEqualByte</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J177" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="63.75">
       <c r="A178" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualFloat</v>
+        <v>NotEqualInt</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J178" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="63.75">
       <c r="A179" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualDouble</v>
+        <v>NotEqualLong</v>
       </c>
       <c r="D179" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I179" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="F179" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I179" s="14" t="s">
-        <v>379</v>
-      </c>
       <c r="J179" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="63.75">
       <c r="A180" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualString</v>
+        <v>NotEqualFloat</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I180" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J180" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="63.75">
       <c r="A181" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualObject</v>
+        <v>NotEqualDouble</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J181" s="19" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>NotEqualFunction</v>
+        <v>NotEqualString</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>NotEqualObject</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>NotEqualFunction</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterVoid</v>
       </c>
-      <c r="C183" s="16">
+      <c r="C185" s="16">
         <v>53</v>
       </c>
-      <c r="D183" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F183" s="16" t="s">
+      <c r="D185" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F185" s="16" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="63.75">
-      <c r="A184" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterBool</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I184" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J184" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="63.75">
-      <c r="A185" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterByte</v>
-      </c>
-      <c r="D185" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I185" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J185" s="19" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="63.75">
       <c r="A186" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterInt</v>
+        <v>GreaterBool</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I186" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J186" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="J186" s="19" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63.75">
       <c r="A187" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterLong</v>
+        <v>GreaterByte</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J187" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="63.75">
       <c r="A188" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterFloat</v>
+        <v>GreaterInt</v>
       </c>
       <c r="D188" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I188" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F188" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="I188" s="14" t="s">
-        <v>378</v>
-      </c>
       <c r="J188" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="63.75">
       <c r="A189" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterDouble</v>
+        <v>GreaterLong</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I189" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J189" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="63.75">
       <c r="A190" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterString</v>
+        <v>GreaterFloat</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I190" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J190" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="63.75">
       <c r="A191" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterObject</v>
+        <v>GreaterDouble</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J191" s="19" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>GreaterFunction</v>
+        <v>GreaterString</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="23" t="str">
-        <f t="shared" ref="A193:A222" si="5">D193&amp;F193</f>
+        <f t="shared" si="3"/>
+        <v>GreaterObject</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>GreaterFunction</v>
+      </c>
+      <c r="D194" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="23" t="str">
+        <f t="shared" ref="A195:A224" si="5">D195&amp;F195</f>
         <v>GreaterEqualVoid</v>
       </c>
-      <c r="C193" s="16">
+      <c r="C195" s="16">
         <v>54</v>
       </c>
-      <c r="D193" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F193" s="16" t="s">
+      <c r="D195" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F195" s="16" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="63.75">
-      <c r="A194" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualBool</v>
-      </c>
-      <c r="D194" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I194" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J194" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="63.75">
-      <c r="A195" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualByte</v>
-      </c>
-      <c r="D195" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F195" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I195" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J195" s="19" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="63.75">
       <c r="A196" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualInt</v>
+        <v>GreaterEqualBool</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I196" s="14" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J196" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="63.75">
       <c r="A197" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualLong</v>
+        <v>GreaterEqualByte</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I197" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J197" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="63.75">
       <c r="A198" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualFloat</v>
+        <v>GreaterEqualInt</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I198" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J198" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="63.75">
       <c r="A199" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualDouble</v>
+        <v>GreaterEqualLong</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J199" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="63.75">
       <c r="A200" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualString</v>
+        <v>GreaterEqualFloat</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F200" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I200" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J200" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="63.75">
       <c r="A201" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualObject</v>
+        <v>GreaterEqualDouble</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I201" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J201" s="19" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>GreaterEqualFunction</v>
+        <v>GreaterEqualString</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessVoid</v>
-      </c>
-      <c r="C203" s="16">
-        <v>55</v>
+        <v>GreaterEqualObject</v>
       </c>
       <c r="D203" s="16" t="s">
         <v>373</v>
       </c>
       <c r="F203" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="63.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessBool</v>
+        <v>GreaterEqualFunction</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>373</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I204" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J204" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="63.75">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessByte</v>
+        <v>LessVoid</v>
+      </c>
+      <c r="C205" s="16">
+        <v>55</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I205" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J205" s="19" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="63.75">
       <c r="A206" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessInt</v>
+        <v>LessBool</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J206" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="63.75">
       <c r="A207" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessLong</v>
+        <v>LessByte</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F207" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J207" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="63.75">
       <c r="A208" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessFloat</v>
+        <v>LessInt</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F208" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I208" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J208" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="63.75">
       <c r="A209" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessDouble</v>
+        <v>LessLong</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F209" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J209" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="63.75">
       <c r="A210" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessString</v>
+        <v>LessFloat</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I210" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J210" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="63.75">
       <c r="A211" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessObject</v>
+        <v>LessDouble</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I211" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J211" s="19" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessFunction</v>
+        <v>LessString</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualVoid</v>
-      </c>
-      <c r="C213" s="16">
-        <v>56</v>
+        <v>LessObject</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="63.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualBool</v>
+        <v>LessFunction</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I214" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J214" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="63.75">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualByte</v>
+        <v>LessEqualVoid</v>
+      </c>
+      <c r="C215" s="16">
+        <v>56</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I215" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J215" s="19" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="63.75">
       <c r="A216" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualInt</v>
+        <v>LessEqualBool</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I216" s="14" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J216" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="63.75">
       <c r="A217" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualLong</v>
+        <v>LessEqualByte</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F217" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I217" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J217" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="63.75">
       <c r="A218" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualFloat</v>
+        <v>LessEqualInt</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I218" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J218" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="63.75">
       <c r="A219" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualDouble</v>
+        <v>LessEqualLong</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F219" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I219" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J219" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="63.75">
       <c r="A220" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualString</v>
+        <v>LessEqualFloat</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F220" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="I220" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J220" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="63.75">
       <c r="A221" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>LessEqualObject</v>
+        <v>LessEqualDouble</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F221" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="I221" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J221" s="19" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="23" t="str">
         <f t="shared" si="5"/>
+        <v>LessEqualString</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F222" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>LessEqualObject</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F223" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="23" t="str">
+        <f t="shared" si="5"/>
         <v>LessEqualFunction</v>
       </c>
-      <c r="D222" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F222" s="16" t="s">
+      <c r="D224" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F224" s="16" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6757,12 +6801,12 @@
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
@@ -6832,7 +6876,7 @@
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="17160" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TokenType" sheetId="7" r:id="rId4"/>
     <sheet name="ValueType" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1415,11 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localVars[#p1]=#s.top()-&gt;clone();
-#s.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>std::string
 strVal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1573,20 +1568,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#s.push(localVars[#p1]-&gt;clone());
+    <t>#s.push(localVars[#p1]-&gt;clone());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localVars[#p1]=#s.top()-&gt;clone();
 #s.pop();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#s.push(localVars[#p1]-&gt;clone());</t>
+    <t>localVars[#p1]=#s.top()-&gt;clone();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2110,7 +2109,7 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -2123,7 +2122,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>6</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -2639,7 +2638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>13</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>14</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>14</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>14</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>14</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>14</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>14</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>15</v>
       </c>
@@ -3049,13 +3048,13 @@
   <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="16" customWidth="1"/>
@@ -3070,7 +3069,7 @@
     <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>280</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
         <f t="shared" ref="A2:A4" si="0">D2&amp;F2</f>
         <v>Nop</v>
@@ -3126,7 +3125,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Jump</v>
@@ -3135,26 +3134,26 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>363</v>
-      </c>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25">
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>JumpFalse</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -3164,16 +3163,16 @@
         <v>False</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
         <f>D5&amp;F5</f>
         <v>PushBool</v>
@@ -3197,7 +3196,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f t="shared" ref="A6:A56" si="1">D6&amp;F6</f>
         <v>PushByte</v>
@@ -3218,7 +3217,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushInt</v>
@@ -3239,7 +3238,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushLong</v>
@@ -3260,7 +3259,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushFloat</v>
@@ -3281,7 +3280,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushDouble</v>
@@ -3302,7 +3301,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushString</v>
@@ -3323,7 +3322,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Pop</v>
@@ -3338,7 +3337,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PopTo</v>
@@ -3353,7 +3352,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="25.5">
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f>D14&amp;F14</f>
         <v>CallStatic</v>
@@ -3384,7 +3383,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25.5">
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f t="shared" si="1"/>
         <v>CallVirtual</v>
@@ -3409,7 +3408,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.5">
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetLocal</v>
@@ -3430,10 +3429,10 @@
         <v>295</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetField</v>
@@ -3451,7 +3450,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetStatic</v>
@@ -3469,7 +3468,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadLocal</v>
@@ -3487,10 +3486,10 @@
         <v>295</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadField</v>
@@ -3505,7 +3504,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadStatic</v>
@@ -3520,7 +3519,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f t="shared" si="1"/>
         <v>CopyLocal</v>
@@ -3529,35 +3528,35 @@
         <v>10</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>291</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D23" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToVoid</v>
@@ -3578,7 +3577,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToBool</v>
@@ -3600,7 +3599,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToByte</v>
@@ -3621,7 +3620,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToInt</v>
@@ -3642,7 +3641,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25.5">
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToLong</v>
@@ -3663,7 +3662,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25.5">
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFloat</v>
@@ -3684,7 +3683,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToDouble</v>
@@ -3705,7 +3704,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToString</v>
@@ -3726,7 +3725,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToObject</v>
@@ -3741,7 +3740,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFunction</v>
@@ -3756,7 +3755,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToVoid</v>
@@ -3771,7 +3770,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToBool</v>
@@ -3783,7 +3782,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToByte</v>
@@ -3795,7 +3794,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToInt</v>
@@ -3807,7 +3806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToLong</v>
@@ -3819,7 +3818,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToFloat</v>
@@ -3831,7 +3830,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToDouble</v>
@@ -3843,7 +3842,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToString</v>
@@ -3855,7 +3854,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToObject</v>
@@ -3867,7 +3866,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToFunction</v>
@@ -3879,7 +3878,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToVoid</v>
@@ -3894,7 +3893,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToBool</v>
@@ -3906,7 +3905,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToByte</v>
@@ -3918,7 +3917,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToInt</v>
@@ -3930,7 +3929,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToLong</v>
@@ -3942,7 +3941,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToFloat</v>
@@ -3954,7 +3953,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToDouble</v>
@@ -3966,7 +3965,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToString</v>
@@ -3978,7 +3977,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToObject</v>
@@ -3990,7 +3989,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToFunction</v>
@@ -4002,7 +4001,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToVoid</v>
@@ -4017,7 +4016,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="38.25">
+    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToBool</v>
@@ -4035,7 +4034,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="38.25">
+    <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
         <f t="shared" ref="A57:A120" si="2">D57&amp;F57</f>
         <v>IntToByte</v>
@@ -4053,7 +4052,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToInt</v>
@@ -4071,7 +4070,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="38.25">
+    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToLong</v>
@@ -4089,7 +4088,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="38.25">
+    <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToFloat</v>
@@ -4107,7 +4106,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="38.25">
+    <row r="61" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToDouble</v>
@@ -4125,7 +4124,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="38.25">
+    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToString</v>
@@ -4140,7 +4139,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToObject</v>
@@ -4152,7 +4151,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToFunction</v>
@@ -4164,7 +4163,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToVoid</v>
@@ -4179,7 +4178,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="38.25">
+    <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToBool</v>
@@ -4194,10 +4193,10 @@
         <v>327</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="38.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToByte</v>
@@ -4215,7 +4214,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="38.25">
+    <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToInt</v>
@@ -4233,7 +4232,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToLong</v>
@@ -4251,7 +4250,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="38.25">
+    <row r="70" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToFloat</v>
@@ -4269,7 +4268,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="38.25">
+    <row r="71" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToDouble</v>
@@ -4287,7 +4286,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToString</v>
@@ -4299,7 +4298,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToObject</v>
@@ -4311,7 +4310,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToFunction</v>
@@ -4323,7 +4322,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToVoid</v>
@@ -4338,7 +4337,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="38.25">
+    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToBool</v>
@@ -4356,7 +4355,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="38.25">
+    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToByte</v>
@@ -4374,7 +4373,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="38.25">
+    <row r="78" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToInt</v>
@@ -4392,7 +4391,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="38.25">
+    <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToLong</v>
@@ -4410,7 +4409,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToFloat</v>
@@ -4428,7 +4427,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="38.25">
+    <row r="81" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToDouble</v>
@@ -4446,7 +4445,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToString</v>
@@ -4458,7 +4457,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToObject</v>
@@ -4470,7 +4469,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToFunction</v>
@@ -4482,7 +4481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToVoid</v>
@@ -4497,7 +4496,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="38.25">
+    <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToBool</v>
@@ -4515,7 +4514,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="38.25">
+    <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToByte</v>
@@ -4533,7 +4532,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="38.25">
+    <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToInt</v>
@@ -4551,7 +4550,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="38.25">
+    <row r="89" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToLong</v>
@@ -4569,7 +4568,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="38.25">
+    <row r="90" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToFloat</v>
@@ -4587,7 +4586,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToDouble</v>
@@ -4605,7 +4604,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToString</v>
@@ -4617,7 +4616,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToObject</v>
@@ -4629,7 +4628,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToFunction</v>
@@ -4641,7 +4640,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToVoid</v>
@@ -4656,7 +4655,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToBool</v>
@@ -4668,7 +4667,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToByte</v>
@@ -4680,7 +4679,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToInt</v>
@@ -4692,7 +4691,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToLong</v>
@@ -4704,7 +4703,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToFloat</v>
@@ -4716,7 +4715,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToDouble</v>
@@ -4728,7 +4727,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToString</v>
@@ -4740,7 +4739,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToObject</v>
@@ -4752,7 +4751,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToFunction</v>
@@ -4764,7 +4763,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToVoid</v>
@@ -4779,7 +4778,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToBool</v>
@@ -4791,7 +4790,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToByte</v>
@@ -4803,7 +4802,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToInt</v>
@@ -4815,7 +4814,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToLong</v>
@@ -4827,7 +4826,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToFloat</v>
@@ -4839,7 +4838,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToDouble</v>
@@ -4851,7 +4850,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToString</v>
@@ -4863,7 +4862,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToObject</v>
@@ -4875,7 +4874,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToFunction</v>
@@ -4887,7 +4886,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToVoid</v>
@@ -4902,7 +4901,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToBool</v>
@@ -4914,7 +4913,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToByte</v>
@@ -4926,7 +4925,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToInt</v>
@@ -4938,7 +4937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToLong</v>
@@ -4950,7 +4949,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToFloat</v>
@@ -4962,7 +4961,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="str">
         <f t="shared" ref="A121:A194" si="3">D121&amp;F121</f>
         <v>FunctionToDouble</v>
@@ -4974,7 +4973,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToString</v>
@@ -4986,7 +4985,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToObject</v>
@@ -4998,7 +4997,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToFunction</v>
@@ -5010,7 +5009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddVoid</v>
@@ -5025,7 +5024,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddBool</v>
@@ -5037,7 +5036,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddByte</v>
@@ -5049,7 +5048,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="38.25">
+    <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddInt</v>
@@ -5064,10 +5063,10 @@
         <v>351</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="38.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddLong</v>
@@ -5082,10 +5081,10 @@
         <v>352</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="38.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddFloat</v>
@@ -5100,10 +5099,10 @@
         <v>353</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="38.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddDouble</v>
@@ -5118,10 +5117,10 @@
         <v>354</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="38.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddString</v>
@@ -5133,13 +5132,13 @@
         <v>304</v>
       </c>
       <c r="I132" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J132" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="J132" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddObject</v>
@@ -5151,7 +5150,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddFunction</v>
@@ -5163,7 +5162,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubVoid</v>
@@ -5178,7 +5177,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubBool</v>
@@ -5190,7 +5189,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubByte</v>
@@ -5202,7 +5201,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubInt</v>
@@ -5214,7 +5213,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubLong</v>
@@ -5226,7 +5225,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFloat</v>
@@ -5238,7 +5237,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubDouble</v>
@@ -5250,7 +5249,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubString</v>
@@ -5262,7 +5261,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubObject</v>
@@ -5274,7 +5273,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFunction</v>
@@ -5286,7 +5285,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulVoid</v>
@@ -5301,7 +5300,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulBool</v>
@@ -5313,7 +5312,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulByte</v>
@@ -5325,7 +5324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulInt</v>
@@ -5337,7 +5336,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulLong</v>
@@ -5349,7 +5348,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFloat</v>
@@ -5361,7 +5360,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulDouble</v>
@@ -5373,7 +5372,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulString</v>
@@ -5385,7 +5384,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulObject</v>
@@ -5397,7 +5396,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFunction</v>
@@ -5409,7 +5408,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivVoid</v>
@@ -5424,7 +5423,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivBool</v>
@@ -5436,7 +5435,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivByte</v>
@@ -5448,7 +5447,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivInt</v>
@@ -5460,7 +5459,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivLong</v>
@@ -5472,7 +5471,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivFloat</v>
@@ -5484,7 +5483,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivDouble</v>
@@ -5496,7 +5495,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivString</v>
@@ -5508,7 +5507,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivObject</v>
@@ -5520,7 +5519,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivFunction</v>
@@ -5532,7 +5531,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualVoid</v>
@@ -5541,157 +5540,157 @@
         <v>51</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="63.75">
+    <row r="166" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualBool</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>298</v>
       </c>
       <c r="I166" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J166" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="J166" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="63.75">
+    </row>
+    <row r="167" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualByte</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>299</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J167" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="63.75">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualInt</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F168" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J168" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="63.75">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualLong</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F169" s="16" t="s">
         <v>301</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J169" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="63.75">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualFloat</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F170" s="16" t="s">
         <v>302</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="63.75">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualDouble</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F171" s="16" t="s">
         <v>303</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J171" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualString</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F172" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualObject</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F173" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualFunction</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F174" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="str">
         <f t="shared" ref="A175:A184" si="4">D175&amp;F175</f>
         <v>NotEqualVoid</v>
@@ -5700,157 +5699,157 @@
         <v>52</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F175" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="63.75">
+    <row r="176" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualBool</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F176" s="16" t="s">
         <v>298</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="63.75">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualByte</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F177" s="16" t="s">
         <v>299</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J177" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="63.75">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A178" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualInt</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F178" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J178" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="63.75">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A179" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualLong</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F179" s="16" t="s">
         <v>301</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="63.75">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A180" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualFloat</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F180" s="16" t="s">
         <v>302</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J180" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="63.75">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualDouble</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F181" s="16" t="s">
         <v>303</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J181" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualString</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualObject</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F183" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualFunction</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterVoid</v>
@@ -5859,157 +5858,157 @@
         <v>53</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F185" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="63.75">
+    <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterBool</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>298</v>
       </c>
       <c r="I186" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J186" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="63.75">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterByte</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F187" s="16" t="s">
         <v>299</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J187" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="63.75">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterInt</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F188" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I188" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="J188" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="J188" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="63.75">
+    </row>
+    <row r="189" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterLong</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F189" s="16" t="s">
         <v>301</v>
       </c>
       <c r="I189" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J189" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="63.75">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterFloat</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>302</v>
       </c>
       <c r="I190" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J190" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="63.75">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A191" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterDouble</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F191" s="16" t="s">
         <v>303</v>
       </c>
       <c r="I191" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J191" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterString</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F192" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterObject</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F193" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterFunction</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F194" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="str">
         <f t="shared" ref="A195:A224" si="5">D195&amp;F195</f>
         <v>GreaterEqualVoid</v>
@@ -6018,157 +6017,157 @@
         <v>54</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F195" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="63.75">
+    <row r="196" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A196" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualBool</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>298</v>
       </c>
       <c r="I196" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J196" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="63.75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A197" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualByte</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F197" s="16" t="s">
         <v>299</v>
       </c>
       <c r="I197" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J197" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="63.75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A198" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualInt</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F198" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I198" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J198" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="63.75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A199" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualLong</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F199" s="16" t="s">
         <v>301</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J199" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="63.75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A200" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualFloat</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F200" s="16" t="s">
         <v>302</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J200" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="63.75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualDouble</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F201" s="16" t="s">
         <v>303</v>
       </c>
       <c r="I201" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J201" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualString</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F202" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualObject</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F203" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualFunction</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F204" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessVoid</v>
@@ -6177,157 +6176,157 @@
         <v>55</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F205" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="63.75">
+    <row r="206" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessBool</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F206" s="16" t="s">
         <v>298</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J206" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessByte</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F207" s="16" t="s">
         <v>299</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J207" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessInt</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I208" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J208" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessLong</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F209" s="16" t="s">
         <v>301</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J209" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessFloat</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F210" s="16" t="s">
         <v>302</v>
       </c>
       <c r="I210" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J210" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessDouble</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F211" s="16" t="s">
         <v>303</v>
       </c>
       <c r="I211" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J211" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessString</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F212" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessObject</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F213" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessFunction</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualVoid</v>
@@ -6336,151 +6335,151 @@
         <v>56</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F215" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="63.75">
+    <row r="216" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualBool</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F216" s="16" t="s">
         <v>298</v>
       </c>
       <c r="I216" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J216" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A217" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualByte</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F217" s="16" t="s">
         <v>299</v>
       </c>
       <c r="I217" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J217" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A218" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualInt</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F218" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I218" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J218" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A219" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualLong</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F219" s="16" t="s">
         <v>301</v>
       </c>
       <c r="I219" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J219" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A220" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualFloat</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F220" s="16" t="s">
         <v>302</v>
       </c>
       <c r="I220" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J220" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="63.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A221" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualDouble</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F221" s="16" t="s">
         <v>303</v>
       </c>
       <c r="I221" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J221" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualString</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F222" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualObject</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F223" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualFunction</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F224" s="16" t="s">
         <v>306</v>
@@ -6501,14 +6500,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
@@ -6540,7 +6539,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>153</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>155</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>156</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>161</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>162</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>165</v>
       </c>
@@ -6667,14 +6666,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -6682,12 +6681,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>206</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>207</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>211</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>213</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>215</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>217</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>219</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>220</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>208</v>
       </c>
@@ -6759,124 +6758,124 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1">
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1">
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1">
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6894,14 +6893,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="16.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>186</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>203</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>192</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>187</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>188</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>189</v>
       </c>
@@ -7003,7 +7002,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>190</v>
       </c>
@@ -7020,7 +7019,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>191</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>193</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>194</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>195</v>
       </c>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="17160" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="387">
   <si>
     <t>[ ]</t>
   </si>
@@ -706,19 +706,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Colon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2105,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3047,11 +3039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3071,34 +3063,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>185</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>184</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>198</v>
@@ -3116,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3134,16 +3126,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K3" s="21"/>
     </row>
@@ -3153,7 +3145,7 @@
         <v>JumpFalse</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -3163,13 +3155,13 @@
         <v>False</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3187,13 +3179,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3208,13 +3200,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3229,13 +3221,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3250,13 +3242,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3271,13 +3263,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3292,13 +3284,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3316,10 +3308,10 @@
         <v>193</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3334,7 +3326,7 @@
         <v>197</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3349,7 +3341,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -3361,26 +3353,26 @@
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -3389,23 +3381,23 @@
         <v>CallVirtual</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E15" s="16">
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="I15" s="25"/>
       <c r="K15" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -3417,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3438,16 +3430,16 @@
         <v>SetField</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E17" s="16">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3456,16 +3448,16 @@
         <v>SetStatic</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E18" s="16">
         <v>3</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3477,16 +3469,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -3495,13 +3487,13 @@
         <v>LoadField</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3510,13 +3502,13 @@
         <v>LoadStatic</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3528,32 +3520,32 @@
         <v>10</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D23" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3565,16 +3557,16 @@
         <v>21</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E25" s="16">
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3583,20 +3575,20 @@
         <v>VoidToBool</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3605,19 +3597,19 @@
         <v>VoidToByte</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E27" s="16">
         <v>3</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3626,19 +3618,19 @@
         <v>VoidToInt</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E28" s="16">
         <v>4</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3647,19 +3639,19 @@
         <v>VoidToLong</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E29" s="16">
         <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3668,19 +3660,19 @@
         <v>VoidToFloat</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E30" s="16">
         <v>6</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3689,19 +3681,19 @@
         <v>VoidToDouble</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E31" s="16">
         <v>7</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3710,19 +3702,19 @@
         <v>VoidToString</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E32" s="16">
         <v>8</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3731,13 +3723,13 @@
         <v>VoidToObject</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E33" s="16">
         <v>9</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3746,13 +3738,13 @@
         <v>VoidToFunction</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E34" s="16">
         <v>10</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3764,10 +3756,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3776,10 +3768,10 @@
         <v>BoolToBool</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,10 +3780,10 @@
         <v>BoolToByte</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3800,10 +3792,10 @@
         <v>BoolToInt</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3812,10 +3804,10 @@
         <v>BoolToLong</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3824,10 +3816,10 @@
         <v>BoolToFloat</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3836,10 +3828,10 @@
         <v>BoolToDouble</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3848,10 +3840,10 @@
         <v>BoolToString</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3860,10 +3852,10 @@
         <v>BoolToObject</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,10 +3864,10 @@
         <v>BoolToFunction</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3887,10 +3879,10 @@
         <v>23</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3899,10 +3891,10 @@
         <v>ByteToBool</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3911,10 +3903,10 @@
         <v>ByteToByte</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3923,10 +3915,10 @@
         <v>ByteToInt</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3935,10 +3927,10 @@
         <v>ByteToLong</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3947,10 +3939,10 @@
         <v>ByteToFloat</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3959,10 +3951,10 @@
         <v>ByteToDouble</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3971,10 +3963,10 @@
         <v>ByteToString</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3983,10 +3975,10 @@
         <v>ByteToObject</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3995,10 +3987,10 @@
         <v>ByteToFunction</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -4010,10 +4002,10 @@
         <v>24</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4022,16 +4014,16 @@
         <v>IntToBool</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4040,16 +4032,16 @@
         <v>IntToByte</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4058,16 +4050,16 @@
         <v>IntToInt</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4076,16 +4068,16 @@
         <v>IntToLong</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4094,16 +4086,16 @@
         <v>IntToFloat</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4112,16 +4104,16 @@
         <v>IntToDouble</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4130,13 +4122,13 @@
         <v>IntToString</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -4145,10 +4137,10 @@
         <v>IntToObject</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -4157,10 +4149,10 @@
         <v>IntToFunction</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4172,10 +4164,10 @@
         <v>25</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4184,16 +4176,16 @@
         <v>LongToBool</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4202,16 +4194,16 @@
         <v>LongToByte</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4220,16 +4212,16 @@
         <v>LongToInt</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4238,16 +4230,16 @@
         <v>LongToLong</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4256,16 +4248,16 @@
         <v>LongToFloat</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4274,16 +4266,16 @@
         <v>LongToDouble</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -4292,10 +4284,10 @@
         <v>LongToString</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4304,10 +4296,10 @@
         <v>LongToObject</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4316,10 +4308,10 @@
         <v>LongToFunction</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4331,10 +4323,10 @@
         <v>26</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4343,16 +4335,16 @@
         <v>FloatToBool</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4361,16 +4353,16 @@
         <v>FloatToByte</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4379,16 +4371,16 @@
         <v>FloatToInt</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4397,16 +4389,16 @@
         <v>FloatToLong</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4415,16 +4407,16 @@
         <v>FloatToFloat</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4433,16 +4425,16 @@
         <v>FloatToDouble</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -4451,10 +4443,10 @@
         <v>FloatToString</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4463,10 +4455,10 @@
         <v>FloatToObject</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -4475,10 +4467,10 @@
         <v>FloatToFunction</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4490,10 +4482,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4502,16 +4494,16 @@
         <v>DoubleToBool</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4520,16 +4512,16 @@
         <v>DoubleToByte</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4538,16 +4530,16 @@
         <v>DoubleToInt</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4556,16 +4548,16 @@
         <v>DoubleToLong</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4574,16 +4566,16 @@
         <v>DoubleToFloat</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -4592,16 +4584,16 @@
         <v>DoubleToDouble</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -4610,10 +4602,10 @@
         <v>DoubleToString</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -4622,10 +4614,10 @@
         <v>DoubleToObject</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4634,10 +4626,10 @@
         <v>DoubleToFunction</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4649,10 +4641,10 @@
         <v>28</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4661,10 +4653,10 @@
         <v>StringToBool</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4673,10 +4665,10 @@
         <v>StringToByte</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,10 +4677,10 @@
         <v>StringToInt</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,10 +4689,10 @@
         <v>StringToLong</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4709,10 +4701,10 @@
         <v>StringToFloat</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4721,10 +4713,10 @@
         <v>StringToDouble</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4733,10 +4725,10 @@
         <v>StringToString</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4745,10 +4737,10 @@
         <v>StringToObject</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,10 +4749,10 @@
         <v>StringToFunction</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4772,10 +4764,10 @@
         <v>29</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4784,10 +4776,10 @@
         <v>ObjectToBool</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4796,10 +4788,10 @@
         <v>ObjectToByte</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4808,10 +4800,10 @@
         <v>ObjectToInt</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4820,10 +4812,10 @@
         <v>ObjectToLong</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,10 +4824,10 @@
         <v>ObjectToFloat</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4844,10 +4836,10 @@
         <v>ObjectToDouble</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4856,10 +4848,10 @@
         <v>ObjectToString</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -4868,10 +4860,10 @@
         <v>ObjectToObject</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -4880,10 +4872,10 @@
         <v>ObjectToFunction</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -4895,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -4907,10 +4899,10 @@
         <v>FunctionToBool</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -4919,10 +4911,10 @@
         <v>FunctionToByte</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -4931,10 +4923,10 @@
         <v>FunctionToInt</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -4943,10 +4935,10 @@
         <v>FunctionToLong</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -4955,10 +4947,10 @@
         <v>FunctionToFloat</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -4967,10 +4959,10 @@
         <v>FunctionToDouble</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -4979,10 +4971,10 @@
         <v>FunctionToString</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -4991,10 +4983,10 @@
         <v>FunctionToObject</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -5003,10 +4995,10 @@
         <v>FunctionToFunction</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -5018,10 +5010,10 @@
         <v>41</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -5030,10 +5022,10 @@
         <v>AddBool</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -5042,10 +5034,10 @@
         <v>AddByte</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5054,16 +5046,16 @@
         <v>AddInt</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5072,16 +5064,16 @@
         <v>AddLong</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5090,16 +5082,16 @@
         <v>AddFloat</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I130" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5108,16 +5100,16 @@
         <v>AddDouble</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I131" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5126,16 +5118,16 @@
         <v>AddString</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I132" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -5144,10 +5136,10 @@
         <v>AddObject</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -5156,10 +5148,10 @@
         <v>AddFunction</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -5171,10 +5163,10 @@
         <v>42</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -5183,10 +5175,10 @@
         <v>SubBool</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -5195,10 +5187,10 @@
         <v>SubByte</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -5207,10 +5199,10 @@
         <v>SubInt</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -5219,10 +5211,10 @@
         <v>SubLong</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -5231,10 +5223,10 @@
         <v>SubFloat</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -5243,10 +5235,10 @@
         <v>SubDouble</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -5255,10 +5247,10 @@
         <v>SubString</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -5267,10 +5259,10 @@
         <v>SubObject</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -5279,10 +5271,10 @@
         <v>SubFunction</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5294,10 +5286,10 @@
         <v>43</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5306,10 +5298,10 @@
         <v>MulBool</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5318,10 +5310,10 @@
         <v>MulByte</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5330,10 +5322,10 @@
         <v>MulInt</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5342,10 +5334,10 @@
         <v>MulLong</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5354,10 +5346,10 @@
         <v>MulFloat</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5366,10 +5358,10 @@
         <v>MulDouble</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5378,10 +5370,10 @@
         <v>MulString</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5390,10 +5382,10 @@
         <v>MulObject</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5402,10 +5394,10 @@
         <v>MulFunction</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,10 +5409,10 @@
         <v>44</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5429,10 +5421,10 @@
         <v>DivBool</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5441,10 +5433,10 @@
         <v>DivByte</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5453,10 +5445,10 @@
         <v>DivInt</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5465,10 +5457,10 @@
         <v>DivLong</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5477,10 +5469,10 @@
         <v>DivFloat</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -5489,10 +5481,10 @@
         <v>DivDouble</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -5501,10 +5493,10 @@
         <v>DivString</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -5513,10 +5505,10 @@
         <v>DivObject</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -5525,10 +5517,10 @@
         <v>DivFunction</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -5540,10 +5532,10 @@
         <v>51</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5552,16 +5544,16 @@
         <v>EqualBool</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J166" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5570,16 +5562,16 @@
         <v>EqualByte</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I167" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="J167" s="19" t="s">
         <v>378</v>
-      </c>
-      <c r="J167" s="19" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5588,16 +5580,16 @@
         <v>EqualInt</v>
       </c>
       <c r="D168" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I168" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="F168" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>369</v>
-      </c>
       <c r="J168" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5606,16 +5598,16 @@
         <v>EqualLong</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J169" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5624,16 +5616,16 @@
         <v>EqualFloat</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5642,16 +5634,16 @@
         <v>EqualDouble</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J171" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -5660,10 +5652,10 @@
         <v>EqualString</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -5672,10 +5664,10 @@
         <v>EqualObject</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -5684,10 +5676,10 @@
         <v>EqualFunction</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -5699,10 +5691,10 @@
         <v>52</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5711,16 +5703,16 @@
         <v>NotEqualBool</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I176" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J176" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="J176" s="19" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5729,16 +5721,16 @@
         <v>NotEqualByte</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J177" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5747,16 +5739,16 @@
         <v>NotEqualInt</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J178" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5765,16 +5757,16 @@
         <v>NotEqualLong</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5783,16 +5775,16 @@
         <v>NotEqualFloat</v>
       </c>
       <c r="D180" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I180" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="F180" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="I180" s="14" t="s">
-        <v>376</v>
-      </c>
       <c r="J180" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5801,16 +5793,16 @@
         <v>NotEqualDouble</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J181" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -5819,10 +5811,10 @@
         <v>NotEqualString</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -5831,10 +5823,10 @@
         <v>NotEqualObject</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -5843,10 +5835,10 @@
         <v>NotEqualFunction</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -5858,10 +5850,10 @@
         <v>53</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5870,16 +5862,16 @@
         <v>GreaterBool</v>
       </c>
       <c r="D186" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="I186" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J186" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F186" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I186" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="J186" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5888,16 +5880,16 @@
         <v>GreaterByte</v>
       </c>
       <c r="D187" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="J187" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F187" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I187" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5906,16 +5898,16 @@
         <v>GreaterInt</v>
       </c>
       <c r="D188" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I188" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="J188" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F188" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I188" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="J188" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5924,16 +5916,16 @@
         <v>GreaterLong</v>
       </c>
       <c r="D189" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I189" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="J189" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F189" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I189" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="J189" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5942,16 +5934,16 @@
         <v>GreaterFloat</v>
       </c>
       <c r="D190" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I190" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="J190" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F190" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="I190" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="J190" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5960,16 +5952,16 @@
         <v>GreaterDouble</v>
       </c>
       <c r="D191" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="J191" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F191" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I191" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="J191" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -5978,10 +5970,10 @@
         <v>GreaterString</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -5990,10 +5982,10 @@
         <v>GreaterObject</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -6002,10 +5994,10 @@
         <v>GreaterFunction</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -6017,10 +6009,10 @@
         <v>54</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6029,16 +6021,16 @@
         <v>GreaterEqualBool</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I196" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J196" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6047,16 +6039,16 @@
         <v>GreaterEqualByte</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I197" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J197" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6065,16 +6057,16 @@
         <v>GreaterEqualInt</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I198" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J198" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6083,16 +6075,16 @@
         <v>GreaterEqualLong</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J199" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6101,16 +6093,16 @@
         <v>GreaterEqualFloat</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F200" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J200" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6119,16 +6111,16 @@
         <v>GreaterEqualDouble</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I201" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J201" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -6137,10 +6129,10 @@
         <v>GreaterEqualString</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -6149,10 +6141,10 @@
         <v>GreaterEqualObject</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F203" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -6161,10 +6153,10 @@
         <v>GreaterEqualFunction</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -6176,10 +6168,10 @@
         <v>55</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6188,16 +6180,16 @@
         <v>LessBool</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J206" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6206,16 +6198,16 @@
         <v>LessByte</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F207" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J207" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6224,16 +6216,16 @@
         <v>LessInt</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F208" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I208" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J208" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6242,16 +6234,16 @@
         <v>LessLong</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F209" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J209" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6260,16 +6252,16 @@
         <v>LessFloat</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I210" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J210" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6278,16 +6270,16 @@
         <v>LessDouble</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I211" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J211" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -6296,10 +6288,10 @@
         <v>LessString</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -6308,10 +6300,10 @@
         <v>LessObject</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -6320,10 +6312,10 @@
         <v>LessFunction</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -6335,10 +6327,10 @@
         <v>56</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6347,16 +6339,16 @@
         <v>LessEqualBool</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I216" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J216" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6365,16 +6357,16 @@
         <v>LessEqualByte</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F217" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I217" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J217" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6383,16 +6375,16 @@
         <v>LessEqualInt</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I218" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J218" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6401,16 +6393,16 @@
         <v>LessEqualLong</v>
       </c>
       <c r="D219" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I219" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="F219" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I219" s="14" t="s">
-        <v>375</v>
-      </c>
       <c r="J219" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6419,16 +6411,16 @@
         <v>LessEqualFloat</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F220" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I220" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J220" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6437,16 +6429,16 @@
         <v>LessEqualDouble</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F221" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I221" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J221" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
@@ -6455,10 +6447,10 @@
         <v>LessEqualString</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F222" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
@@ -6467,10 +6459,10 @@
         <v>LessEqualObject</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F223" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
@@ -6479,10 +6471,10 @@
         <v>LessEqualFunction</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6660,10 +6652,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6678,7 +6670,7 @@
         <v>204</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6691,12 +6683,12 @@
         <v>206</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>210</v>
@@ -6731,151 +6723,143 @@
         <v>217</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6905,10 +6889,10 @@
         <v>186</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>199</v>
@@ -6922,7 +6906,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -6931,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6939,7 +6923,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -6948,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6956,7 +6940,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -6965,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6973,7 +6957,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -6982,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6990,7 +6974,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -6999,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7007,7 +6991,7 @@
         <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -7016,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7024,7 +7008,7 @@
         <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -7033,7 +7017,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7041,7 +7025,7 @@
         <v>193</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -7050,7 +7034,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7058,7 +7042,7 @@
         <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -7067,7 +7051,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7075,7 +7059,7 @@
         <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -7084,7 +7068,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="3"/>
+    <workbookView xWindow="19305" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="386">
   <si>
     <t>[ ]</t>
   </si>
@@ -1134,11 +1134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2,true);
-this-&gt;run(fun);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>什么也不做，一般是优化后产生的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1331,245 +1326,228 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#s.push(MKPTR(FayValue)(#p1));</t>
-  </si>
-  <si>
     <t>#s.pop();</t>
   </si>
   <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionVars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//DoNothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t
+intVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64_t
+longVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float
+floatVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double
+doubleVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::string
+strVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=#p1-1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前值为False的时候再进行跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreaterEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LessEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byteVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldIndex:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#s.push(FayValue(#p1));</t>
+  </si>
+  <si>
     <t>#s.pop();
-#s.push(MKPTR(FayValue)(#a1));</t>
-  </si>
-  <si>
-    <t>Params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionVars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(FayValue(#a1));</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-#s.push(#new((#a1)v-&gt;intVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+if(!v.boolVal()) i=#p1-1;</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-#s.push(#new((#a1)v-&gt;longVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new((#a1)v.intVal()));</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-#s.push(#new(std::to_string(v-&gt;intVal())));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new(std::to_string(v.intVal())));</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-#s.push(#new((#a1)v-&gt;floatVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new((#a1)v.longVal()));</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-#s.push(#new((#a1)v-&gt;doubleVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//DoNothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32_t
-intVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64_t
-longVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float
-floatVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double
-doubleVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std::string
-strVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new((#a1)v.floatVal()));</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-(*#s.top()-&gt;#a2())+=*v-&gt;#a2();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#a1 v=#s.top()-&gt;#a2();
+#s.push(#new((#a1)v.doubleVal()));</t>
+  </si>
+  <si>
+    <t>localVars[#p1]=#s.top();
+#s.pop();</t>
+  </si>
+  <si>
+    <t>#s.push(localVars[#p1]);</t>
+  </si>
+  <si>
+    <t>localVars[#p1]=#s.top();</t>
+  </si>
+  <si>
+    <t>#a1 v=#s.top().#a2();
 #s.pop();
-#s.top()-&gt;val()-&gt;#a2+=v;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i=#p1-1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前值为False的时候再进行跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.top().val()-&gt;#a2+=v;</t>
   </si>
   <si>
     <t>#val v=#s.top();
 #s.pop();
-#s.push(#new((#a1)v-&gt;longVal()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#val v=#s.top();
-#s.pop();
-if(!v-&gt;boolVal()) i=#p1-1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(*#s.top().#a2())+=*v.#a2();</t>
   </si>
   <si>
     <t>#val v2=#s.top();
 #s.pop();
 #val v1=#s.top();
 #s.pop();
-#s.push(#new(v1-&gt;#a1()&gt;v2-&gt;#a1()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Less</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreaterEqual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LessEqual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotEqual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floatVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doubleVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byteVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new(v1.#a1()==v2.#a1()));</t>
   </si>
   <si>
     <t>#val v2=#s.top();
 #s.pop();
 #val v1=#s.top();
 #s.pop();
-#s.push(#new(v1-&gt;#a1()==v2-&gt;#a1()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new(v1.#a1()!=v2.#a1()));</t>
   </si>
   <si>
     <t>#val v2=#s.top();
 #s.pop();
 #val v1=#s.top();
 #s.pop();
-#s.push(#new(v1-&gt;#a1()!=v2-&gt;#a1()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new(v1.#a1()&gt;v2.#a1()));</t>
   </si>
   <si>
     <t>#val v2=#s.top();
 #s.pop();
 #val v1=#s.top();
 #s.pop();
-#s.push(#new(v1-&gt;#a1()&gt;=v2-&gt;#a1()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+#s.push(#new(v1.#a1()&gt;=v2.#a1()));</t>
   </si>
   <si>
     <t>#val v2=#s.top();
 #s.pop();
 #val v1=#s.top();
 #s.pop();
-#s.push(#new(v1-&gt;#a1()&lt;v2-&gt;#a1()));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fieldIndex:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#s.push(localVars[#p1]-&gt;clone());</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localVars[#p1]=#s.top()-&gt;clone();
-#s.pop();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localVars[#p1]=#s.top()-&gt;clone();</t>
+#s.push(#new(v1.#a1()&lt;v2.#a1()));</t>
+  </si>
+  <si>
+    <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2,true);
+this-&gt;run(fun);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3039,11 +3017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3081,13 +3059,13 @@
         <v>184</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>279</v>
@@ -3108,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3126,16 +3104,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K3" s="21"/>
     </row>
@@ -3145,7 +3123,7 @@
         <v>JumpFalse</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -3155,13 +3133,13 @@
         <v>False</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3185,7 +3163,7 @@
         <v>273</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3206,7 +3184,7 @@
         <v>268</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3227,7 +3205,7 @@
         <v>269</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3248,7 +3226,7 @@
         <v>270</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3269,7 +3247,7 @@
         <v>271</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3290,7 +3268,7 @@
         <v>272</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3311,7 +3289,7 @@
         <v>274</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3326,7 +3304,7 @@
         <v>197</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3362,14 +3340,14 @@
         <v>242</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>266</v>
@@ -3390,10 +3368,10 @@
         <v>265</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15" s="25"/>
       <c r="K15" s="21" t="s">
@@ -3409,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3430,16 +3408,16 @@
         <v>SetField</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="16">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3448,16 +3426,16 @@
         <v>SetStatic</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" s="16">
         <v>3</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3469,16 +3447,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>293</v>
-      </c>
       <c r="J19" s="19" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -3487,13 +3465,13 @@
         <v>LoadField</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3502,13 +3480,13 @@
         <v>LoadStatic</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3520,32 +3498,32 @@
         <v>10</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D23" s="16" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="16" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3557,16 +3535,16 @@
         <v>21</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E25" s="16">
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3575,20 +3553,20 @@
         <v>VoidToBool</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3597,19 +3575,19 @@
         <v>VoidToByte</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E27" s="16">
         <v>3</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3618,19 +3596,19 @@
         <v>VoidToInt</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E28" s="16">
         <v>4</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3639,19 +3617,19 @@
         <v>VoidToLong</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="16">
         <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3660,19 +3638,19 @@
         <v>VoidToFloat</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30" s="16">
         <v>6</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3681,19 +3659,19 @@
         <v>VoidToDouble</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="16">
         <v>7</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -3702,19 +3680,19 @@
         <v>VoidToString</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="16">
         <v>8</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3723,13 +3701,13 @@
         <v>VoidToObject</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E33" s="16">
         <v>9</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,13 +3716,13 @@
         <v>VoidToFunction</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E34" s="16">
         <v>10</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,10 +3734,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3768,10 +3746,10 @@
         <v>BoolToBool</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3780,10 +3758,10 @@
         <v>BoolToByte</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3792,10 +3770,10 @@
         <v>BoolToInt</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,10 +3782,10 @@
         <v>BoolToLong</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3816,10 +3794,10 @@
         <v>BoolToFloat</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3828,10 +3806,10 @@
         <v>BoolToDouble</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3840,10 +3818,10 @@
         <v>BoolToString</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,10 +3830,10 @@
         <v>BoolToObject</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3864,10 +3842,10 @@
         <v>BoolToFunction</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3879,10 +3857,10 @@
         <v>23</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3891,10 +3869,10 @@
         <v>ByteToBool</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,10 +3881,10 @@
         <v>ByteToByte</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3915,10 +3893,10 @@
         <v>ByteToInt</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3927,10 +3905,10 @@
         <v>ByteToLong</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3939,10 +3917,10 @@
         <v>ByteToFloat</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3951,10 +3929,10 @@
         <v>ByteToDouble</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3963,10 +3941,10 @@
         <v>ByteToString</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3975,10 +3953,10 @@
         <v>ByteToObject</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3987,10 +3965,10 @@
         <v>ByteToFunction</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -4002,10 +3980,10 @@
         <v>24</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4014,16 +3992,16 @@
         <v>IntToBool</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4032,16 +4010,16 @@
         <v>IntToByte</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4050,16 +4028,16 @@
         <v>IntToInt</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4068,16 +4046,16 @@
         <v>IntToLong</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4086,16 +4064,16 @@
         <v>IntToFloat</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4104,16 +4082,16 @@
         <v>IntToDouble</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4122,13 +4100,13 @@
         <v>IntToString</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -4137,10 +4115,10 @@
         <v>IntToObject</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -4149,10 +4127,10 @@
         <v>IntToFunction</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4164,10 +4142,10 @@
         <v>25</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4176,16 +4154,16 @@
         <v>LongToBool</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4194,16 +4172,16 @@
         <v>LongToByte</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4212,16 +4190,16 @@
         <v>LongToInt</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4230,16 +4208,16 @@
         <v>LongToLong</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4248,16 +4226,16 @@
         <v>LongToFloat</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4266,16 +4244,16 @@
         <v>LongToDouble</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -4284,10 +4262,10 @@
         <v>LongToString</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4296,10 +4274,10 @@
         <v>LongToObject</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4308,10 +4286,10 @@
         <v>LongToFunction</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4323,10 +4301,10 @@
         <v>26</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4335,16 +4313,16 @@
         <v>FloatToBool</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4353,16 +4331,16 @@
         <v>FloatToByte</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4371,16 +4349,16 @@
         <v>FloatToInt</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4389,16 +4367,16 @@
         <v>FloatToLong</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4407,16 +4385,16 @@
         <v>FloatToFloat</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4425,16 +4403,16 @@
         <v>FloatToDouble</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -4443,10 +4421,10 @@
         <v>FloatToString</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4455,10 +4433,10 @@
         <v>FloatToObject</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -4467,10 +4445,10 @@
         <v>FloatToFunction</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4482,10 +4460,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4494,16 +4472,16 @@
         <v>DoubleToBool</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4512,16 +4490,16 @@
         <v>DoubleToByte</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4530,16 +4508,16 @@
         <v>DoubleToInt</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4548,16 +4526,16 @@
         <v>DoubleToLong</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -4566,16 +4544,16 @@
         <v>DoubleToFloat</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -4584,16 +4562,16 @@
         <v>DoubleToDouble</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -4602,10 +4580,10 @@
         <v>DoubleToString</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -4614,10 +4592,10 @@
         <v>DoubleToObject</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4626,10 +4604,10 @@
         <v>DoubleToFunction</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4641,10 +4619,10 @@
         <v>28</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4653,10 +4631,10 @@
         <v>StringToBool</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4665,10 +4643,10 @@
         <v>StringToByte</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4677,10 +4655,10 @@
         <v>StringToInt</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4689,10 +4667,10 @@
         <v>StringToLong</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4701,10 +4679,10 @@
         <v>StringToFloat</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4713,10 +4691,10 @@
         <v>StringToDouble</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4725,10 +4703,10 @@
         <v>StringToString</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,10 +4715,10 @@
         <v>StringToObject</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4749,10 +4727,10 @@
         <v>StringToFunction</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4764,10 +4742,10 @@
         <v>29</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4776,10 +4754,10 @@
         <v>ObjectToBool</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,10 +4766,10 @@
         <v>ObjectToByte</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4800,10 +4778,10 @@
         <v>ObjectToInt</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4812,10 +4790,10 @@
         <v>ObjectToLong</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4824,10 +4802,10 @@
         <v>ObjectToFloat</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4836,10 +4814,10 @@
         <v>ObjectToDouble</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4848,10 +4826,10 @@
         <v>ObjectToString</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -4860,10 +4838,10 @@
         <v>ObjectToObject</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -4872,10 +4850,10 @@
         <v>ObjectToFunction</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -4887,10 +4865,10 @@
         <v>30</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -4899,10 +4877,10 @@
         <v>FunctionToBool</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -4911,10 +4889,10 @@
         <v>FunctionToByte</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -4923,10 +4901,10 @@
         <v>FunctionToInt</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -4935,10 +4913,10 @@
         <v>FunctionToLong</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -4947,10 +4925,10 @@
         <v>FunctionToFloat</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -4959,10 +4937,10 @@
         <v>FunctionToDouble</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -4971,10 +4949,10 @@
         <v>FunctionToString</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -4983,10 +4961,10 @@
         <v>FunctionToObject</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -4995,10 +4973,10 @@
         <v>FunctionToFunction</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -5010,10 +4988,10 @@
         <v>41</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -5022,10 +5000,10 @@
         <v>AddBool</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -5034,10 +5012,10 @@
         <v>AddByte</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5046,16 +5024,16 @@
         <v>AddInt</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J128" s="19" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5064,16 +5042,16 @@
         <v>AddLong</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5082,16 +5060,16 @@
         <v>AddFloat</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I130" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5100,16 +5078,16 @@
         <v>AddDouble</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I131" s="25" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
@@ -5118,16 +5096,16 @@
         <v>AddString</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I132" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -5136,10 +5114,10 @@
         <v>AddObject</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -5148,10 +5126,10 @@
         <v>AddFunction</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -5163,10 +5141,10 @@
         <v>42</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -5175,10 +5153,10 @@
         <v>SubBool</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -5187,10 +5165,10 @@
         <v>SubByte</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -5199,10 +5177,10 @@
         <v>SubInt</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -5211,10 +5189,10 @@
         <v>SubLong</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -5223,10 +5201,10 @@
         <v>SubFloat</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -5235,10 +5213,10 @@
         <v>SubDouble</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -5247,10 +5225,10 @@
         <v>SubString</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -5259,10 +5237,10 @@
         <v>SubObject</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -5271,10 +5249,10 @@
         <v>SubFunction</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5286,10 +5264,10 @@
         <v>43</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5298,10 +5276,10 @@
         <v>MulBool</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,10 +5288,10 @@
         <v>MulByte</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5322,10 +5300,10 @@
         <v>MulInt</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5334,10 +5312,10 @@
         <v>MulLong</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5346,10 +5324,10 @@
         <v>MulFloat</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5358,10 +5336,10 @@
         <v>MulDouble</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5370,10 +5348,10 @@
         <v>MulString</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5382,10 +5360,10 @@
         <v>MulObject</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5394,10 +5372,10 @@
         <v>MulFunction</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5409,10 +5387,10 @@
         <v>44</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5421,10 +5399,10 @@
         <v>DivBool</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5433,10 +5411,10 @@
         <v>DivByte</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5445,10 +5423,10 @@
         <v>DivInt</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5457,10 +5435,10 @@
         <v>DivLong</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5469,10 +5447,10 @@
         <v>DivFloat</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -5481,10 +5459,10 @@
         <v>DivDouble</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -5493,10 +5471,10 @@
         <v>DivString</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -5505,10 +5483,10 @@
         <v>DivObject</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -5517,10 +5495,10 @@
         <v>DivFunction</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -5532,10 +5510,10 @@
         <v>51</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5544,16 +5522,16 @@
         <v>EqualBool</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J166" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5562,16 +5540,16 @@
         <v>EqualByte</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J167" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5580,16 +5558,16 @@
         <v>EqualInt</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J168" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5598,16 +5576,16 @@
         <v>EqualLong</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J169" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5616,16 +5594,16 @@
         <v>EqualFloat</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5634,16 +5612,16 @@
         <v>EqualDouble</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J171" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -5652,10 +5630,10 @@
         <v>EqualString</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -5664,10 +5642,10 @@
         <v>EqualObject</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -5676,10 +5654,10 @@
         <v>EqualFunction</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -5691,10 +5669,10 @@
         <v>52</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5703,16 +5681,16 @@
         <v>NotEqualBool</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5721,16 +5699,16 @@
         <v>NotEqualByte</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J177" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5739,16 +5717,16 @@
         <v>NotEqualInt</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J178" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5757,16 +5735,16 @@
         <v>NotEqualLong</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5775,16 +5753,16 @@
         <v>NotEqualFloat</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J180" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5793,16 +5771,16 @@
         <v>NotEqualDouble</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J181" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -5811,10 +5789,10 @@
         <v>NotEqualString</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -5823,10 +5801,10 @@
         <v>NotEqualObject</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -5835,10 +5813,10 @@
         <v>NotEqualFunction</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -5850,10 +5828,10 @@
         <v>53</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5862,16 +5840,16 @@
         <v>GreaterBool</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I186" s="14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J186" s="19" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5880,16 +5858,16 @@
         <v>GreaterByte</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J187" s="19" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5898,16 +5876,16 @@
         <v>GreaterInt</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I188" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J188" s="19" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5916,16 +5894,16 @@
         <v>GreaterLong</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I189" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J189" s="19" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5934,16 +5912,16 @@
         <v>GreaterFloat</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I190" s="14" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J190" s="19" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -5952,16 +5930,16 @@
         <v>GreaterDouble</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I191" s="14" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J191" s="19" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -5970,10 +5948,10 @@
         <v>GreaterString</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -5982,10 +5960,10 @@
         <v>GreaterObject</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -5994,10 +5972,10 @@
         <v>GreaterFunction</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -6009,10 +5987,10 @@
         <v>54</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6021,16 +5999,16 @@
         <v>GreaterEqualBool</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I196" s="14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J196" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6039,16 +6017,16 @@
         <v>GreaterEqualByte</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I197" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J197" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6057,16 +6035,16 @@
         <v>GreaterEqualInt</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I198" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J198" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6075,16 +6053,16 @@
         <v>GreaterEqualLong</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J199" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6093,16 +6071,16 @@
         <v>GreaterEqualFloat</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F200" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J200" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6111,16 +6089,16 @@
         <v>GreaterEqualDouble</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I201" s="14" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J201" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -6129,10 +6107,10 @@
         <v>GreaterEqualString</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -6141,10 +6119,10 @@
         <v>GreaterEqualObject</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F203" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -6153,10 +6131,10 @@
         <v>GreaterEqualFunction</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -6168,10 +6146,10 @@
         <v>55</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6180,16 +6158,16 @@
         <v>LessBool</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J206" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6198,16 +6176,16 @@
         <v>LessByte</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F207" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J207" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6216,16 +6194,16 @@
         <v>LessInt</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F208" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I208" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J208" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6234,16 +6212,16 @@
         <v>LessLong</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F209" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J209" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6252,16 +6230,16 @@
         <v>LessFloat</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I210" s="14" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J210" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6270,16 +6248,16 @@
         <v>LessDouble</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I211" s="14" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J211" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -6288,10 +6266,10 @@
         <v>LessString</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -6300,10 +6278,10 @@
         <v>LessObject</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -6312,10 +6290,10 @@
         <v>LessFunction</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -6327,10 +6305,10 @@
         <v>56</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6339,16 +6317,16 @@
         <v>LessEqualBool</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I216" s="14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J216" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6357,16 +6335,16 @@
         <v>LessEqualByte</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F217" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I217" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J217" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6375,16 +6353,16 @@
         <v>LessEqualInt</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I218" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J218" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6393,16 +6371,16 @@
         <v>LessEqualLong</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F219" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I219" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J219" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6411,16 +6389,16 @@
         <v>LessEqualFloat</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F220" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I220" s="14" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J220" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -6429,16 +6407,16 @@
         <v>LessEqualDouble</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F221" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I221" s="14" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J221" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
@@ -6447,10 +6425,10 @@
         <v>LessEqualString</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F222" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
@@ -6459,10 +6437,10 @@
         <v>LessEqualObject</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F223" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
@@ -6471,10 +6449,10 @@
         <v>LessEqualFunction</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6654,7 +6632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6784,12 +6762,12 @@
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6859,7 +6837,7 @@
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6940,7 +6918,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -1547,7 +1547,7 @@
   </si>
   <si>
     <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2,true);
-this-&gt;run(fun);</t>
+this-&gt;_run(fun);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3021,7 +3021,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="388">
   <si>
     <t>[ ]</t>
   </si>
@@ -859,10 +859,6 @@
   </si>
   <si>
     <t>Value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1548,6 +1544,18 @@
   <si>
     <t>PTR(FayFun) fun=this-&gt;_domain-&gt;findFun(#v1,#v2,true);
 this-&gt;_run(fun);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出当前函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=insts-&gt;size();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3015,3444 +3023,3458 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K224"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="16" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.75" style="14" customWidth="1"/>
-    <col min="10" max="10" width="59" style="19" customWidth="1"/>
-    <col min="11" max="11" width="71" style="20" customWidth="1"/>
-    <col min="12" max="13" width="11.25" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="12"/>
+    <col min="2" max="2" width="10.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="16" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="59" style="19" customWidth="1"/>
+    <col min="10" max="10" width="71" style="20" customWidth="1"/>
+    <col min="11" max="12" width="11.25" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
-        <f t="shared" ref="A2:A4" si="0">D2&amp;F2</f>
+        <f t="shared" ref="A2:A5" si="0">C2&amp;E2</f>
         <v>Nop</v>
       </c>
-      <c r="C2" s="16">
+      <c r="B2" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I2" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Jump</v>
       </c>
-      <c r="C3" s="16">
+      <c r="B3" s="16">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="C3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>JumpFalse</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="E4" s="16" t="str">
         <f>"False"</f>
         <v>False</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
-        <f>D5&amp;F5</f>
+        <f t="shared" si="0"/>
+        <v>Return</v>
+      </c>
+      <c r="B5" s="16">
+        <v>11</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="str">
+        <f>C6&amp;E6</f>
         <v>PushBool</v>
       </c>
-      <c r="C5" s="16">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="16">
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="str">
+        <f t="shared" ref="A7:A57" si="1">C7&amp;E7</f>
+        <v>PushByte</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="str">
-        <f t="shared" ref="A6:A56" si="1">D6&amp;F6</f>
-        <v>PushByte</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="16">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="str">
+      <c r="F7" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushInt</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="16">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="str">
+      <c r="E8" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushLong</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="16">
+      <c r="D9" s="16">
         <v>5</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="str">
+      <c r="E9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushFloat</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="16">
+      <c r="D10" s="16">
         <v>6</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="str">
+      <c r="E10" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushDouble</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="16">
+      <c r="D11" s="16">
         <v>7</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="str">
+      <c r="E11" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PushString</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="16">
+      <c r="D12" s="16">
         <v>8</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="str">
+      <c r="F12" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Pop</v>
       </c>
-      <c r="C12" s="16">
+      <c r="B13" s="16">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="str">
+      <c r="I13" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>PopTo</v>
       </c>
-      <c r="C13" s="16">
+      <c r="B14" s="16">
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="str">
-        <f>D14&amp;F14</f>
+      <c r="F14" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="str">
+        <f>C15&amp;E15</f>
         <v>CallStatic</v>
       </c>
-      <c r="C14" s="16">
+      <c r="B15" s="16">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="16">
+      <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="str">
+      <c r="F15" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="str">
         <f t="shared" si="1"/>
         <v>CallVirtual</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="16">
+      <c r="D16" s="16">
         <v>3</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="K15" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
+      <c r="E16" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="J16" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetLocal</v>
       </c>
-      <c r="C16" s="16">
+      <c r="B17" s="16">
         <v>8</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="C17" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="str">
+      <c r="F17" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetField</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="C18" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="str">
+      <c r="E18" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="str">
         <f t="shared" si="1"/>
         <v>SetStatic</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="C19" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="str">
+      <c r="E19" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadLocal</v>
       </c>
-      <c r="C19" s="16">
+      <c r="B20" s="16">
         <v>9</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="C20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="str">
+      <c r="I20" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadField</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
+      <c r="C21" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="str">
         <f t="shared" si="1"/>
         <v>LoadStatic</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="str">
+      <c r="E22" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
         <f t="shared" si="1"/>
         <v>CopyLocal</v>
       </c>
-      <c r="C22" s="16">
+      <c r="B23" s="16">
         <v>10</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="C23" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="I23" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="F23" s="16" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="str">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToVoid</v>
       </c>
-      <c r="C25" s="16">
+      <c r="B26" s="16">
         <v>21</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="C26" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="16">
         <v>1</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="str">
+      <c r="E26" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToBool</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="C27" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="16">
         <v>2</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I26" s="14" t="str">
+      <c r="E27" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="J26" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="str">
+      <c r="I27" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToByte</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="C28" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="16">
         <v>3</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="str">
+      <c r="E28" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToInt</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="C29" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="16">
         <v>4</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="str">
+      <c r="E29" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToLong</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="C30" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="16">
         <v>5</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="str">
+      <c r="E30" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFloat</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="C31" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" s="16">
         <v>6</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="str">
+      <c r="E31" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToDouble</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="C32" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="16">
         <v>7</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="str">
+      <c r="E32" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToString</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="C33" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="16">
         <v>8</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
+      <c r="E33" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToObject</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E33" s="16">
+      <c r="C34" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="16">
         <v>9</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="str">
+      <c r="E34" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFunction</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E34" s="16">
+      <c r="C35" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="16">
         <v>10</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="str">
+      <c r="E35" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToVoid</v>
       </c>
-      <c r="C35" s="16">
+      <c r="B36" s="16">
         <v>22</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="str">
+      <c r="C36" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToBool</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="str">
+      <c r="C37" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToByte</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="str">
+      <c r="C38" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToInt</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="str">
+      <c r="C39" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToLong</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="str">
+      <c r="C40" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToFloat</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="str">
+      <c r="C41" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToDouble</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="str">
+      <c r="C42" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToString</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="str">
+      <c r="C43" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToObject</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="str">
+      <c r="C44" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="str">
         <f t="shared" si="1"/>
         <v>BoolToFunction</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="str">
+      <c r="C45" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToVoid</v>
       </c>
-      <c r="C45" s="16">
+      <c r="B46" s="16">
         <v>23</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="str">
+      <c r="C46" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToBool</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="str">
+      <c r="C47" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToByte</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="str">
+      <c r="C48" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToInt</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="str">
+      <c r="C49" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToLong</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="str">
+      <c r="C50" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToFloat</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="str">
+      <c r="C51" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToDouble</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="str">
+      <c r="C52" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToString</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="str">
+      <c r="C53" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToObject</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="str">
+      <c r="C54" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="str">
         <f t="shared" si="1"/>
         <v>ByteToFunction</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="str">
+      <c r="C55" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToVoid</v>
       </c>
-      <c r="C55" s="16">
+      <c r="B56" s="16">
         <v>24</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="str">
+      <c r="C56" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="str">
         <f t="shared" si="1"/>
         <v>IntToBool</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="C57" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="str">
+        <f t="shared" ref="A58:A121" si="2">C58&amp;E58</f>
+        <v>IntToByte</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="H58" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="str">
-        <f t="shared" ref="A57:A120" si="2">D57&amp;F57</f>
-        <v>IntToByte</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="str">
+      <c r="I58" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToInt</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="str">
+      <c r="C59" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToLong</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="str">
+      <c r="C60" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToFloat</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="str">
+      <c r="C61" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToDouble</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="str">
+      <c r="C62" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToString</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="str">
+      <c r="C63" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToObject</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="str">
+      <c r="C64" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="str">
         <f t="shared" si="2"/>
         <v>IntToFunction</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="str">
+      <c r="C65" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToVoid</v>
       </c>
-      <c r="C65" s="16">
+      <c r="B66" s="16">
         <v>25</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="str">
+      <c r="C66" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToBool</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="str">
+      <c r="C67" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToByte</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="str">
+      <c r="C68" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToInt</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="str">
+      <c r="C69" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToLong</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="str">
+      <c r="C70" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToFloat</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="str">
+      <c r="C71" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToDouble</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="str">
+      <c r="C72" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToString</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="str">
+      <c r="C73" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToObject</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="str">
+      <c r="C74" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="str">
         <f t="shared" si="2"/>
         <v>LongToFunction</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="str">
+      <c r="C75" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToVoid</v>
       </c>
-      <c r="C75" s="16">
+      <c r="B76" s="16">
         <v>26</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="str">
+      <c r="C76" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToBool</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="str">
+      <c r="C77" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToByte</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="str">
+      <c r="C78" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToInt</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="str">
+      <c r="C79" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToLong</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="str">
+      <c r="C80" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToFloat</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="str">
+      <c r="C81" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToDouble</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="str">
+      <c r="C82" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToString</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="str">
+      <c r="C83" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToObject</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="str">
+      <c r="C84" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FloatToFunction</v>
       </c>
-      <c r="D84" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="str">
+      <c r="C85" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToVoid</v>
       </c>
-      <c r="C85" s="16">
+      <c r="B86" s="16">
         <v>27</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="str">
+      <c r="C86" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToBool</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="str">
+      <c r="C87" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToByte</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="str">
+      <c r="C88" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToInt</v>
       </c>
-      <c r="D88" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="str">
+      <c r="C89" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToLong</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="str">
+      <c r="C90" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToFloat</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="str">
+      <c r="C91" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToDouble</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="J91" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="str">
+      <c r="C92" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToString</v>
       </c>
-      <c r="D92" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="str">
+      <c r="C93" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToObject</v>
       </c>
-      <c r="D93" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="str">
+      <c r="C94" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="str">
         <f t="shared" si="2"/>
         <v>DoubleToFunction</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="str">
+      <c r="C95" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToVoid</v>
       </c>
-      <c r="C95" s="16">
+      <c r="B96" s="16">
         <v>28</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="str">
+      <c r="C96" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToBool</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="str">
+      <c r="C97" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToByte</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="str">
+      <c r="C98" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToInt</v>
       </c>
-      <c r="D98" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="str">
+      <c r="C99" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToLong</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="str">
+      <c r="C100" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToFloat</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="str">
+      <c r="C101" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToDouble</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="str">
+      <c r="C102" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToString</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="str">
+      <c r="C103" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToObject</v>
       </c>
-      <c r="D103" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="str">
+      <c r="C104" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="str">
         <f t="shared" si="2"/>
         <v>StringToFunction</v>
       </c>
-      <c r="D104" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="str">
+      <c r="C105" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToVoid</v>
       </c>
-      <c r="C105" s="16">
+      <c r="B106" s="16">
         <v>29</v>
       </c>
-      <c r="D105" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="str">
+      <c r="C106" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToBool</v>
       </c>
-      <c r="D106" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="str">
+      <c r="C107" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToByte</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="str">
+      <c r="C108" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToInt</v>
       </c>
-      <c r="D108" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F108" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="str">
+      <c r="C109" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToLong</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="str">
+      <c r="C110" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToFloat</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="str">
+      <c r="C111" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToDouble</v>
       </c>
-      <c r="D111" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="str">
+      <c r="C112" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToString</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="str">
+      <c r="C113" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToObject</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="str">
+      <c r="C114" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="str">
         <f t="shared" si="2"/>
         <v>ObjectToFunction</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F114" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="str">
+      <c r="C115" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToVoid</v>
       </c>
-      <c r="C115" s="16">
+      <c r="B116" s="16">
         <v>30</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F115" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="str">
+      <c r="C116" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToBool</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F116" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="str">
+      <c r="C117" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToByte</v>
       </c>
-      <c r="D117" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F117" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="str">
+      <c r="C118" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToInt</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F118" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="str">
+      <c r="C119" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToLong</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="str">
+      <c r="C120" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="str">
         <f t="shared" si="2"/>
         <v>FunctionToFloat</v>
       </c>
-      <c r="D120" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F120" s="16" t="s">
+      <c r="C121" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="str">
+        <f t="shared" ref="A122:A195" si="3">C122&amp;E122</f>
+        <v>FunctionToDouble</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="str">
-        <f t="shared" ref="A121:A194" si="3">D121&amp;F121</f>
-        <v>FunctionToDouble</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="str">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToString</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="str">
+      <c r="C123" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToObject</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="str">
+      <c r="C124" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="str">
         <f t="shared" si="3"/>
         <v>FunctionToFunction</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="str">
+      <c r="C125" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddVoid</v>
       </c>
-      <c r="C125" s="16">
+      <c r="B126" s="16">
         <v>41</v>
       </c>
-      <c r="D125" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="str">
+      <c r="C126" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddBool</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="str">
+      <c r="C127" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddByte</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="23" t="str">
+      <c r="C128" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddInt</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I128" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="J128" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="23" t="str">
+      <c r="C129" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H129" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddLong</v>
       </c>
-      <c r="D129" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F129" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I129" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="J129" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="str">
+      <c r="C130" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddFloat</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F130" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I130" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="J130" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="23" t="str">
+      <c r="C131" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddDouble</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I131" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="J131" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="23" t="str">
+      <c r="C132" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddString</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I132" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="J132" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="23" t="str">
+      <c r="C133" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H133" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddObject</v>
       </c>
-      <c r="D133" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="23" t="str">
+      <c r="C134" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="23" t="str">
         <f t="shared" si="3"/>
         <v>AddFunction</v>
       </c>
-      <c r="D134" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F134" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="str">
+      <c r="C135" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubVoid</v>
       </c>
-      <c r="C135" s="16">
+      <c r="B136" s="16">
         <v>42</v>
       </c>
-      <c r="D135" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="23" t="str">
+      <c r="C136" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubBool</v>
       </c>
-      <c r="D136" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F136" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="str">
+      <c r="C137" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubByte</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F137" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="str">
+      <c r="C138" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubInt</v>
       </c>
-      <c r="D138" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F138" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="23" t="str">
+      <c r="C139" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubLong</v>
       </c>
-      <c r="D139" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F139" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="23" t="str">
+      <c r="C140" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFloat</v>
       </c>
-      <c r="D140" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F140" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="23" t="str">
+      <c r="C141" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubDouble</v>
       </c>
-      <c r="D141" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="23" t="str">
+      <c r="C142" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubString</v>
       </c>
-      <c r="D142" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="str">
+      <c r="C143" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubObject</v>
       </c>
-      <c r="D143" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F143" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="23" t="str">
+      <c r="C144" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFunction</v>
       </c>
-      <c r="D144" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F144" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="23" t="str">
+      <c r="C145" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulVoid</v>
       </c>
-      <c r="C145" s="16">
+      <c r="B146" s="16">
         <v>43</v>
       </c>
-      <c r="D145" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F145" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="str">
+      <c r="C146" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulBool</v>
       </c>
-      <c r="D146" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F146" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="23" t="str">
+      <c r="C147" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulByte</v>
       </c>
-      <c r="D147" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F147" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="23" t="str">
+      <c r="C148" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulInt</v>
       </c>
-      <c r="D148" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F148" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="23" t="str">
+      <c r="C149" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulLong</v>
       </c>
-      <c r="D149" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F149" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="23" t="str">
+      <c r="C150" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFloat</v>
       </c>
-      <c r="D150" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F150" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="23" t="str">
+      <c r="C151" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulDouble</v>
       </c>
-      <c r="D151" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F151" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="23" t="str">
+      <c r="C152" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulString</v>
       </c>
-      <c r="D152" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F152" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="23" t="str">
+      <c r="C153" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulObject</v>
       </c>
-      <c r="D153" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F153" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="23" t="str">
+      <c r="C154" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFunction</v>
       </c>
-      <c r="D154" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="23" t="str">
+      <c r="C155" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivVoid</v>
       </c>
-      <c r="C155" s="16">
+      <c r="B156" s="16">
         <v>44</v>
       </c>
-      <c r="D155" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="23" t="str">
+      <c r="C156" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivBool</v>
       </c>
-      <c r="D156" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="23" t="str">
+      <c r="C157" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivByte</v>
       </c>
-      <c r="D157" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F157" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="23" t="str">
+      <c r="C158" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivInt</v>
       </c>
-      <c r="D158" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F158" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="23" t="str">
+      <c r="C159" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivLong</v>
       </c>
-      <c r="D159" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F159" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="23" t="str">
+      <c r="C160" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivFloat</v>
       </c>
-      <c r="D160" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="23" t="str">
+      <c r="C161" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivDouble</v>
       </c>
-      <c r="D161" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F161" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="23" t="str">
+      <c r="C162" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivString</v>
       </c>
-      <c r="D162" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="23" t="str">
+      <c r="C163" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivObject</v>
       </c>
-      <c r="D163" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F163" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="23" t="str">
+      <c r="C164" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivFunction</v>
       </c>
-      <c r="D164" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="23" t="str">
+      <c r="C165" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualVoid</v>
       </c>
-      <c r="C165" s="16">
+      <c r="B166" s="16">
         <v>51</v>
       </c>
-      <c r="D165" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F165" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="23" t="str">
+      <c r="C166" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualBool</v>
       </c>
-      <c r="D166" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F166" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J166" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="23" t="str">
+      <c r="C167" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I167" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualByte</v>
       </c>
-      <c r="D167" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F167" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J167" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="23" t="str">
+      <c r="C168" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I168" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualInt</v>
       </c>
-      <c r="D168" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F168" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="J168" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="23" t="str">
+      <c r="C169" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I169" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualLong</v>
       </c>
-      <c r="D169" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F169" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I169" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J169" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="23" t="str">
+      <c r="C170" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I170" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualFloat</v>
       </c>
-      <c r="D170" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F170" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I170" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J170" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="23" t="str">
+      <c r="C171" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I171" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualDouble</v>
       </c>
-      <c r="D171" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F171" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I171" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J171" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="23" t="str">
+      <c r="C172" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I172" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualString</v>
       </c>
-      <c r="D172" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F172" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="23" t="str">
+      <c r="C173" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualObject</v>
       </c>
-      <c r="D173" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F173" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="23" t="str">
+      <c r="C174" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="23" t="str">
         <f t="shared" si="3"/>
         <v>EqualFunction</v>
       </c>
-      <c r="D174" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F174" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="23" t="str">
-        <f t="shared" ref="A175:A184" si="4">D175&amp;F175</f>
+      <c r="C175" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="23" t="str">
+        <f t="shared" ref="A176:A185" si="4">C176&amp;E176</f>
         <v>NotEqualVoid</v>
       </c>
-      <c r="C175" s="16">
+      <c r="B176" s="16">
         <v>52</v>
       </c>
-      <c r="D175" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F175" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="23" t="str">
+      <c r="C176" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualBool</v>
       </c>
-      <c r="D176" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F176" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I176" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J176" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="str">
+      <c r="C177" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I177" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualByte</v>
       </c>
-      <c r="D177" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F177" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I177" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J177" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="23" t="str">
+      <c r="C178" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I178" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualInt</v>
       </c>
-      <c r="D178" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F178" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I178" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="J178" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="23" t="str">
+      <c r="C179" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I179" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualLong</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="C180" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H180" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="F179" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I179" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J179" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="23" t="str">
+      <c r="I180" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualFloat</v>
       </c>
-      <c r="D180" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F180" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I180" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J180" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="23" t="str">
+      <c r="C181" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I181" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualDouble</v>
       </c>
-      <c r="D181" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F181" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I181" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J181" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="23" t="str">
+      <c r="C182" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I182" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualString</v>
       </c>
-      <c r="D182" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F182" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="23" t="str">
+      <c r="C183" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualObject</v>
       </c>
-      <c r="D183" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F183" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="23" t="str">
+      <c r="C184" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="23" t="str">
         <f t="shared" si="4"/>
         <v>NotEqualFunction</v>
       </c>
-      <c r="D184" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="23" t="str">
+      <c r="C185" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterVoid</v>
       </c>
-      <c r="C185" s="16">
+      <c r="B186" s="16">
         <v>53</v>
       </c>
-      <c r="D185" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="23" t="str">
+      <c r="C186" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterBool</v>
       </c>
-      <c r="D186" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F186" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I186" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J186" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="23" t="str">
+      <c r="C187" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I187" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterByte</v>
       </c>
-      <c r="D187" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F187" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I187" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="23" t="str">
+      <c r="C188" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I188" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterInt</v>
       </c>
-      <c r="D188" s="16" t="s">
+      <c r="C189" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H189" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="F188" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I188" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="J188" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="23" t="str">
+      <c r="I189" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterLong</v>
       </c>
-      <c r="D189" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F189" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I189" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J189" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="23" t="str">
+      <c r="C190" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I190" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterFloat</v>
       </c>
-      <c r="D190" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F190" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I190" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J190" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="23" t="str">
+      <c r="C191" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I191" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterDouble</v>
       </c>
-      <c r="D191" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F191" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I191" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J191" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="23" t="str">
+      <c r="C192" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I192" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterString</v>
       </c>
-      <c r="D192" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F192" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="23" t="str">
+      <c r="C193" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterObject</v>
       </c>
-      <c r="D193" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F193" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="23" t="str">
+      <c r="C194" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="23" t="str">
         <f t="shared" si="3"/>
         <v>GreaterFunction</v>
       </c>
-      <c r="D194" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="23" t="str">
-        <f t="shared" ref="A195:A224" si="5">D195&amp;F195</f>
+      <c r="C195" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="23" t="str">
+        <f t="shared" ref="A196:A225" si="5">C196&amp;E196</f>
         <v>GreaterEqualVoid</v>
       </c>
-      <c r="C195" s="16">
+      <c r="B196" s="16">
         <v>54</v>
       </c>
-      <c r="D195" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F195" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="23" t="str">
+      <c r="C196" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualBool</v>
       </c>
-      <c r="D196" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F196" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I196" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J196" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="23" t="str">
+      <c r="C197" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I197" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualByte</v>
       </c>
-      <c r="D197" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F197" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I197" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J197" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="23" t="str">
+      <c r="C198" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I198" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualInt</v>
       </c>
-      <c r="D198" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F198" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I198" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="J198" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="23" t="str">
+      <c r="C199" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I199" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualLong</v>
       </c>
-      <c r="D199" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F199" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I199" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J199" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="23" t="str">
+      <c r="C200" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I200" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualFloat</v>
       </c>
-      <c r="D200" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F200" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I200" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J200" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="23" t="str">
+      <c r="C201" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I201" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualDouble</v>
       </c>
-      <c r="D201" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F201" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I201" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J201" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="23" t="str">
+      <c r="C202" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I202" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualString</v>
       </c>
-      <c r="D202" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F202" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="23" t="str">
+      <c r="C203" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualObject</v>
       </c>
-      <c r="D203" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F203" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="23" t="str">
+      <c r="C204" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="23" t="str">
         <f t="shared" si="5"/>
         <v>GreaterEqualFunction</v>
       </c>
-      <c r="D204" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F204" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="23" t="str">
+      <c r="C205" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessVoid</v>
       </c>
-      <c r="C205" s="16">
+      <c r="B206" s="16">
         <v>55</v>
       </c>
-      <c r="D205" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F205" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="23" t="str">
+      <c r="C206" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessBool</v>
       </c>
-      <c r="D206" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F206" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I206" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J206" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="23" t="str">
+      <c r="C207" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I207" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessByte</v>
       </c>
-      <c r="D207" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F207" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I207" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J207" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="23" t="str">
+      <c r="C208" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H208" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I208" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessInt</v>
       </c>
-      <c r="D208" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F208" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I208" s="14" t="s">
+      <c r="C209" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="J208" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="23" t="str">
+      <c r="E209" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H209" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I209" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessLong</v>
       </c>
-      <c r="D209" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F209" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I209" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J209" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="23" t="str">
+      <c r="C210" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H210" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I210" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessFloat</v>
       </c>
-      <c r="D210" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I210" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J210" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="23" t="str">
+      <c r="C211" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H211" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I211" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessDouble</v>
       </c>
-      <c r="D211" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F211" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I211" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J211" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="23" t="str">
+      <c r="C212" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H212" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I212" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessString</v>
       </c>
-      <c r="D212" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F212" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="23" t="str">
+      <c r="C213" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessObject</v>
       </c>
-      <c r="D213" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F213" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" s="23" t="str">
+      <c r="C214" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessFunction</v>
       </c>
-      <c r="D214" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F214" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="23" t="str">
+      <c r="C215" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualVoid</v>
       </c>
-      <c r="C215" s="16">
+      <c r="B216" s="16">
         <v>56</v>
       </c>
-      <c r="D215" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F215" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="23" t="str">
+      <c r="C216" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualBool</v>
       </c>
-      <c r="D216" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F216" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I216" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J216" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="23" t="str">
+      <c r="C217" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H217" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I217" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualByte</v>
       </c>
-      <c r="D217" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F217" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I217" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J217" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="23" t="str">
+      <c r="C218" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H218" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I218" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualInt</v>
       </c>
-      <c r="D218" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F218" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I218" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="J218" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="23" t="str">
+      <c r="C219" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H219" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I219" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualLong</v>
       </c>
-      <c r="D219" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F219" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I219" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J219" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="23" t="str">
+      <c r="C220" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H220" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I220" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualFloat</v>
       </c>
-      <c r="D220" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F220" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I220" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J220" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="23" t="str">
+      <c r="C221" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H221" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I221" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualDouble</v>
       </c>
-      <c r="D221" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F221" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I221" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J221" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="23" t="str">
+      <c r="C222" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H222" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I222" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualString</v>
       </c>
-      <c r="D222" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F222" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="23" t="str">
+      <c r="C223" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualObject</v>
       </c>
-      <c r="D223" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F223" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="23" t="str">
+      <c r="C224" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LessEqualFunction</v>
       </c>
-      <c r="D224" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F224" s="16" t="s">
-        <v>303</v>
+      <c r="C225" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6723,7 @@
         <v>217</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6717,7 +6739,7 @@
         <v>207</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6762,12 +6784,12 @@
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6837,7 +6859,7 @@
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6867,10 +6889,10 @@
         <v>186</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>199</v>
@@ -6884,7 +6906,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -6893,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6901,7 +6923,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -6910,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6918,7 +6940,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -6927,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6935,7 +6957,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -6944,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6952,7 +6974,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -6961,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6969,7 +6991,7 @@
         <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -6978,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6986,7 +7008,7 @@
         <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -6995,7 +7017,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7003,7 +7025,7 @@
         <v>193</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -7012,7 +7034,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7020,7 +7042,7 @@
         <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -7029,7 +7051,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7037,7 +7059,7 @@
         <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -7046,7 +7068,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -3025,11 +3025,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6873,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="4"/>
+    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="389">
   <si>
     <t>[ ]</t>
   </si>
@@ -851,14 +851,6 @@
   </si>
   <si>
     <t>Static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1556,6 +1548,18 @@
   </si>
   <si>
     <t>i=insts-&gt;size();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3023,3464 +3027,3292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="16" customWidth="1"/>
-    <col min="4" max="5" width="10.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="59" style="19" customWidth="1"/>
-    <col min="10" max="10" width="71" style="20" customWidth="1"/>
-    <col min="11" max="12" width="11.25" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="2" max="2" width="14.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="59" style="19" customWidth="1"/>
+    <col min="8" max="8" width="71" style="20" customWidth="1"/>
+    <col min="9" max="10" width="11.25" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="str">
-        <f t="shared" ref="A2:A5" si="0">C2&amp;E2</f>
+        <f>B2&amp;C2</f>
         <v>Nop</v>
       </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>B3&amp;C3</f>
         <v>Jump</v>
       </c>
-      <c r="B3" s="16">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D3" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>B4&amp;C4</f>
         <v>JumpFalse</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16" t="str">
+      <c r="B4" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="16" t="str">
         <f>"False"</f>
         <v>False</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>B5&amp;C5</f>
         <v>Return</v>
       </c>
-      <c r="B5" s="16">
-        <v>11</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="H5" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="str">
+        <f>B6&amp;C6</f>
+        <v>PushBool</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="str">
+        <f>B7&amp;C7</f>
+        <v>PushByte</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="str">
-        <f>C6&amp;E6</f>
-        <v>PushBool</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="str">
+        <f>B8&amp;C8</f>
+        <v>PushInt</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="16">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="D8" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="str">
+        <f>B9&amp;C9</f>
+        <v>PushLong</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="str">
+        <f>B10&amp;C10</f>
+        <v>PushFloat</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="str">
+        <f>B11&amp;C11</f>
+        <v>PushDouble</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="str">
+        <f>B12&amp;C12</f>
+        <v>PushString</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="str">
+        <f>B13&amp;C13</f>
+        <v>Pop</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="str">
+        <f>B14&amp;C14</f>
+        <v>PopTo</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="str">
-        <f t="shared" ref="A7:A57" si="1">C7&amp;E7</f>
-        <v>PushByte</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="16">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>PushInt</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="16">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>PushLong</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="16">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>PushFloat</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="16">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>PushDouble</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="16">
-        <v>7</v>
-      </c>
-      <c r="E11" s="16" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="str">
+        <f>B15&amp;C15</f>
+        <v>CallStatic</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="str">
+        <f>B16&amp;C16</f>
+        <v>CallVirtual</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="H16" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="str">
+        <f>B17&amp;C17</f>
+        <v>SetLocal</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>PushString</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>Pop</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>PopTo</v>
-      </c>
-      <c r="B14" s="16">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="str">
-        <f>C15&amp;E15</f>
-        <v>CallStatic</v>
-      </c>
-      <c r="B15" s="16">
-        <v>7</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>CallVirtual</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="J16" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>SetLocal</v>
-      </c>
-      <c r="B17" s="16">
-        <v>8</v>
-      </c>
       <c r="C17" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>B18&amp;C18</f>
         <v>SetField</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="16">
-        <v>2</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="str">
+        <f>B19&amp;C19</f>
+        <v>SetStatic</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="str">
+        <f>B20&amp;C20</f>
+        <v>LoadLocal</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="C20" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="str">
+        <f>B21&amp;C21</f>
+        <v>LoadField</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="str">
+        <f>B22&amp;C22</f>
+        <v>LoadStatic</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
+        <f>B23&amp;C23</f>
+        <v>CopyLocal</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="str">
+        <f>B26&amp;C26</f>
+        <v>VoidToVoid</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="str">
+        <f>B27&amp;C27</f>
+        <v>VoidToBool</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>SetStatic</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LoadLocal</v>
-      </c>
-      <c r="B20" s="16">
-        <v>9</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LoadField</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>LoadStatic</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>CopyLocal</v>
-      </c>
-      <c r="B23" s="16">
-        <v>10</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToVoid</v>
-      </c>
-      <c r="B26" s="16">
-        <v>21</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToBool</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="16">
-        <v>2</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H27" s="14" t="str">
+      <c r="F27" s="14" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="G27" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="str">
+        <f>B28&amp;C28</f>
+        <v>VoidToByte</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="str">
+        <f>B29&amp;C29</f>
+        <v>VoidToInt</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="str">
+        <f>B30&amp;C30</f>
+        <v>VoidToLong</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="str">
+        <f>B31&amp;C31</f>
+        <v>VoidToFloat</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="str">
+        <f>B32&amp;C32</f>
+        <v>VoidToDouble</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="str">
+        <f>B33&amp;C33</f>
+        <v>VoidToString</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="str">
+        <f>B34&amp;C34</f>
+        <v>VoidToObject</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="str">
+        <f>B35&amp;C35</f>
+        <v>VoidToFunction</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="str">
+        <f>B36&amp;C36</f>
+        <v>BoolToVoid</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="str">
+        <f>B37&amp;C37</f>
+        <v>BoolToBool</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="str">
+        <f>B38&amp;C38</f>
+        <v>BoolToByte</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="str">
+        <f>B39&amp;C39</f>
+        <v>BoolToInt</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="str">
+        <f>B40&amp;C40</f>
+        <v>BoolToLong</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="str">
+        <f>B41&amp;C41</f>
+        <v>BoolToFloat</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="str">
+        <f>B42&amp;C42</f>
+        <v>BoolToDouble</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="str">
+        <f>B43&amp;C43</f>
+        <v>BoolToString</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="str">
+        <f>B44&amp;C44</f>
+        <v>BoolToObject</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="str">
+        <f>B45&amp;C45</f>
+        <v>BoolToFunction</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="str">
+        <f>B46&amp;C46</f>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="str">
+        <f>B47&amp;C47</f>
+        <v>ByteToBool</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="str">
+        <f>B48&amp;C48</f>
+        <v>ByteToByte</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="str">
+        <f>B49&amp;C49</f>
+        <v>ByteToInt</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="str">
+        <f>B50&amp;C50</f>
+        <v>ByteToLong</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="str">
+        <f>B51&amp;C51</f>
+        <v>ByteToFloat</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="str">
+        <f>B52&amp;C52</f>
+        <v>ByteToDouble</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="str">
+        <f>B53&amp;C53</f>
+        <v>ByteToString</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="str">
+        <f>B54&amp;C54</f>
+        <v>ByteToObject</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="str">
+        <f>B55&amp;C55</f>
+        <v>ByteToFunction</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="str">
+        <f>B56&amp;C56</f>
+        <v>IntToVoid</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="str">
+        <f>B57&amp;C57</f>
+        <v>IntToBool</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" s="19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToByte</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="16">
-        <v>3</v>
-      </c>
-      <c r="E28" s="16" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="str">
+        <f>B58&amp;C58</f>
+        <v>IntToByte</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="str">
+        <f>B59&amp;C59</f>
+        <v>IntToInt</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="str">
+        <f>B60&amp;C60</f>
+        <v>IntToLong</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToInt</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D29" s="16">
-        <v>4</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="F60" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="str">
+        <f>B61&amp;C61</f>
+        <v>IntToFloat</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToLong</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="16">
-        <v>5</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="F61" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="str">
+        <f>B62&amp;C62</f>
+        <v>IntToDouble</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToFloat</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D31" s="16">
-        <v>6</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="F62" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="str">
+        <f>B63&amp;C63</f>
+        <v>IntToString</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToDouble</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="16">
-        <v>7</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="G63" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="str">
+        <f>B64&amp;C64</f>
+        <v>IntToObject</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToString</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
-      <c r="E33" s="16" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="str">
+        <f>B65&amp;C65</f>
+        <v>IntToFunction</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToObject</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D34" s="16">
-        <v>9</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>VoidToFunction</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D35" s="16">
-        <v>10</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToVoid</v>
-      </c>
-      <c r="B36" s="16">
-        <v>22</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E36" s="16" t="s">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="str">
+        <f>B66&amp;C66</f>
+        <v>LongToVoid</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="str">
+        <f>B67&amp;C67</f>
+        <v>LongToBool</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="str">
+        <f>B68&amp;C68</f>
+        <v>LongToByte</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToBool</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="F68" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="str">
+        <f>B69&amp;C69</f>
+        <v>LongToInt</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToByte</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="F69" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="str">
+        <f>B70&amp;C70</f>
+        <v>LongToLong</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToInt</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="F70" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="str">
+        <f>B71&amp;C71</f>
+        <v>LongToFloat</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToLong</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="F71" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="str">
+        <f>B72&amp;C72</f>
+        <v>LongToDouble</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToFloat</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="F72" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="str">
+        <f>B73&amp;C73</f>
+        <v>LongToString</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToDouble</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="16" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="str">
+        <f>B74&amp;C74</f>
+        <v>LongToObject</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToString</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E43" s="16" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="str">
+        <f>B75&amp;C75</f>
+        <v>LongToFunction</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToObject</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>BoolToFunction</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToVoid</v>
-      </c>
-      <c r="B46" s="16">
-        <v>23</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E46" s="16" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="str">
+        <f>B76&amp;C76</f>
+        <v>FloatToVoid</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="str">
+        <f>B77&amp;C77</f>
+        <v>FloatToBool</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="str">
+        <f>B78&amp;C78</f>
+        <v>FloatToByte</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToBool</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="F78" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="str">
+        <f>B79&amp;C79</f>
+        <v>FloatToInt</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToByte</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="F79" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="str">
+        <f>B80&amp;C80</f>
+        <v>FloatToLong</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToInt</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="F80" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="str">
+        <f>B81&amp;C81</f>
+        <v>FloatToFloat</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToLong</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="F81" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="str">
+        <f>B82&amp;C82</f>
+        <v>FloatToDouble</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToFloat</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="F82" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="str">
+        <f>B83&amp;C83</f>
+        <v>FloatToString</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToDouble</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E52" s="16" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="str">
+        <f>B84&amp;C84</f>
+        <v>FloatToObject</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToString</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E53" s="16" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="str">
+        <f>B85&amp;C85</f>
+        <v>FloatToFunction</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToObject</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>ByteToFunction</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToVoid</v>
-      </c>
-      <c r="B56" s="16">
-        <v>24</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="16" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="str">
+        <f>B86&amp;C86</f>
+        <v>DoubleToVoid</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="str">
+        <f>B87&amp;C87</f>
+        <v>DoubleToBool</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="str">
+        <f>B88&amp;C88</f>
+        <v>DoubleToByte</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>IntToBool</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="F88" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="str">
+        <f>B89&amp;C89</f>
+        <v>DoubleToInt</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="F89" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="I57" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="str">
-        <f t="shared" ref="A58:A121" si="2">C58&amp;E58</f>
-        <v>IntToByte</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E58" s="16" t="s">
+      <c r="G89" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="str">
+        <f>B90&amp;C90</f>
+        <v>DoubleToLong</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="F90" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToInt</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="G90" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="str">
+        <f>B91&amp;C91</f>
+        <v>DoubleToFloat</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="F91" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="I59" s="19" t="s">
+      <c r="G91" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="str">
+        <f>B92&amp;C92</f>
+        <v>DoubleToDouble</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="str">
+        <f>B93&amp;C93</f>
+        <v>DoubleToString</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="str">
+        <f>B94&amp;C94</f>
+        <v>DoubleToObject</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="str">
+        <f>B95&amp;C95</f>
+        <v>DoubleToFunction</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="str">
+        <f>B96&amp;C96</f>
+        <v>StringToVoid</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="str">
+        <f>B97&amp;C97</f>
+        <v>StringToBool</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="str">
+        <f>B98&amp;C98</f>
+        <v>StringToByte</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="str">
+        <f>B99&amp;C99</f>
+        <v>StringToInt</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="str">
+        <f>B100&amp;C100</f>
+        <v>StringToLong</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="str">
+        <f>B101&amp;C101</f>
+        <v>StringToFloat</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="str">
+        <f>B102&amp;C102</f>
+        <v>StringToDouble</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="str">
+        <f>B103&amp;C103</f>
+        <v>StringToString</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="str">
+        <f>B104&amp;C104</f>
+        <v>StringToObject</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="str">
+        <f>B105&amp;C105</f>
+        <v>StringToFunction</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="str">
+        <f>B106&amp;C106</f>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="str">
+        <f>B107&amp;C107</f>
+        <v>ObjectToBool</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="str">
+        <f>B108&amp;C108</f>
+        <v>ObjectToByte</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="str">
+        <f>B109&amp;C109</f>
+        <v>ObjectToInt</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="str">
+        <f>B110&amp;C110</f>
+        <v>ObjectToLong</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="str">
+        <f>B111&amp;C111</f>
+        <v>ObjectToFloat</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="str">
+        <f>B112&amp;C112</f>
+        <v>ObjectToDouble</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="str">
+        <f>B113&amp;C113</f>
+        <v>ObjectToString</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="str">
+        <f>B114&amp;C114</f>
+        <v>ObjectToObject</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="str">
+        <f>B115&amp;C115</f>
+        <v>ObjectToFunction</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="str">
+        <f>B116&amp;C116</f>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="str">
+        <f>B117&amp;C117</f>
+        <v>FunctionToBool</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="str">
+        <f>B118&amp;C118</f>
+        <v>FunctionToByte</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="23" t="str">
+        <f>B119&amp;C119</f>
+        <v>FunctionToInt</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="str">
+        <f>B120&amp;C120</f>
+        <v>FunctionToLong</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="str">
+        <f>B121&amp;C121</f>
+        <v>FunctionToFloat</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="str">
+        <f>B122&amp;C122</f>
+        <v>FunctionToDouble</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="str">
+        <f>B123&amp;C123</f>
+        <v>FunctionToString</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="str">
+        <f>B124&amp;C124</f>
+        <v>FunctionToObject</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="str">
+        <f>B125&amp;C125</f>
+        <v>FunctionToFunction</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="str">
+        <f>B126&amp;C126</f>
+        <v>AddVoid</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToLong</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E60" s="16" t="s">
+      <c r="C126" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="str">
+        <f>B127&amp;C127</f>
+        <v>AddBool</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="str">
+        <f>B128&amp;C128</f>
+        <v>AddByte</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="str">
+        <f>B129&amp;C129</f>
+        <v>AddInt</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="str">
+        <f>B130&amp;C130</f>
+        <v>AddLong</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="str">
+        <f>B131&amp;C131</f>
+        <v>AddFloat</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="23" t="str">
+        <f>B132&amp;C132</f>
+        <v>AddDouble</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToFloat</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E61" s="16" t="s">
+      <c r="F132" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="23" t="str">
+        <f>B133&amp;C133</f>
+        <v>AddString</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C133" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToDouble</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62" s="16" t="s">
+      <c r="F133" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="23" t="str">
+        <f>B134&amp;C134</f>
+        <v>AddObject</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H62" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToString</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="16" t="s">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="23" t="str">
+        <f>B135&amp;C135</f>
+        <v>AddFunction</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I63" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToObject</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>IntToFunction</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToVoid</v>
-      </c>
-      <c r="B66" s="16">
-        <v>25</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E66" s="16" t="s">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="23" t="str">
+        <f>B136&amp;C136</f>
+        <v>SubVoid</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="23" t="str">
+        <f>B137&amp;C137</f>
+        <v>SubBool</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="str">
+        <f>B138&amp;C138</f>
+        <v>SubByte</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToBool</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E67" s="16" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="23" t="str">
+        <f>B139&amp;C139</f>
+        <v>SubInt</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C139" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToByte</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E68" s="16" t="s">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="23" t="str">
+        <f>B140&amp;C140</f>
+        <v>SubLong</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToInt</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" s="16" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="23" t="str">
+        <f>B141&amp;C141</f>
+        <v>SubFloat</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToLong</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E70" s="16" t="s">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="23" t="str">
+        <f>B142&amp;C142</f>
+        <v>SubDouble</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H70" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToFloat</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E71" s="16" t="s">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="23" t="str">
+        <f>B143&amp;C143</f>
+        <v>SubString</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H71" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToDouble</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E72" s="16" t="s">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="23" t="str">
+        <f>B144&amp;C144</f>
+        <v>SubObject</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H72" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToString</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E73" s="16" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="23" t="str">
+        <f>B145&amp;C145</f>
+        <v>SubFunction</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C145" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToObject</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>LongToFunction</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToVoid</v>
-      </c>
-      <c r="B76" s="16">
-        <v>26</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E76" s="16" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="str">
+        <f>B146&amp;C146</f>
+        <v>MulVoid</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="str">
+        <f>B147&amp;C147</f>
+        <v>MulBool</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="23" t="str">
+        <f>B148&amp;C148</f>
+        <v>MulByte</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C148" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToBool</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77" s="16" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="str">
+        <f>B149&amp;C149</f>
+        <v>MulInt</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H77" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToByte</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E78" s="16" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="23" t="str">
+        <f>B150&amp;C150</f>
+        <v>MulLong</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C150" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToInt</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E79" s="16" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="23" t="str">
+        <f>B151&amp;C151</f>
+        <v>MulFloat</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToLong</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E80" s="16" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="23" t="str">
+        <f>B152&amp;C152</f>
+        <v>MulDouble</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C152" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H80" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToFloat</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E81" s="16" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="23" t="str">
+        <f>B153&amp;C153</f>
+        <v>MulString</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C153" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H81" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToDouble</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" s="16" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="23" t="str">
+        <f>B154&amp;C154</f>
+        <v>MulObject</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C154" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H82" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToString</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E83" s="16" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="23" t="str">
+        <f>B155&amp;C155</f>
+        <v>MulFunction</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToObject</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FloatToFunction</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToVoid</v>
-      </c>
-      <c r="B86" s="16">
-        <v>27</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E86" s="16" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="23" t="str">
+        <f>B156&amp;C156</f>
+        <v>DivVoid</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="23" t="str">
+        <f>B157&amp;C157</f>
+        <v>DivBool</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="23" t="str">
+        <f>B158&amp;C158</f>
+        <v>DivByte</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToBool</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E87" s="16" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="23" t="str">
+        <f>B159&amp;C159</f>
+        <v>DivInt</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H87" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToByte</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E88" s="16" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="23" t="str">
+        <f>B160&amp;C160</f>
+        <v>DivLong</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H88" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToInt</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E89" s="16" t="s">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="23" t="str">
+        <f>B161&amp;C161</f>
+        <v>DivFloat</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H89" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToLong</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E90" s="16" t="s">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="23" t="str">
+        <f>B162&amp;C162</f>
+        <v>DivDouble</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C162" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H90" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToFloat</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E91" s="16" t="s">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="23" t="str">
+        <f>B163&amp;C163</f>
+        <v>DivString</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C163" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H91" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToDouble</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E92" s="16" t="s">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="23" t="str">
+        <f>B164&amp;C164</f>
+        <v>DivObject</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToString</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E93" s="16" t="s">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="23" t="str">
+        <f>B165&amp;C165</f>
+        <v>DivFunction</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C165" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToObject</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DoubleToFunction</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToVoid</v>
-      </c>
-      <c r="B96" s="16">
-        <v>28</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E96" s="16" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="23" t="str">
+        <f>B166&amp;C166</f>
+        <v>EqualVoid</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="23" t="str">
+        <f>B167&amp;C167</f>
+        <v>EqualBool</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G167" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="23" t="str">
+        <f>B168&amp;C168</f>
+        <v>EqualByte</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToBool</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E97" s="16" t="s">
+      <c r="F168" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G168" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="23" t="str">
+        <f>B169&amp;C169</f>
+        <v>EqualInt</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToByte</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E98" s="16" t="s">
+      <c r="F169" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G169" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="23" t="str">
+        <f>B170&amp;C170</f>
+        <v>EqualLong</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToInt</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E99" s="16" t="s">
+      <c r="F170" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G170" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="23" t="str">
+        <f>B171&amp;C171</f>
+        <v>EqualFloat</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToLong</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E100" s="16" t="s">
+      <c r="F171" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G171" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="23" t="str">
+        <f>B172&amp;C172</f>
+        <v>EqualDouble</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToFloat</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E101" s="16" t="s">
+      <c r="F172" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="23" t="str">
+        <f>B173&amp;C173</f>
+        <v>EqualString</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToDouble</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E102" s="16" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="23" t="str">
+        <f>B174&amp;C174</f>
+        <v>EqualObject</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToString</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E103" s="16" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="23" t="str">
+        <f>B175&amp;C175</f>
+        <v>EqualFunction</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToObject</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>StringToFunction</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToVoid</v>
-      </c>
-      <c r="B106" s="16">
-        <v>29</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="16" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="23" t="str">
+        <f>B176&amp;C176</f>
+        <v>NotEqualVoid</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="23" t="str">
+        <f>B177&amp;C177</f>
+        <v>NotEqualBool</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G177" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="23" t="str">
+        <f>B178&amp;C178</f>
+        <v>NotEqualByte</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToBool</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="F178" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="23" t="str">
+        <f>B179&amp;C179</f>
+        <v>NotEqualInt</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToByte</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E108" s="16" t="s">
+      <c r="F179" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G179" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="23" t="str">
+        <f>B180&amp;C180</f>
+        <v>NotEqualLong</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToInt</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E109" s="16" t="s">
+      <c r="F180" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G180" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="23" t="str">
+        <f>B181&amp;C181</f>
+        <v>NotEqualFloat</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToLong</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E110" s="16" t="s">
+      <c r="F181" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G181" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="23" t="str">
+        <f>B182&amp;C182</f>
+        <v>NotEqualDouble</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToFloat</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E111" s="16" t="s">
+      <c r="F182" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G182" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="23" t="str">
+        <f>B183&amp;C183</f>
+        <v>NotEqualString</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C183" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToDouble</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E112" s="16" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="23" t="str">
+        <f>B184&amp;C184</f>
+        <v>NotEqualObject</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToString</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E113" s="16" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="23" t="str">
+        <f>B185&amp;C185</f>
+        <v>NotEqualFunction</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToObject</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>ObjectToFunction</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToVoid</v>
-      </c>
-      <c r="B116" s="16">
-        <v>30</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E116" s="16" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="23" t="str">
+        <f>B186&amp;C186</f>
+        <v>GreaterVoid</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="str">
+        <f>B187&amp;C187</f>
+        <v>GreaterBool</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G187" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="23" t="str">
+        <f>B188&amp;C188</f>
+        <v>GreaterByte</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C188" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToBool</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E117" s="16" t="s">
+      <c r="F188" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G188" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="str">
+        <f>B189&amp;C189</f>
+        <v>GreaterInt</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C189" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToByte</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="F189" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G189" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="23" t="str">
+        <f>B190&amp;C190</f>
+        <v>GreaterLong</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C190" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToInt</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E119" s="16" t="s">
+      <c r="F190" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G190" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="23" t="str">
+        <f>B191&amp;C191</f>
+        <v>GreaterFloat</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C191" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToLong</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E120" s="16" t="s">
+      <c r="F191" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G191" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="23" t="str">
+        <f>B192&amp;C192</f>
+        <v>GreaterDouble</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C192" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>FunctionToFloat</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E121" s="16" t="s">
+      <c r="F192" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G192" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="23" t="str">
+        <f>B193&amp;C193</f>
+        <v>GreaterString</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C193" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="str">
-        <f t="shared" ref="A122:A195" si="3">C122&amp;E122</f>
-        <v>FunctionToDouble</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E122" s="16" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="23" t="str">
+        <f>B194&amp;C194</f>
+        <v>GreaterObject</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C194" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>FunctionToString</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E123" s="16" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="23" t="str">
+        <f>B195&amp;C195</f>
+        <v>GreaterFunction</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C195" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>FunctionToObject</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>FunctionToFunction</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddVoid</v>
-      </c>
-      <c r="B126" s="16">
-        <v>41</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E126" s="16" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="23" t="str">
+        <f>B196&amp;C196</f>
+        <v>GreaterEqualVoid</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="23" t="str">
+        <f>B197&amp;C197</f>
+        <v>GreaterEqualBool</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G197" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="23" t="str">
+        <f>B198&amp;C198</f>
+        <v>GreaterEqualByte</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C198" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddBool</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E127" s="16" t="s">
+      <c r="F198" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G198" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="23" t="str">
+        <f>B199&amp;C199</f>
+        <v>GreaterEqualInt</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C199" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddByte</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E128" s="16" t="s">
+      <c r="F199" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G199" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="23" t="str">
+        <f>B200&amp;C200</f>
+        <v>GreaterEqualLong</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C200" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddInt</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E129" s="16" t="s">
+      <c r="F200" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G200" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="23" t="str">
+        <f>B201&amp;C201</f>
+        <v>GreaterEqualFloat</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C201" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H129" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="I129" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddLong</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E130" s="16" t="s">
+      <c r="F201" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G201" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="23" t="str">
+        <f>B202&amp;C202</f>
+        <v>GreaterEqualDouble</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H130" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="I130" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddFloat</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E131" s="16" t="s">
+      <c r="F202" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G202" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="23" t="str">
+        <f>B203&amp;C203</f>
+        <v>GreaterEqualString</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C203" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H131" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="I131" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddDouble</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E132" s="16" t="s">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="23" t="str">
+        <f>B204&amp;C204</f>
+        <v>GreaterEqualObject</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H132" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddString</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E133" s="16" t="s">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="23" t="str">
+        <f>B205&amp;C205</f>
+        <v>GreaterEqualFunction</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="H133" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="I133" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddObject</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>AddFunction</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubVoid</v>
-      </c>
-      <c r="B136" s="16">
-        <v>42</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E136" s="16" t="s">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="23" t="str">
+        <f>B206&amp;C206</f>
+        <v>LessVoid</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="23" t="str">
+        <f>B207&amp;C207</f>
+        <v>LessBool</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G207" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="23" t="str">
+        <f>B208&amp;C208</f>
+        <v>LessByte</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C208" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubBool</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E137" s="16" t="s">
+      <c r="F208" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="23" t="str">
+        <f>B209&amp;C209</f>
+        <v>LessInt</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C209" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubByte</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E138" s="16" t="s">
+      <c r="F209" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G209" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="23" t="str">
+        <f>B210&amp;C210</f>
+        <v>LessLong</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C210" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubInt</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E139" s="16" t="s">
+      <c r="F210" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G210" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="23" t="str">
+        <f>B211&amp;C211</f>
+        <v>LessFloat</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C211" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubLong</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E140" s="16" t="s">
+      <c r="F211" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G211" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="23" t="str">
+        <f>B212&amp;C212</f>
+        <v>LessDouble</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C212" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubFloat</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E141" s="16" t="s">
+      <c r="F212" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G212" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="23" t="str">
+        <f>B213&amp;C213</f>
+        <v>LessString</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C213" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubDouble</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E142" s="16" t="s">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="23" t="str">
+        <f>B214&amp;C214</f>
+        <v>LessObject</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C214" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubString</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E143" s="16" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="23" t="str">
+        <f>B215&amp;C215</f>
+        <v>LessFunction</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C215" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubObject</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>SubFunction</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulVoid</v>
-      </c>
-      <c r="B146" s="16">
-        <v>43</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E146" s="16" t="s">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="23" t="str">
+        <f>B216&amp;C216</f>
+        <v>LessEqualVoid</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="23" t="str">
+        <f>B217&amp;C217</f>
+        <v>LessEqualBool</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G217" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="23" t="str">
+        <f>B218&amp;C218</f>
+        <v>LessEqualByte</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C218" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulBool</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E147" s="16" t="s">
+      <c r="F218" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G218" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="23" t="str">
+        <f>B219&amp;C219</f>
+        <v>LessEqualInt</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C219" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulByte</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E148" s="16" t="s">
+      <c r="F219" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G219" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="23" t="str">
+        <f>B220&amp;C220</f>
+        <v>LessEqualLong</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C220" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulInt</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E149" s="16" t="s">
+      <c r="F220" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G220" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="23" t="str">
+        <f>B221&amp;C221</f>
+        <v>LessEqualFloat</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C221" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulLong</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E150" s="16" t="s">
+      <c r="F221" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="23" t="str">
+        <f>B222&amp;C222</f>
+        <v>LessEqualDouble</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C222" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulFloat</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E151" s="16" t="s">
+      <c r="F222" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="23" t="str">
+        <f>B223&amp;C223</f>
+        <v>LessEqualString</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C223" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulDouble</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E152" s="16" t="s">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="23" t="str">
+        <f>B224&amp;C224</f>
+        <v>LessEqualObject</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C224" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulString</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E153" s="16" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="23" t="str">
+        <f>B225&amp;C225</f>
+        <v>LessEqualFunction</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C225" s="16" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulObject</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>MulFunction</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivVoid</v>
-      </c>
-      <c r="B156" s="16">
-        <v>44</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivBool</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivByte</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivInt</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivLong</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivFloat</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivDouble</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivString</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivObject</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>DivFunction</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualVoid</v>
-      </c>
-      <c r="B166" s="16">
-        <v>51</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualBool</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H167" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I167" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualByte</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H168" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I168" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualInt</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H169" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I169" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualLong</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H170" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I170" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualFloat</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I171" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualDouble</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I172" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualString</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualObject</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>EqualFunction</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="23" t="str">
-        <f t="shared" ref="A176:A185" si="4">C176&amp;E176</f>
-        <v>NotEqualVoid</v>
-      </c>
-      <c r="B176" s="16">
-        <v>52</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualBool</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H177" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I177" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualByte</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H178" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I178" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualInt</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I179" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualLong</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H180" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I180" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualFloat</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H181" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I181" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualDouble</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I182" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualString</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualObject</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>NotEqualFunction</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterVoid</v>
-      </c>
-      <c r="B186" s="16">
-        <v>53</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterBool</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H187" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I187" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterByte</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H188" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I188" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterInt</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H189" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I189" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterLong</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H190" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I190" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterFloat</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H191" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I191" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterDouble</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H192" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I192" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterString</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterObject</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>GreaterFunction</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="23" t="str">
-        <f t="shared" ref="A196:A225" si="5">C196&amp;E196</f>
-        <v>GreaterEqualVoid</v>
-      </c>
-      <c r="B196" s="16">
-        <v>54</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualBool</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H197" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I197" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualByte</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H198" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I198" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualInt</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H199" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I199" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualLong</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H200" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I200" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualFloat</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H201" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I201" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualDouble</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H202" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I202" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualString</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualObject</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>GreaterEqualFunction</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessVoid</v>
-      </c>
-      <c r="B206" s="16">
-        <v>55</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessBool</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H207" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I207" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessByte</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H208" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I208" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessInt</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H209" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I209" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessLong</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H210" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I210" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessFloat</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H211" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I211" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessDouble</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H212" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I212" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessString</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessObject</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessFunction</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualVoid</v>
-      </c>
-      <c r="B216" s="16">
-        <v>56</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualBool</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H217" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I217" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualByte</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H218" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I218" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualInt</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H219" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I219" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualLong</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H220" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I220" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualFloat</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H221" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I221" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualDouble</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H222" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I222" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualString</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualObject</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>LessEqualFunction</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6723,7 +6555,7 @@
         <v>217</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6739,7 +6571,7 @@
         <v>207</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6784,12 +6616,12 @@
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6859,7 +6691,7 @@
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6873,7 +6705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6889,10 +6721,10 @@
         <v>186</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>199</v>
@@ -6906,7 +6738,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -6915,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6923,7 +6755,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -6932,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6940,7 +6772,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -6949,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6957,7 +6789,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -6966,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6974,7 +6806,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -6983,7 +6815,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6991,7 +6823,7 @@
         <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -7000,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7008,7 +6840,7 @@
         <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -7017,7 +6849,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7025,7 +6857,7 @@
         <v>193</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -7034,7 +6866,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7042,7 +6874,7 @@
         <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -7051,7 +6883,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7059,7 +6891,7 @@
         <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -7068,7 +6900,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="391">
   <si>
     <t>[ ]</t>
   </si>
@@ -1228,9 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//DoNothing</t>
-  </si>
-  <si>
     <t>Nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1326,10 +1323,6 @@
   </si>
   <si>
     <t>ActionVars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//DoNothing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1556,6 +1549,21 @@
   </si>
   <si>
     <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3030,10 +3038,10 @@
   <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomRight" activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3060,13 +3068,13 @@
         <v>184</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>276</v>
@@ -3081,10 +3089,10 @@
         <v>Nop</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>283</v>
@@ -3096,13 +3104,13 @@
         <v>Jump</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -3112,20 +3120,20 @@
         <v>JumpFalse</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C4" s="16" t="str">
         <f>"False"</f>
         <v>False</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3134,13 +3142,13 @@
         <v>Return</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>385</v>
-      </c>
       <c r="H5" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3158,7 +3166,7 @@
         <v>270</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3176,7 +3184,7 @@
         <v>265</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3194,7 +3202,7 @@
         <v>266</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3212,7 +3220,7 @@
         <v>267</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3230,7 +3238,7 @@
         <v>268</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3248,7 +3256,7 @@
         <v>269</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3266,7 +3274,7 @@
         <v>271</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3278,7 +3286,7 @@
         <v>197</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3305,14 +3313,14 @@
         <v>242</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>263</v>
@@ -3330,10 +3338,10 @@
         <v>262</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F16" s="25"/>
       <c r="H16" s="21" t="s">
@@ -3355,7 +3363,7 @@
         <v>289</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3385,7 +3393,7 @@
         <v>287</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3403,7 +3411,7 @@
         <v>289</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3433,7 +3441,7 @@
         <v>287</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3442,21 +3450,21 @@
         <v>CopyLocal</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>286</v>
@@ -3464,7 +3472,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>287</v>
@@ -3482,7 +3490,7 @@
         <v>291</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -3501,7 +3509,7 @@
         <v>false</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3516,10 +3524,10 @@
         <v>293</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3534,10 +3542,10 @@
         <v>294</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3552,10 +3560,10 @@
         <v>295</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3570,10 +3578,10 @@
         <v>296</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3588,10 +3596,10 @@
         <v>297</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3606,10 +3614,10 @@
         <v>298</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3900,10 +3908,10 @@
         <v>292</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3918,10 +3926,10 @@
         <v>293</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3936,10 +3944,10 @@
         <v>294</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3954,10 +3962,10 @@
         <v>295</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3972,10 +3980,10 @@
         <v>296</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3990,10 +3998,10 @@
         <v>297</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4008,7 +4016,7 @@
         <v>298</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,10 +4067,10 @@
         <v>292</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4077,10 +4085,10 @@
         <v>293</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4095,10 +4103,10 @@
         <v>294</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4113,10 +4121,10 @@
         <v>295</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4131,10 +4139,10 @@
         <v>296</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4149,10 +4157,10 @@
         <v>297</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4215,10 +4223,10 @@
         <v>292</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4233,10 +4241,10 @@
         <v>293</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4251,10 +4259,10 @@
         <v>294</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4269,10 +4277,10 @@
         <v>295</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4287,10 +4295,10 @@
         <v>296</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4305,10 +4313,10 @@
         <v>297</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4371,10 +4379,10 @@
         <v>292</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4389,10 +4397,10 @@
         <v>293</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4407,10 +4415,10 @@
         <v>294</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4425,10 +4433,10 @@
         <v>295</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4443,10 +4451,10 @@
         <v>296</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4461,10 +4469,10 @@
         <v>297</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4869,7 +4877,7 @@
         <v>AddVoid</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>291</v>
@@ -4881,7 +4889,7 @@
         <v>AddBool</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>292</v>
@@ -4893,7 +4901,7 @@
         <v>AddByte</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>293</v>
@@ -4905,70 +4913,70 @@
         <v>AddInt</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="str">
         <f>B130&amp;C130</f>
         <v>AddLong</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="str">
         <f>B131&amp;C131</f>
         <v>AddFloat</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="str">
         <f>B132&amp;C132</f>
         <v>AddDouble</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -4977,16 +4985,16 @@
         <v>AddString</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>298</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -4995,7 +5003,7 @@
         <v>AddObject</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>299</v>
@@ -5007,7 +5015,7 @@
         <v>AddFunction</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>300</v>
@@ -5019,7 +5027,7 @@
         <v>SubVoid</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>291</v>
@@ -5031,7 +5039,7 @@
         <v>SubBool</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>292</v>
@@ -5043,7 +5051,7 @@
         <v>SubByte</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>293</v>
@@ -5055,7 +5063,7 @@
         <v>SubInt</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>294</v>
@@ -5067,7 +5075,7 @@
         <v>SubLong</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>295</v>
@@ -5079,7 +5087,7 @@
         <v>SubFloat</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>296</v>
@@ -5091,7 +5099,7 @@
         <v>SubDouble</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>297</v>
@@ -5103,7 +5111,7 @@
         <v>SubString</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>298</v>
@@ -5115,7 +5123,7 @@
         <v>SubObject</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>299</v>
@@ -5127,7 +5135,7 @@
         <v>SubFunction</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>300</v>
@@ -5139,7 +5147,7 @@
         <v>MulVoid</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>291</v>
@@ -5151,7 +5159,7 @@
         <v>MulBool</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>292</v>
@@ -5163,7 +5171,7 @@
         <v>MulByte</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>293</v>
@@ -5175,7 +5183,7 @@
         <v>MulInt</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>294</v>
@@ -5187,7 +5195,7 @@
         <v>MulLong</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>295</v>
@@ -5199,7 +5207,7 @@
         <v>MulFloat</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>296</v>
@@ -5211,7 +5219,7 @@
         <v>MulDouble</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>297</v>
@@ -5223,7 +5231,7 @@
         <v>MulString</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>298</v>
@@ -5235,7 +5243,7 @@
         <v>MulObject</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>299</v>
@@ -5247,7 +5255,7 @@
         <v>MulFunction</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>300</v>
@@ -5259,7 +5267,7 @@
         <v>DivVoid</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>291</v>
@@ -5271,7 +5279,7 @@
         <v>DivBool</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>292</v>
@@ -5283,7 +5291,7 @@
         <v>DivByte</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>293</v>
@@ -5295,7 +5303,7 @@
         <v>DivInt</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>294</v>
@@ -5307,7 +5315,7 @@
         <v>DivLong</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>295</v>
@@ -5319,7 +5327,7 @@
         <v>DivFloat</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>296</v>
@@ -5331,7 +5339,7 @@
         <v>DivDouble</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>297</v>
@@ -5343,7 +5351,7 @@
         <v>DivString</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>298</v>
@@ -5355,7 +5363,7 @@
         <v>DivObject</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>299</v>
@@ -5367,7 +5375,7 @@
         <v>DivFunction</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>300</v>
@@ -5379,7 +5387,7 @@
         <v>EqualVoid</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>291</v>
@@ -5391,16 +5399,16 @@
         <v>EqualBool</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>292</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G167" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5409,16 +5417,16 @@
         <v>EqualByte</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5427,16 +5435,16 @@
         <v>EqualInt</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5445,16 +5453,16 @@
         <v>EqualLong</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G170" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5463,16 +5471,16 @@
         <v>EqualFloat</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5481,16 +5489,16 @@
         <v>EqualDouble</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -5499,7 +5507,7 @@
         <v>EqualString</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>298</v>
@@ -5511,7 +5519,7 @@
         <v>EqualObject</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C174" s="16" t="s">
         <v>299</v>
@@ -5523,7 +5531,7 @@
         <v>EqualFunction</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>300</v>
@@ -5535,7 +5543,7 @@
         <v>NotEqualVoid</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C176" s="16" t="s">
         <v>291</v>
@@ -5547,16 +5555,16 @@
         <v>NotEqualBool</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>292</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5565,16 +5573,16 @@
         <v>NotEqualByte</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5583,16 +5591,16 @@
         <v>NotEqualInt</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C179" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5601,16 +5609,16 @@
         <v>NotEqualLong</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5619,16 +5627,16 @@
         <v>NotEqualFloat</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5637,16 +5645,16 @@
         <v>NotEqualDouble</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -5655,7 +5663,7 @@
         <v>NotEqualString</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>298</v>
@@ -5667,7 +5675,7 @@
         <v>NotEqualObject</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>299</v>
@@ -5679,7 +5687,7 @@
         <v>NotEqualFunction</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>300</v>
@@ -5691,7 +5699,7 @@
         <v>GreaterVoid</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>291</v>
@@ -5703,16 +5711,16 @@
         <v>GreaterBool</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C187" s="16" t="s">
         <v>292</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G187" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5721,16 +5729,16 @@
         <v>GreaterByte</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G188" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5739,16 +5747,16 @@
         <v>GreaterInt</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C189" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G189" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5757,16 +5765,16 @@
         <v>GreaterLong</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C190" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G190" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5775,16 +5783,16 @@
         <v>GreaterFloat</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G191" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5793,16 +5801,16 @@
         <v>GreaterDouble</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G192" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -5811,7 +5819,7 @@
         <v>GreaterString</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>298</v>
@@ -5823,7 +5831,7 @@
         <v>GreaterObject</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C194" s="16" t="s">
         <v>299</v>
@@ -5835,7 +5843,7 @@
         <v>GreaterFunction</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C195" s="16" t="s">
         <v>300</v>
@@ -5847,7 +5855,7 @@
         <v>GreaterEqualVoid</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C196" s="16" t="s">
         <v>291</v>
@@ -5859,16 +5867,16 @@
         <v>GreaterEqualBool</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C197" s="16" t="s">
         <v>292</v>
       </c>
       <c r="F197" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G197" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5877,16 +5885,16 @@
         <v>GreaterEqualByte</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C198" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G198" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5895,16 +5903,16 @@
         <v>GreaterEqualInt</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C199" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G199" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5913,16 +5921,16 @@
         <v>GreaterEqualLong</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G200" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5931,16 +5939,16 @@
         <v>GreaterEqualFloat</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G201" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -5949,16 +5957,16 @@
         <v>GreaterEqualDouble</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G202" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -5967,7 +5975,7 @@
         <v>GreaterEqualString</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>298</v>
@@ -5979,7 +5987,7 @@
         <v>GreaterEqualObject</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C204" s="16" t="s">
         <v>299</v>
@@ -5991,7 +5999,7 @@
         <v>GreaterEqualFunction</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>300</v>
@@ -6003,7 +6011,7 @@
         <v>LessVoid</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C206" s="16" t="s">
         <v>291</v>
@@ -6015,16 +6023,16 @@
         <v>LessBool</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>292</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G207" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6033,16 +6041,16 @@
         <v>LessByte</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G208" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6051,16 +6059,16 @@
         <v>LessInt</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C209" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G209" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6069,16 +6077,16 @@
         <v>LessLong</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G210" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6087,16 +6095,16 @@
         <v>LessFloat</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G211" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6105,16 +6113,16 @@
         <v>LessDouble</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G212" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -6123,7 +6131,7 @@
         <v>LessString</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>298</v>
@@ -6135,7 +6143,7 @@
         <v>LessObject</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>299</v>
@@ -6147,7 +6155,7 @@
         <v>LessFunction</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C215" s="16" t="s">
         <v>300</v>
@@ -6159,7 +6167,7 @@
         <v>LessEqualVoid</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C216" s="16" t="s">
         <v>291</v>
@@ -6171,16 +6179,16 @@
         <v>LessEqualBool</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C217" s="16" t="s">
         <v>292</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G217" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6189,16 +6197,16 @@
         <v>LessEqualByte</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C218" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G218" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6207,16 +6215,16 @@
         <v>LessEqualInt</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C219" s="16" t="s">
         <v>294</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G219" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6225,16 +6233,16 @@
         <v>LessEqualLong</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C220" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G220" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6243,16 +6251,16 @@
         <v>LessEqualFloat</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C221" s="16" t="s">
         <v>296</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G221" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -6261,16 +6269,16 @@
         <v>LessEqualDouble</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C222" s="16" t="s">
         <v>297</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G222" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -6279,7 +6287,7 @@
         <v>LessEqualString</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C223" s="16" t="s">
         <v>298</v>
@@ -6291,7 +6299,7 @@
         <v>LessEqualObject</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C224" s="16" t="s">
         <v>299</v>
@@ -6303,7 +6311,7 @@
         <v>LessEqualFunction</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C225" s="16" t="s">
         <v>300</v>
@@ -6616,12 +6624,12 @@
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6691,7 +6699,7 @@
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\fay\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\fay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="4"/>
+    <workbookView xWindow="21450" yWindow="0" windowWidth="12660" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="392">
   <si>
     <t>[ ]</t>
   </si>
@@ -1556,6 +1556,24 @@
   </si>
   <si>
     <t>i=insts-&gt;size();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a1 v=#s.top().#a2();
+#s.pop();
+#s.top().val()-&gt;#a2*=v;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3025,11 +3043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3591,7 +3609,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToByte</v>
@@ -3609,10 +3627,10 @@
         <v>329</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToInt</v>
@@ -3630,10 +3648,10 @@
         <v>330</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToLong</v>
@@ -3651,10 +3669,10 @@
         <v>331</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToFloat</v>
@@ -3672,10 +3690,10 @@
         <v>332</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToDouble</v>
@@ -3693,10 +3711,10 @@
         <v>333</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
         <f t="shared" si="1"/>
         <v>VoidToString</v>
@@ -3714,7 +3732,7 @@
         <v>334</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5265,7 +5283,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SubFunction</v>
@@ -5277,7 +5295,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulVoid</v>
@@ -5292,7 +5310,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulBool</v>
@@ -5304,7 +5322,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulByte</v>
@@ -5316,7 +5334,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulInt</v>
@@ -5327,8 +5345,14 @@
       <c r="E149" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H149" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulLong</v>
@@ -5339,8 +5363,14 @@
       <c r="E150" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H150" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFloat</v>
@@ -5351,8 +5381,14 @@
       <c r="E151" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H151" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I151" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulDouble</v>
@@ -5363,8 +5399,14 @@
       <c r="E152" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H152" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I152" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulString</v>
@@ -5375,8 +5417,9 @@
       <c r="E153" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H153" s="25"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulObject</v>
@@ -5388,7 +5431,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MulFunction</v>
@@ -5400,7 +5443,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivVoid</v>
@@ -5415,7 +5458,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivBool</v>
@@ -5427,7 +5470,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivByte</v>
@@ -5439,7 +5482,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivInt</v>
@@ -5451,7 +5494,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="str">
         <f t="shared" si="3"/>
         <v>DivLong</v>
@@ -6480,7 +6523,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6873,7 +6916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/doc/FayLang.xlsx
+++ b/doc/FayLang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="406">
   <si>
     <t>[ ]</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>负号运算符</t>
   </si>
   <si>
     <t>-表达式</t>
@@ -1570,12 +1567,91 @@
     <t>same</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>#a1 v=#s.top().#a2();
+#s.pop();
+#s.top().val()-&gt;#a2-=v;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a1 v=#s.top().#a2();
+#s.pop();
+#s.top().val()-&gt;#a2*=v;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a1 v=#s.top().#a2();
+#s.pop();
+#s.top().val()-&gt;#a2/=v;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负号运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取负数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#s.top().val()-&gt;#a1 = -#s.top().#a1();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byteVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,8 +1742,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1704,6 +1787,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1734,7 +1823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,6 +1901,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2095,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2114,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2132,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2152,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2183,16 +2278,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2200,19 +2295,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,19 +2315,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2240,19 +2335,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2260,19 +2355,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,42 +2375,42 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2323,19 +2418,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2343,42 +2438,42 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2386,19 +2481,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2406,42 +2501,42 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2452,42 +2547,42 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,45 +2590,45 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2541,22 +2636,22 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2564,19 +2659,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,48 +2679,48 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,45 +2728,45 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2679,19 +2774,19 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2699,45 +2794,45 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2745,22 +2840,22 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2768,42 +2863,42 @@
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1">
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2811,19 +2906,19 @@
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,19 +2926,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,19 +2946,19 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2871,19 +2966,19 @@
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2891,19 +2986,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,19 +3006,19 @@
         <v>14</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,19 +3026,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2951,19 +3046,19 @@
         <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,19 +3066,19 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,19 +3086,19 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3011,19 +3106,19 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3035,3286 +3130,3514 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E224" sqref="E224"/>
+      <selection pane="bottomRight" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="59" style="19" customWidth="1"/>
-    <col min="8" max="8" width="71" style="20" customWidth="1"/>
-    <col min="9" max="10" width="11.25" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="26"/>
+    <col min="2" max="2" width="20.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="59" style="19" customWidth="1"/>
+    <col min="9" max="9" width="71" style="20" customWidth="1"/>
+    <col min="10" max="11" width="11.25" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>185</v>
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="27"/>
+      <c r="B1" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="str">
-        <f>B2&amp;C2</f>
+      <c r="H1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="23" t="str">
+        <f t="shared" ref="B2:B23" si="0">C2&amp;D2</f>
         <v>Nop</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="str">
-        <f>B3&amp;C3</f>
+      <c r="D2" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>Jump</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>JumpFalse</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="str">
-        <f>B4&amp;C4</f>
-        <v>JumpFalse</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="16" t="str">
+      <c r="D4" s="16" t="str">
         <f>"False"</f>
         <v>False</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="str">
-        <f>B5&amp;C5</f>
+      <c r="E4" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>Return</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="19" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushBool</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushByte</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="str">
-        <f>B6&amp;C6</f>
-        <v>PushBool</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushInt</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushLong</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushFloat</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushDouble</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PushString</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Pop</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="str">
-        <f>B7&amp;C7</f>
-        <v>PushByte</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="str">
-        <f>B8&amp;C8</f>
-        <v>PushInt</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="str">
-        <f>B9&amp;C9</f>
-        <v>PushLong</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="str">
-        <f>B10&amp;C10</f>
-        <v>PushFloat</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="str">
-        <f>B11&amp;C11</f>
-        <v>PushDouble</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="str">
-        <f>B12&amp;C12</f>
-        <v>PushString</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="H13" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PopTo</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="str">
-        <f>B13&amp;C13</f>
-        <v>Pop</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="str">
-        <f>B14&amp;C14</f>
-        <v>PopTo</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="str">
-        <f>B15&amp;C15</f>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>CallStatic</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CallVirtual</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="I16" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SetLocal</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SetField</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>SetStatic</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
-        <f>B16&amp;C16</f>
-        <v>CallVirtual</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="H16" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="str">
-        <f>B17&amp;C17</f>
-        <v>SetLocal</v>
-      </c>
-      <c r="B17" s="16" t="s">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>LoadLocal</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="E20" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>LoadField</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="str">
-        <f>B18&amp;C18</f>
-        <v>SetField</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="str">
-        <f>B19&amp;C19</f>
-        <v>SetStatic</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="str">
-        <f>B20&amp;C20</f>
-        <v>LoadLocal</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
-        <f>B21&amp;C21</f>
-        <v>LoadField</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="str">
-        <f>B22&amp;C22</f>
+    </row>
+    <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>LoadStatic</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="str">
-        <f>B23&amp;C23</f>
+      <c r="D22" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>CopyLocal</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="H23" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="16" t="s">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="str">
-        <f>B26&amp;C26</f>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="str">
+        <f t="shared" ref="B26:B57" si="1">C26&amp;D26</f>
         <v>VoidToVoid</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>301</v>
-      </c>
       <c r="C26" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToBool</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="str">
-        <f>B27&amp;C27</f>
-        <v>VoidToBool</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="14" t="str">
+      <c r="G27" s="14" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="str">
-        <f>B28&amp;C28</f>
+      <c r="H27" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>VoidToByte</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>301</v>
-      </c>
       <c r="C28" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToInt</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G29" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="str">
-        <f>B29&amp;C29</f>
-        <v>VoidToInt</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="H29" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToLong</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="str">
-        <f>B30&amp;C30</f>
-        <v>VoidToLong</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="H30" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToFloat</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G31" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="str">
-        <f>B31&amp;C31</f>
-        <v>VoidToFloat</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="H31" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToDouble</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="str">
-        <f>B32&amp;C32</f>
-        <v>VoidToDouble</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="H32" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToString</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="G33" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
-        <f>B33&amp;C33</f>
-        <v>VoidToString</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="H33" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>VoidToObject</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="str">
-        <f>B34&amp;C34</f>
-        <v>VoidToObject</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="str">
-        <f>B35&amp;C35</f>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>VoidToFunction</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>301</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="str">
-        <f>B36&amp;C36</f>
+      <c r="D35" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>BoolToVoid</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToBool</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToByte</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToInt</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToLong</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToFloat</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToDouble</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToString</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToObject</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolToFunction</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToVoid</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D46" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToBool</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="str">
-        <f>B37&amp;C37</f>
-        <v>BoolToBool</v>
-      </c>
-      <c r="B37" s="16" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToByte</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="str">
-        <f>B38&amp;C38</f>
-        <v>BoolToByte</v>
-      </c>
-      <c r="B38" s="16" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToInt</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="str">
-        <f>B39&amp;C39</f>
-        <v>BoolToInt</v>
-      </c>
-      <c r="B39" s="16" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToLong</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="str">
-        <f>B40&amp;C40</f>
-        <v>BoolToLong</v>
-      </c>
-      <c r="B40" s="16" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToFloat</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="str">
-        <f>B41&amp;C41</f>
-        <v>BoolToFloat</v>
-      </c>
-      <c r="B41" s="16" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToDouble</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="str">
-        <f>B42&amp;C42</f>
-        <v>BoolToDouble</v>
-      </c>
-      <c r="B42" s="16" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToString</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D53" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="str">
-        <f>B43&amp;C43</f>
-        <v>BoolToString</v>
-      </c>
-      <c r="B43" s="16" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToObject</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="str">
-        <f>B44&amp;C44</f>
-        <v>BoolToObject</v>
-      </c>
-      <c r="B44" s="16" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>ByteToFunction</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="D55" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="str">
-        <f>B45&amp;C45</f>
-        <v>BoolToFunction</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="str">
-        <f>B46&amp;C46</f>
-        <v>ByteToVoid</v>
-      </c>
-      <c r="B46" s="16" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToVoid</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="D56" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B57" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntToBool</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="str">
-        <f>B47&amp;C47</f>
-        <v>ByteToBool</v>
-      </c>
-      <c r="B47" s="16" t="s">
+      <c r="G57" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="23" t="str">
+        <f t="shared" ref="B58:B89" si="2">C58&amp;D58</f>
+        <v>IntToByte</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="str">
-        <f>B48&amp;C48</f>
-        <v>ByteToByte</v>
-      </c>
-      <c r="B48" s="16" t="s">
+      <c r="G58" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToInt</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="D59" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="str">
-        <f>B49&amp;C49</f>
-        <v>ByteToInt</v>
-      </c>
-      <c r="B49" s="16" t="s">
+      <c r="G59" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToLong</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="D60" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="str">
-        <f>B50&amp;C50</f>
-        <v>ByteToLong</v>
-      </c>
-      <c r="B50" s="16" t="s">
+      <c r="G60" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToFloat</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="D61" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="str">
-        <f>B51&amp;C51</f>
-        <v>ByteToFloat</v>
-      </c>
-      <c r="B51" s="16" t="s">
+      <c r="G61" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToDouble</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="D62" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="str">
-        <f>B52&amp;C52</f>
-        <v>ByteToDouble</v>
-      </c>
-      <c r="B52" s="16" t="s">
+      <c r="G62" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToString</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="str">
-        <f>B53&amp;C53</f>
-        <v>ByteToString</v>
-      </c>
-      <c r="B53" s="16" t="s">
+      <c r="H63" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToObject</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="D64" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="str">
-        <f>B54&amp;C54</f>
-        <v>ByteToObject</v>
-      </c>
-      <c r="B54" s="16" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntToFunction</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="D65" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="str">
-        <f>B55&amp;C55</f>
-        <v>ByteToFunction</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="str">
-        <f>B56&amp;C56</f>
-        <v>IntToVoid</v>
-      </c>
-      <c r="B56" s="16" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToVoid</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="D66" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToBool</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="str">
-        <f>B57&amp;C57</f>
-        <v>IntToBool</v>
-      </c>
-      <c r="B57" s="16" t="s">
+      <c r="G67" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToByte</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="G68" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="str">
-        <f>B58&amp;C58</f>
-        <v>IntToByte</v>
-      </c>
-      <c r="B58" s="16" t="s">
+      <c r="H68" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToInt</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="D69" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="G69" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="str">
-        <f>B59&amp;C59</f>
-        <v>IntToInt</v>
-      </c>
-      <c r="B59" s="16" t="s">
+      <c r="H69" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToLong</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="G70" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="H70" s="19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="str">
-        <f>B60&amp;C60</f>
-        <v>IntToLong</v>
-      </c>
-      <c r="B60" s="16" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToFloat</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="D71" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="G71" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="str">
-        <f>B61&amp;C61</f>
-        <v>IntToFloat</v>
-      </c>
-      <c r="B61" s="16" t="s">
+      <c r="H71" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToDouble</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="G72" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G61" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="str">
-        <f>B62&amp;C62</f>
-        <v>IntToDouble</v>
-      </c>
-      <c r="B62" s="16" t="s">
+      <c r="H72" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToString</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="str">
-        <f>B63&amp;C63</f>
-        <v>IntToString</v>
-      </c>
-      <c r="B63" s="16" t="s">
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToObject</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="D74" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="str">
-        <f>B64&amp;C64</f>
-        <v>IntToObject</v>
-      </c>
-      <c r="B64" s="16" t="s">
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>LongToFunction</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="D75" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="str">
-        <f>B65&amp;C65</f>
-        <v>IntToFunction</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="str">
-        <f>B66&amp;C66</f>
-        <v>LongToVoid</v>
-      </c>
-      <c r="B66" s="16" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToVoid</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="D76" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B77" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToBool</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="str">
-        <f>B67&amp;C67</f>
-        <v>LongToBool</v>
-      </c>
-      <c r="B67" s="16" t="s">
+      <c r="G77" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToByte</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="D78" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="G78" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="H78" s="19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="str">
-        <f>B68&amp;C68</f>
-        <v>LongToByte</v>
-      </c>
-      <c r="B68" s="16" t="s">
+    <row r="79" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToInt</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="G79" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="H79" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToLong</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToFloat</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="str">
-        <f>B69&amp;C69</f>
-        <v>LongToInt</v>
-      </c>
-      <c r="B69" s="16" t="s">
+    <row r="82" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B82" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToDouble</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="D82" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToString</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToObject</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>FloatToFunction</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DoubleToVoid</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DoubleToBool</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B88" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DoubleToByte</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>DoubleToInt</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B90" s="23" t="str">
+        <f t="shared" ref="B90:B121" si="3">C90&amp;D90</f>
+        <v>DoubleToLong</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="G90" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="H90" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>DoubleToFloat</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>DoubleToDouble</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H92" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="str">
-        <f>B70&amp;C70</f>
-        <v>LongToLong</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C70" s="16" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>DoubleToString</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>DoubleToObject</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>DoubleToFunction</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToVoid</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToBool</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToByte</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToInt</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToLong</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToFloat</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G70" s="19" t="s">
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToDouble</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToString</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToObject</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>StringToFunction</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToVoid</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToBool</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToByte</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToInt</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToLong</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToFloat</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToDouble</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToString</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToObject</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>ObjectToFunction</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FunctionToVoid</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FunctionToBool</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FunctionToByte</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FunctionToInt</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FunctionToLong</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FunctionToFloat</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="23" t="str">
+        <f t="shared" ref="B122:B163" si="4">C122&amp;D122</f>
+        <v>FunctionToDouble</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>FunctionToString</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>FunctionToObject</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>FunctionToFunction</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusVoid</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusBool</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusByte</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusInt</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusLong</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusFloat</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusDouble</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusString</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusObject</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MinusFunction</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddVoid</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddBool</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddByte</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B139" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddInt</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B140" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddLong</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H140" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="str">
-        <f>B71&amp;C71</f>
-        <v>LongToFloat</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C71" s="16" t="s">
+    <row r="141" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B141" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddFloat</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B142" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddDouble</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D142" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="str">
-        <f>B72&amp;C72</f>
-        <v>LongToDouble</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="G142" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B143" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddString</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D143" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="str">
-        <f>B73&amp;C73</f>
-        <v>LongToString</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C73" s="16" t="s">
+      <c r="G143" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddObject</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="str">
-        <f>B74&amp;C74</f>
-        <v>LongToObject</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C74" s="16" t="s">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>AddFunction</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="str">
-        <f>B75&amp;C75</f>
-        <v>LongToFunction</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="str">
-        <f>B76&amp;C76</f>
-        <v>FloatToVoid</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76" s="16" t="s">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubVoid</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubBool</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="str">
-        <f>B77&amp;C77</f>
-        <v>FloatToBool</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C77" s="16" t="s">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubByte</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D148" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="str">
-        <f>B78&amp;C78</f>
-        <v>FloatToByte</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C78" s="16" t="s">
+    </row>
+    <row r="149" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B149" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubInt</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D149" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F78" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="str">
-        <f>B79&amp;C79</f>
-        <v>FloatToInt</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C79" s="16" t="s">
+      <c r="G149" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B150" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubLong</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D150" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F79" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="str">
-        <f>B80&amp;C80</f>
-        <v>FloatToLong</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="16" t="s">
+      <c r="G150" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B151" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubFloat</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D151" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F80" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="str">
-        <f>B81&amp;C81</f>
-        <v>FloatToFloat</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C81" s="16" t="s">
+      <c r="G151" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B152" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubDouble</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="str">
-        <f>B82&amp;C82</f>
-        <v>FloatToDouble</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C82" s="16" t="s">
+      <c r="G152" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubString</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F82" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="str">
-        <f>B83&amp;C83</f>
-        <v>FloatToString</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C83" s="16" t="s">
+      <c r="G153" s="25"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubObject</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="str">
-        <f>B84&amp;C84</f>
-        <v>FloatToObject</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="16" t="s">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>SubFunction</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="str">
-        <f>B85&amp;C85</f>
-        <v>FloatToFunction</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="str">
-        <f>B86&amp;C86</f>
-        <v>DoubleToVoid</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="16" t="s">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulVoid</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulBool</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D157" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="str">
-        <f>B87&amp;C87</f>
-        <v>DoubleToBool</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C87" s="16" t="s">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulByte</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D158" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F87" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="str">
-        <f>B88&amp;C88</f>
-        <v>DoubleToByte</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C88" s="16" t="s">
+    </row>
+    <row r="159" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B159" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulInt</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D159" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F88" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="str">
-        <f>B89&amp;C89</f>
-        <v>DoubleToInt</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C89" s="16" t="s">
+      <c r="G159" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B160" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulLong</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F89" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="str">
-        <f>B90&amp;C90</f>
-        <v>DoubleToLong</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="G160" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B161" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulFloat</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="str">
-        <f>B91&amp;C91</f>
-        <v>DoubleToFloat</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C91" s="16" t="s">
+      <c r="G161" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B162" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulDouble</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F91" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="str">
-        <f>B92&amp;C92</f>
-        <v>DoubleToDouble</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C92" s="16" t="s">
+      <c r="G162" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B163" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>MulString</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D163" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F92" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="str">
-        <f>B93&amp;C93</f>
-        <v>DoubleToString</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C93" s="16" t="s">
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B164" s="23" t="str">
+        <f t="shared" ref="B164:B195" si="5">C164&amp;D164</f>
+        <v>MulObject</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D164" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="str">
-        <f>B94&amp;C94</f>
-        <v>DoubleToObject</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C94" s="16" t="s">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>MulFunction</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D165" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="str">
-        <f>B95&amp;C95</f>
-        <v>DoubleToFunction</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="str">
-        <f>B96&amp;C96</f>
-        <v>StringToVoid</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C96" s="16" t="s">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B166" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivVoid</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B167" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivBool</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D167" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="str">
-        <f>B97&amp;C97</f>
-        <v>StringToBool</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" s="16" t="s">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B168" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivByte</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D168" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="str">
-        <f>B98&amp;C98</f>
-        <v>StringToByte</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C98" s="16" t="s">
+    <row r="169" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B169" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivInt</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="str">
-        <f>B99&amp;C99</f>
-        <v>StringToInt</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C99" s="16" t="s">
+      <c r="G169" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B170" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivLong</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D170" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="str">
-        <f>B100&amp;C100</f>
-        <v>StringToLong</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="G170" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B171" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivFloat</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D171" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="str">
-        <f>B101&amp;C101</f>
-        <v>StringToFloat</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C101" s="16" t="s">
+      <c r="G171" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B172" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivDouble</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D172" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="str">
-        <f>B102&amp;C102</f>
-        <v>StringToDouble</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C102" s="16" t="s">
+      <c r="G172" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H172" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivString</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D173" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="str">
-        <f>B103&amp;C103</f>
-        <v>StringToString</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C103" s="16" t="s">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivObject</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D174" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="str">
-        <f>B104&amp;C104</f>
-        <v>StringToObject</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C104" s="16" t="s">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>DivFunction</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D175" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="str">
-        <f>B105&amp;C105</f>
-        <v>StringToFunction</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="str">
-        <f>B106&amp;C106</f>
-        <v>ObjectToVoid</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C106" s="16" t="s">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualVoid</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B177" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualBool</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D177" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="str">
-        <f>B107&amp;C107</f>
-        <v>ObjectToBool</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C107" s="16" t="s">
+      <c r="G177" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualByte</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="str">
-        <f>B108&amp;C108</f>
-        <v>ObjectToByte</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C108" s="16" t="s">
+      <c r="G178" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualInt</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="str">
-        <f>B109&amp;C109</f>
-        <v>ObjectToInt</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C109" s="16" t="s">
+      <c r="G179" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualLong</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D180" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="str">
-        <f>B110&amp;C110</f>
-        <v>ObjectToLong</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C110" s="16" t="s">
+      <c r="G180" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H180" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualFloat</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D181" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="str">
-        <f>B111&amp;C111</f>
-        <v>ObjectToFloat</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C111" s="16" t="s">
+      <c r="G181" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H181" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualDouble</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D182" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="str">
-        <f>B112&amp;C112</f>
-        <v>ObjectToDouble</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C112" s="16" t="s">
+      <c r="G182" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualString</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D183" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="str">
-        <f>B113&amp;C113</f>
-        <v>ObjectToString</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C113" s="16" t="s">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualObject</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D184" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="str">
-        <f>B114&amp;C114</f>
-        <v>ObjectToObject</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C114" s="16" t="s">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>EqualFunction</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D185" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="str">
-        <f>B115&amp;C115</f>
-        <v>ObjectToFunction</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="str">
-        <f>B116&amp;C116</f>
-        <v>FunctionToVoid</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C116" s="16" t="s">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B186" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualVoid</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B187" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualBool</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D187" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="str">
-        <f>B117&amp;C117</f>
-        <v>FunctionToBool</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C117" s="16" t="s">
+      <c r="G187" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H187" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualByte</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D188" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="str">
-        <f>B118&amp;C118</f>
-        <v>FunctionToByte</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C118" s="16" t="s">
+      <c r="G188" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H188" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualInt</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D189" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="str">
-        <f>B119&amp;C119</f>
-        <v>FunctionToInt</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C119" s="16" t="s">
+      <c r="G189" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H189" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualLong</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D190" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="str">
-        <f>B120&amp;C120</f>
-        <v>FunctionToLong</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="16" t="s">
+      <c r="G190" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H190" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualFloat</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D191" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="str">
-        <f>B121&amp;C121</f>
-        <v>FunctionToFloat</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C121" s="16" t="s">
+      <c r="G191" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H191" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualDouble</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D192" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="str">
-        <f>B122&amp;C122</f>
-        <v>FunctionToDouble</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C122" s="16" t="s">
+      <c r="G192" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H192" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualString</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D193" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="str">
-        <f>B123&amp;C123</f>
-        <v>FunctionToString</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C123" s="16" t="s">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualObject</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D194" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="str">
-        <f>B124&amp;C124</f>
-        <v>FunctionToObject</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C124" s="16" t="s">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>NotEqualFunction</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D195" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="str">
-        <f>B125&amp;C125</f>
-        <v>FunctionToFunction</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="str">
-        <f>B126&amp;C126</f>
-        <v>AddVoid</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126" s="16" t="s">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="23" t="str">
+        <f t="shared" ref="B196:B227" si="6">C196&amp;D196</f>
+        <v>GreaterVoid</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B197" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterBool</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D197" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="str">
-        <f>B127&amp;C127</f>
-        <v>AddBool</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C127" s="16" t="s">
+      <c r="G197" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterByte</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D198" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="23" t="str">
-        <f>B128&amp;C128</f>
-        <v>AddByte</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C128" s="16" t="s">
+      <c r="G198" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H198" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterInt</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D199" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="23" t="str">
-        <f>B129&amp;C129</f>
-        <v>AddInt</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C129" s="16" t="s">
+      <c r="G199" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterLong</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D200" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F129" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="str">
-        <f>B130&amp;C130</f>
-        <v>AddLong</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C130" s="16" t="s">
+      <c r="G200" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H200" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterFloat</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D201" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F130" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="23" t="str">
-        <f>B131&amp;C131</f>
-        <v>AddFloat</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C131" s="16" t="s">
+      <c r="G201" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B202" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterDouble</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D202" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F131" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="G131" s="19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="23" t="str">
-        <f>B132&amp;C132</f>
-        <v>AddDouble</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C132" s="16" t="s">
+      <c r="G202" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B203" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterString</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D203" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F132" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="23" t="str">
-        <f>B133&amp;C133</f>
-        <v>AddString</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" s="16" t="s">
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B204" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterObject</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D204" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="F133" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="G133" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="23" t="str">
-        <f>B134&amp;C134</f>
-        <v>AddObject</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="16" t="s">
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B205" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterFunction</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D205" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="str">
-        <f>B135&amp;C135</f>
-        <v>AddFunction</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="23" t="str">
-        <f>B136&amp;C136</f>
-        <v>SubVoid</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C136" s="16" t="s">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B206" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualVoid</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B207" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualBool</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D207" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="str">
-        <f>B137&amp;C137</f>
-        <v>SubBool</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C137" s="16" t="s">
+      <c r="G207" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H207" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B208" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualByte</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D208" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="str">
-        <f>B138&amp;C138</f>
-        <v>SubByte</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" s="16" t="s">
+      <c r="G208" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H208" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B209" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualInt</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D209" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="23" t="str">
-        <f>B139&amp;C139</f>
-        <v>SubInt</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="G209" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H209" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualLong</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D210" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="23" t="str">
-        <f>B140&amp;C140</f>
-        <v>SubLong</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C140" s="16" t="s">
+      <c r="G210" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H210" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualFloat</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D211" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="23" t="str">
-        <f>B141&amp;C141</f>
-        <v>SubFloat</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C141" s="16" t="s">
+      <c r="G211" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H211" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B212" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualDouble</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D212" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="23" t="str">
-        <f>B142&amp;C142</f>
-        <v>SubDouble</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="16" t="s">
+      <c r="G212" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H212" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B213" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualString</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D213" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="str">
-        <f>B143&amp;C143</f>
-        <v>SubString</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C143" s="16" t="s">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B214" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualObject</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D214" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="23" t="str">
-        <f>B144&amp;C144</f>
-        <v>SubObject</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C144" s="16" t="s">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B215" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>GreaterEqualFunction</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D215" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="23" t="str">
-        <f>B145&amp;C145</f>
-        <v>SubFunction</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="str">
-        <f>B146&amp;C146</f>
-        <v>MulVoid</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C146" s="16" t="s">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B216" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessVoid</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B217" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessBool</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D217" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="23" t="str">
-        <f>B147&amp;C147</f>
-        <v>MulBool</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C147" s="16" t="s">
+      <c r="G217" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H217" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B218" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessByte</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D218" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="23" t="str">
-        <f>B148&amp;C148</f>
-        <v>MulByte</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C148" s="16" t="s">
+      <c r="G218" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H218" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B219" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessInt</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D219" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="23" t="str">
-        <f>B149&amp;C149</f>
-        <v>MulInt</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C149" s="16" t="s">
+      <c r="G219" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H219" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B220" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessLong</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D220" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="23" t="str">
-        <f>B150&amp;C150</f>
-        <v>MulLong</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C150" s="16" t="s">
+      <c r="G220" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H220" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B221" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessFloat</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D221" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="23" t="str">
-        <f>B151&amp;C151</f>
-        <v>MulFloat</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C151" s="16" t="s">
+      <c r="G221" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H221" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B222" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessDouble</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D222" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="23" t="str">
-        <f>B152&amp;C152</f>
-        <v>MulDouble</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C152" s="16" t="s">
+      <c r="G222" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H222" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B223" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessString</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D223" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="23" t="str">
-        <f>B153&amp;C153</f>
-        <v>MulString</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C153" s="16" t="s">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B224" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessObject</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D224" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="23" t="str">
-        <f>B154&amp;C154</f>
-        <v>MulObject</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C154" s="16" t="s">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B225" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessFunction</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D225" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="23" t="str">
-        <f>B155&amp;C155</f>
-        <v>MulFunction</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="23" t="str">
-        <f>B156&amp;C156</f>
-        <v>DivVoid</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C156" s="16" t="s">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B226" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessEqualVoid</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B227" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>LessEqualBool</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D227" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="23" t="str">
-        <f>B157&amp;C157</f>
-        <v>DivBool</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C157" s="16" t="s">
+      <c r="G227" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H227" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B228" s="23" t="str">
+        <f t="shared" ref="B228:B259" si="7">C228&amp;D228</f>
+        <v>LessEqualByte</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D228" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="23" t="str">
-        <f>B158&amp;C158</f>
-        <v>DivByte</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C158" s="16" t="s">
+      <c r="G228" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H228" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B229" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualInt</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D229" s="16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="23" t="str">
-        <f>B159&amp;C159</f>
-        <v>DivInt</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C159" s="16" t="s">
+      <c r="G229" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H229" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B230" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualLong</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D230" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="23" t="str">
-        <f>B160&amp;C160</f>
-        <v>DivLong</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C160" s="16" t="s">
+      <c r="G230" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H230" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B231" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualFloat</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D231" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="23" t="str">
-        <f>B161&amp;C161</f>
-        <v>DivFloat</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C161" s="16" t="s">
+      <c r="G231" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H231" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B232" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualDouble</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D232" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="23" t="str">
-        <f>B162&amp;C162</f>
-        <v>DivDouble</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C162" s="16" t="s">
+      <c r="G232" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H232" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B233" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualString</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D233" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="23" t="str">
-        <f>B163&amp;C163</f>
-        <v>DivString</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C163" s="16" t="s">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B234" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualObject</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D234" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="23" t="str">
-        <f>B164&amp;C164</f>
-        <v>DivObject</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C164" s="16" t="s">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B235" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>LessEqualFunction</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D235" s="16" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="23" t="str">
-        <f>B165&amp;C165</f>
-        <v>DivFunction</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="23" t="str">
-        <f>B166&amp;C166</f>
-        <v>EqualVoid</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="23" t="str">
-        <f>B167&amp;C167</f>
-        <v>EqualBool</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G167" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="23" t="str">
-        <f>B168&amp;C168</f>
-        <v>EqualByte</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G168" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="23" t="str">
-        <f>B169&amp;C169</f>
-        <v>EqualInt</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G169" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="23" t="str">
-        <f>B170&amp;C170</f>
-        <v>EqualLong</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G170" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="23" t="str">
-        <f>B171&amp;C171</f>
-        <v>EqualFloat</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G171" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="23" t="str">
-        <f>B172&amp;C172</f>
-        <v>EqualDouble</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G172" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="23" t="str">
-        <f>B173&amp;C173</f>
-        <v>EqualString</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="23" t="str">
-        <f>B174&amp;C174</f>
-        <v>EqualObject</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="23" t="str">
-        <f>B175&amp;C175</f>
-        <v>EqualFunction</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="23" t="str">
-        <f>B176&amp;C176</f>
-        <v>NotEqualVoid</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="str">
-        <f>B177&amp;C177</f>
-        <v>NotEqualBool</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F177" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G177" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="23" t="str">
-        <f>B178&amp;C178</f>
-        <v>NotEqualByte</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G178" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="23" t="str">
-        <f>B179&amp;C179</f>
-        <v>NotEqualInt</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G179" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="23" t="str">
-        <f>B180&amp;C180</f>
-        <v>NotEqualLong</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G180" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="23" t="str">
-        <f>B181&amp;C181</f>
-        <v>NotEqualFloat</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F181" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G181" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="23" t="str">
-        <f>B182&amp;C182</f>
-        <v>NotEqualDouble</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G182" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="23" t="str">
-        <f>B183&amp;C183</f>
-        <v>NotEqualString</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="23" t="str">
-        <f>B184&amp;C184</f>
-        <v>NotEqualObject</v>
-      </c>
-      <c r="B184" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="23" t="str">
-        <f>B185&amp;C185</f>
-        <v>NotEqualFunction</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="23" t="str">
-        <f>B186&amp;C186</f>
-        <v>GreaterVoid</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="23" t="str">
-        <f>B187&amp;C187</f>
-        <v>GreaterBool</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F187" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G187" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="23" t="str">
-        <f>B188&amp;C188</f>
-        <v>GreaterByte</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F188" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G188" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="23" t="str">
-        <f>B189&amp;C189</f>
-        <v>GreaterInt</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F189" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G189" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="23" t="str">
-        <f>B190&amp;C190</f>
-        <v>GreaterLong</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F190" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G190" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="23" t="str">
-        <f>B191&amp;C191</f>
-        <v>GreaterFloat</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F191" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G191" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="23" t="str">
-        <f>B192&amp;C192</f>
-        <v>GreaterDouble</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G192" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="23" t="str">
-        <f>B193&amp;C193</f>
-        <v>GreaterString</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="23" t="str">
-        <f>B194&amp;C194</f>
-        <v>GreaterObject</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="23" t="str">
-        <f>B195&amp;C195</f>
-        <v>GreaterFunction</v>
-      </c>
-      <c r="B195" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="23" t="str">
-        <f>B196&amp;C196</f>
-        <v>GreaterEqualVoid</v>
-      </c>
-      <c r="B196" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="23" t="str">
-        <f>B197&amp;C197</f>
-        <v>GreaterEqualBool</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F197" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G197" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="23" t="str">
-        <f>B198&amp;C198</f>
-        <v>GreaterEqualByte</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F198" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G198" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="23" t="str">
-        <f>B199&amp;C199</f>
-        <v>GreaterEqualInt</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F199" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G199" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="23" t="str">
-        <f>B200&amp;C200</f>
-        <v>GreaterEqualLong</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G200" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="23" t="str">
-        <f>B201&amp;C201</f>
-        <v>GreaterEqualFloat</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G201" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="23" t="str">
-        <f>B202&amp;C202</f>
-        <v>GreaterEqualDouble</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F202" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G202" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="23" t="str">
-        <f>B203&amp;C203</f>
-        <v>GreaterEqualString</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="23" t="str">
-        <f>B204&amp;C204</f>
-        <v>GreaterEqualObject</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="23" t="str">
-        <f>B205&amp;C205</f>
-        <v>GreaterEqualFunction</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="23" t="str">
-        <f>B206&amp;C206</f>
-        <v>LessVoid</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="23" t="str">
-        <f>B207&amp;C207</f>
-        <v>LessBool</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G207" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="23" t="str">
-        <f>B208&amp;C208</f>
-        <v>LessByte</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F208" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G208" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="23" t="str">
-        <f>B209&amp;C209</f>
-        <v>LessInt</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F209" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G209" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="23" t="str">
-        <f>B210&amp;C210</f>
-        <v>LessLong</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F210" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G210" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="23" t="str">
-        <f>B211&amp;C211</f>
-        <v>LessFloat</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F211" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G211" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="23" t="str">
-        <f>B212&amp;C212</f>
-        <v>LessDouble</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F212" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G212" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="23" t="str">
-        <f>B213&amp;C213</f>
-        <v>LessString</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="23" t="str">
-        <f>B214&amp;C214</f>
-        <v>LessObject</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="23" t="str">
-        <f>B215&amp;C215</f>
-        <v>LessFunction</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="23" t="str">
-        <f>B216&amp;C216</f>
-        <v>LessEqualVoid</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="23" t="str">
-        <f>B217&amp;C217</f>
-        <v>LessEqualBool</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G217" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="23" t="str">
-        <f>B218&amp;C218</f>
-        <v>LessEqualByte</v>
-      </c>
-      <c r="B218" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F218" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G218" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="23" t="str">
-        <f>B219&amp;C219</f>
-        <v>LessEqualInt</v>
-      </c>
-      <c r="B219" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F219" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G219" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="23" t="str">
-        <f>B220&amp;C220</f>
-        <v>LessEqualLong</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F220" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G220" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="23" t="str">
-        <f>B221&amp;C221</f>
-        <v>LessEqualFloat</v>
-      </c>
-      <c r="B221" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F221" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G221" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="23" t="str">
-        <f>B222&amp;C222</f>
-        <v>LessEqualDouble</v>
-      </c>
-      <c r="B222" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F222" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G222" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="23" t="str">
-        <f>B223&amp;C223</f>
-        <v>LessEqualString</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="23" t="str">
-        <f>B224&amp;C224</f>
-        <v>LessEqualObject</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="23" t="str">
-        <f>B225&amp;C225</f>
-        <v>LessEqualFunction</v>
-      </c>
-      <c r="B225" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6341,146 +6664,146 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6507,199 +6830,199 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -6726,27 +7049,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -6755,15 +7078,15 @@
         <v>0</v>
       </c>